--- a/data-migration/xlsx_1900-/1902_Sommer.xlsx
+++ b/data-migration/xlsx_1900-/1902_Sommer.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55C73C6-2C03-4BF2-8FCF-F59ED6666C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{810C83B1-DA8F-4FE3-889B-B72048C8BFFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3047,9 +3047,6 @@
     <t>haab_o</t>
   </si>
   <si>
-    <t>fick_ae</t>
-  </si>
-  <si>
     <t>wyder_t</t>
   </si>
   <si>
@@ -3215,9 +3212,6 @@
     <t>dodel_a</t>
   </si>
   <si>
-    <t>schinz_h1</t>
-  </si>
-  <si>
     <t>kuendig_j</t>
   </si>
   <si>
@@ -3260,9 +3254,6 @@
     <t>schulthess_w</t>
   </si>
   <si>
-    <t>meyervonknonau_g</t>
-  </si>
-  <si>
     <t>haene_j</t>
   </si>
   <si>
@@ -3323,7 +3314,16 @@
     <t>Doz</t>
   </si>
   <si>
-    <t>heim_a1</t>
+    <t>fick_age</t>
+  </si>
+  <si>
+    <t>meyer-knonau_g</t>
+  </si>
+  <si>
+    <t>schinz_h</t>
+  </si>
+  <si>
+    <t>heim_a</t>
   </si>
 </sst>
 </file>
@@ -3667,19 +3667,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="H107" sqref="H107"/>
+    <sheetView tabSelected="1" topLeftCell="A306" workbookViewId="0">
+      <selection activeCell="H331" sqref="H331"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="23.81640625" customWidth="1"/>
-    <col min="6" max="6" width="52.81640625" customWidth="1"/>
-    <col min="8" max="8" width="30.453125" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" customWidth="1"/>
+    <col min="6" max="6" width="52.85546875" customWidth="1"/>
+    <col min="8" max="8" width="30.42578125" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1902</v>
       </c>
@@ -3690,7 +3690,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="F1" t="s">
         <v>367</v>
@@ -3705,7 +3705,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1902</v>
       </c>
@@ -3716,7 +3716,7 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="F2" t="s">
         <v>368</v>
@@ -3731,7 +3731,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1902</v>
       </c>
@@ -3742,7 +3742,7 @@
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="F3" t="s">
         <v>369</v>
@@ -3757,7 +3757,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1902</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="F4" t="s">
         <v>370</v>
@@ -3777,7 +3777,7 @@
         <v>733</v>
       </c>
       <c r="H4" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="I4" t="s">
         <v>964</v>
@@ -3786,7 +3786,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1902</v>
       </c>
@@ -3797,7 +3797,7 @@
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="F5" t="s">
         <v>371</v>
@@ -3806,7 +3806,7 @@
         <v>734</v>
       </c>
       <c r="H5" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="I5" t="s">
         <v>964</v>
@@ -3815,7 +3815,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1902</v>
       </c>
@@ -3826,7 +3826,7 @@
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="F6" t="s">
         <v>372</v>
@@ -3841,7 +3841,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1902</v>
       </c>
@@ -3852,7 +3852,7 @@
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="F7" t="s">
         <v>373</v>
@@ -3867,7 +3867,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1902</v>
       </c>
@@ -3878,7 +3878,7 @@
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="F8" t="s">
         <v>374</v>
@@ -3893,7 +3893,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1902</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="F9" t="s">
         <v>375</v>
@@ -3919,7 +3919,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1902</v>
       </c>
@@ -3930,7 +3930,7 @@
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="F10" t="s">
         <v>376</v>
@@ -3945,7 +3945,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1902</v>
       </c>
@@ -3956,7 +3956,7 @@
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="F11" t="s">
         <v>377</v>
@@ -3971,7 +3971,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1902</v>
       </c>
@@ -3982,7 +3982,7 @@
         <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="F12" t="s">
         <v>378</v>
@@ -3997,7 +3997,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1902</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="F13" t="s">
         <v>379</v>
@@ -4023,7 +4023,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1902</v>
       </c>
@@ -4034,7 +4034,7 @@
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="F14" t="s">
         <v>380</v>
@@ -4049,7 +4049,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1902</v>
       </c>
@@ -4060,7 +4060,7 @@
         <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="F15" t="s">
         <v>381</v>
@@ -4075,7 +4075,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1902</v>
       </c>
@@ -4086,7 +4086,7 @@
         <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="F16" t="s">
         <v>382</v>
@@ -4101,7 +4101,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1902</v>
       </c>
@@ -4112,7 +4112,7 @@
         <v>18</v>
       </c>
       <c r="E17" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="F17" t="s">
         <v>383</v>
@@ -4121,13 +4121,13 @@
         <v>742</v>
       </c>
       <c r="H17" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="I17" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1902</v>
       </c>
@@ -4138,7 +4138,7 @@
         <v>19</v>
       </c>
       <c r="E18" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="F18" t="s">
         <v>384</v>
@@ -4147,13 +4147,13 @@
         <v>743</v>
       </c>
       <c r="H18" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="I18" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1902</v>
       </c>
@@ -4164,7 +4164,7 @@
         <v>20</v>
       </c>
       <c r="E19" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="F19" t="s">
         <v>385</v>
@@ -4179,7 +4179,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1902</v>
       </c>
@@ -4190,7 +4190,7 @@
         <v>21</v>
       </c>
       <c r="E20" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="F20" t="s">
         <v>386</v>
@@ -4205,7 +4205,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1902</v>
       </c>
@@ -4216,7 +4216,7 @@
         <v>22</v>
       </c>
       <c r="E21" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="F21" t="s">
         <v>387</v>
@@ -4225,13 +4225,13 @@
         <v>745</v>
       </c>
       <c r="H21" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="I21" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1902</v>
       </c>
@@ -4242,7 +4242,7 @@
         <v>23</v>
       </c>
       <c r="E22" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="F22" t="s">
         <v>388</v>
@@ -4251,13 +4251,13 @@
         <v>746</v>
       </c>
       <c r="H22" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="I22" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1902</v>
       </c>
@@ -4268,7 +4268,7 @@
         <v>24</v>
       </c>
       <c r="E23" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="F23" t="s">
         <v>389</v>
@@ -4277,13 +4277,13 @@
         <v>741</v>
       </c>
       <c r="H23" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="I23" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1902</v>
       </c>
@@ -4294,7 +4294,7 @@
         <v>25</v>
       </c>
       <c r="E24" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="F24" t="s">
         <v>390</v>
@@ -4303,13 +4303,13 @@
         <v>741</v>
       </c>
       <c r="H24" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="I24" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1902</v>
       </c>
@@ -4320,7 +4320,7 @@
         <v>26</v>
       </c>
       <c r="E25" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="F25" t="s">
         <v>391</v>
@@ -4329,7 +4329,7 @@
         <v>737</v>
       </c>
       <c r="H25" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="I25" t="s">
         <v>964</v>
@@ -4338,7 +4338,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1902</v>
       </c>
@@ -4349,7 +4349,7 @@
         <v>27</v>
       </c>
       <c r="E26" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="F26" t="s">
         <v>392</v>
@@ -4364,7 +4364,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1902</v>
       </c>
@@ -4375,7 +4375,7 @@
         <v>28</v>
       </c>
       <c r="E27" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="F27" t="s">
         <v>393</v>
@@ -4384,7 +4384,7 @@
         <v>737</v>
       </c>
       <c r="H27" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="I27" t="s">
         <v>964</v>
@@ -4393,7 +4393,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1902</v>
       </c>
@@ -4404,7 +4404,7 @@
         <v>29</v>
       </c>
       <c r="E28" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="F28" t="s">
         <v>394</v>
@@ -4419,7 +4419,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1902</v>
       </c>
@@ -4430,7 +4430,7 @@
         <v>30</v>
       </c>
       <c r="E29" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="F29" t="s">
         <v>395</v>
@@ -4439,13 +4439,13 @@
         <v>748</v>
       </c>
       <c r="H29" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="I29" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1902</v>
       </c>
@@ -4456,7 +4456,7 @@
         <v>31</v>
       </c>
       <c r="E30" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="F30" t="s">
         <v>396</v>
@@ -4471,7 +4471,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1902</v>
       </c>
@@ -4482,7 +4482,7 @@
         <v>32</v>
       </c>
       <c r="E31" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="F31" t="s">
         <v>397</v>
@@ -4491,13 +4491,13 @@
         <v>750</v>
       </c>
       <c r="H31" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="I31" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1902</v>
       </c>
@@ -4508,7 +4508,7 @@
         <v>33</v>
       </c>
       <c r="E32" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="F32" t="s">
         <v>398</v>
@@ -4523,7 +4523,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1902</v>
       </c>
@@ -4534,7 +4534,7 @@
         <v>34</v>
       </c>
       <c r="E33" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="F33" t="s">
         <v>399</v>
@@ -4543,13 +4543,13 @@
         <v>752</v>
       </c>
       <c r="H33" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="I33" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1902</v>
       </c>
@@ -4560,7 +4560,7 @@
         <v>35</v>
       </c>
       <c r="E34" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="F34" t="s">
         <v>400</v>
@@ -4575,7 +4575,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1902</v>
       </c>
@@ -4586,7 +4586,7 @@
         <v>36</v>
       </c>
       <c r="E35" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="F35" t="s">
         <v>401</v>
@@ -4604,7 +4604,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1902</v>
       </c>
@@ -4615,7 +4615,7 @@
         <v>37</v>
       </c>
       <c r="E36" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="F36" t="s">
         <v>402</v>
@@ -4630,7 +4630,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1902</v>
       </c>
@@ -4641,7 +4641,7 @@
         <v>38</v>
       </c>
       <c r="E37" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="F37" t="s">
         <v>403</v>
@@ -4659,7 +4659,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1902</v>
       </c>
@@ -4670,7 +4670,7 @@
         <v>39</v>
       </c>
       <c r="E38" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="F38" t="s">
         <v>404</v>
@@ -4685,7 +4685,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1902</v>
       </c>
@@ -4696,7 +4696,7 @@
         <v>40</v>
       </c>
       <c r="E39" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="F39" t="s">
         <v>405</v>
@@ -4711,7 +4711,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1902</v>
       </c>
@@ -4722,7 +4722,7 @@
         <v>41</v>
       </c>
       <c r="E40" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="F40" t="s">
         <v>406</v>
@@ -4737,7 +4737,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1902</v>
       </c>
@@ -4748,7 +4748,7 @@
         <v>42</v>
       </c>
       <c r="E41" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="F41" t="s">
         <v>407</v>
@@ -4763,7 +4763,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1902</v>
       </c>
@@ -4774,7 +4774,7 @@
         <v>43</v>
       </c>
       <c r="E42" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="F42" t="s">
         <v>408</v>
@@ -4789,7 +4789,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1902</v>
       </c>
@@ -4800,7 +4800,7 @@
         <v>44</v>
       </c>
       <c r="E43" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="F43" t="s">
         <v>409</v>
@@ -4815,7 +4815,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1902</v>
       </c>
@@ -4826,7 +4826,7 @@
         <v>45</v>
       </c>
       <c r="E44" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="F44" t="s">
         <v>410</v>
@@ -4841,7 +4841,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1902</v>
       </c>
@@ -4852,7 +4852,7 @@
         <v>46</v>
       </c>
       <c r="E45" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="F45" t="s">
         <v>411</v>
@@ -4867,7 +4867,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1902</v>
       </c>
@@ -4878,7 +4878,7 @@
         <v>47</v>
       </c>
       <c r="E46" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="F46" t="s">
         <v>412</v>
@@ -4893,7 +4893,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1902</v>
       </c>
@@ -4904,7 +4904,7 @@
         <v>48</v>
       </c>
       <c r="E47" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="F47" t="s">
         <v>413</v>
@@ -4919,7 +4919,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1902</v>
       </c>
@@ -4930,7 +4930,7 @@
         <v>49</v>
       </c>
       <c r="E48" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="F48" t="s">
         <v>414</v>
@@ -4945,7 +4945,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1902</v>
       </c>
@@ -4956,7 +4956,7 @@
         <v>50</v>
       </c>
       <c r="E49" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="F49" t="s">
         <v>415</v>
@@ -4971,7 +4971,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1902</v>
       </c>
@@ -4982,7 +4982,7 @@
         <v>51</v>
       </c>
       <c r="E50" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="F50" t="s">
         <v>416</v>
@@ -5000,7 +5000,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1902</v>
       </c>
@@ -5011,7 +5011,7 @@
         <v>52</v>
       </c>
       <c r="E51" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="F51" t="s">
         <v>417</v>
@@ -5029,7 +5029,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1902</v>
       </c>
@@ -5040,7 +5040,7 @@
         <v>53</v>
       </c>
       <c r="E52" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="F52" t="s">
         <v>418</v>
@@ -5055,7 +5055,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1902</v>
       </c>
@@ -5066,7 +5066,7 @@
         <v>54</v>
       </c>
       <c r="E53" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="F53" t="s">
         <v>419</v>
@@ -5081,7 +5081,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1902</v>
       </c>
@@ -5092,7 +5092,7 @@
         <v>55</v>
       </c>
       <c r="E54" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="F54" t="s">
         <v>420</v>
@@ -5101,13 +5101,13 @@
         <v>760</v>
       </c>
       <c r="H54" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="I54" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1902</v>
       </c>
@@ -5118,7 +5118,7 @@
         <v>56</v>
       </c>
       <c r="E55" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="F55" t="s">
         <v>421</v>
@@ -5127,13 +5127,13 @@
         <v>772</v>
       </c>
       <c r="H55" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="I55" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1902</v>
       </c>
@@ -5144,7 +5144,7 @@
         <v>57</v>
       </c>
       <c r="E56" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="F56" t="s">
         <v>422</v>
@@ -5159,7 +5159,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1902</v>
       </c>
@@ -5170,7 +5170,7 @@
         <v>58</v>
       </c>
       <c r="E57" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="F57" t="s">
         <v>423</v>
@@ -5185,7 +5185,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1902</v>
       </c>
@@ -5196,7 +5196,7 @@
         <v>59</v>
       </c>
       <c r="E58" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="F58" t="s">
         <v>424</v>
@@ -5214,7 +5214,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1902</v>
       </c>
@@ -5225,7 +5225,7 @@
         <v>60</v>
       </c>
       <c r="E59" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="F59" t="s">
         <v>425</v>
@@ -5240,7 +5240,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1902</v>
       </c>
@@ -5251,7 +5251,7 @@
         <v>61</v>
       </c>
       <c r="E60" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="F60" t="s">
         <v>426</v>
@@ -5266,7 +5266,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1902</v>
       </c>
@@ -5277,7 +5277,7 @@
         <v>62</v>
       </c>
       <c r="E61" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="F61" t="s">
         <v>427</v>
@@ -5295,7 +5295,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1902</v>
       </c>
@@ -5306,7 +5306,7 @@
         <v>63</v>
       </c>
       <c r="E62" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="F62" t="s">
         <v>428</v>
@@ -5321,7 +5321,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1902</v>
       </c>
@@ -5332,7 +5332,7 @@
         <v>64</v>
       </c>
       <c r="E63" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F63" t="s">
         <v>429</v>
@@ -5347,7 +5347,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1902</v>
       </c>
@@ -5358,7 +5358,7 @@
         <v>65</v>
       </c>
       <c r="E64" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F64" t="s">
         <v>430</v>
@@ -5379,7 +5379,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1902</v>
       </c>
@@ -5390,7 +5390,7 @@
         <v>66</v>
       </c>
       <c r="E65" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F65" t="s">
         <v>431</v>
@@ -5405,7 +5405,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1902</v>
       </c>
@@ -5416,7 +5416,7 @@
         <v>67</v>
       </c>
       <c r="E66" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F66" t="s">
         <v>432</v>
@@ -5437,7 +5437,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1902</v>
       </c>
@@ -5448,7 +5448,7 @@
         <v>68</v>
       </c>
       <c r="E67" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F67" t="s">
         <v>433</v>
@@ -5469,7 +5469,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1902</v>
       </c>
@@ -5480,7 +5480,7 @@
         <v>69</v>
       </c>
       <c r="E68" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F68" t="s">
         <v>434</v>
@@ -5495,7 +5495,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1902</v>
       </c>
@@ -5506,7 +5506,7 @@
         <v>70</v>
       </c>
       <c r="E69" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F69" t="s">
         <v>435</v>
@@ -5521,7 +5521,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1902</v>
       </c>
@@ -5532,7 +5532,7 @@
         <v>71</v>
       </c>
       <c r="E70" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F70" t="s">
         <v>436</v>
@@ -5547,7 +5547,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1902</v>
       </c>
@@ -5558,7 +5558,7 @@
         <v>72</v>
       </c>
       <c r="E71" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F71" t="s">
         <v>437</v>
@@ -5573,7 +5573,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1902</v>
       </c>
@@ -5584,7 +5584,7 @@
         <v>73</v>
       </c>
       <c r="E72" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F72" t="s">
         <v>438</v>
@@ -5593,13 +5593,13 @@
         <v>787</v>
       </c>
       <c r="H72" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="I72" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1902</v>
       </c>
@@ -5610,7 +5610,7 @@
         <v>74</v>
       </c>
       <c r="E73" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F73" t="s">
         <v>439</v>
@@ -5619,13 +5619,13 @@
         <v>788</v>
       </c>
       <c r="H73" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="I73" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1902</v>
       </c>
@@ -5636,7 +5636,7 @@
         <v>75</v>
       </c>
       <c r="E74" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F74" t="s">
         <v>440</v>
@@ -5651,7 +5651,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1902</v>
       </c>
@@ -5662,7 +5662,7 @@
         <v>76</v>
       </c>
       <c r="E75" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F75" t="s">
         <v>441</v>
@@ -5677,7 +5677,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1902</v>
       </c>
@@ -5688,7 +5688,7 @@
         <v>77</v>
       </c>
       <c r="E76" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F76" t="s">
         <v>442</v>
@@ -5703,7 +5703,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1902</v>
       </c>
@@ -5714,7 +5714,7 @@
         <v>78</v>
       </c>
       <c r="E77" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F77" t="s">
         <v>443</v>
@@ -5729,7 +5729,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1902</v>
       </c>
@@ -5740,7 +5740,7 @@
         <v>79</v>
       </c>
       <c r="E78" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F78" t="s">
         <v>444</v>
@@ -5755,7 +5755,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1902</v>
       </c>
@@ -5766,7 +5766,7 @@
         <v>80</v>
       </c>
       <c r="E79" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F79" t="s">
         <v>445</v>
@@ -5775,13 +5775,13 @@
         <v>755</v>
       </c>
       <c r="H79" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="I79" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1902</v>
       </c>
@@ -5792,7 +5792,7 @@
         <v>81</v>
       </c>
       <c r="E80" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F80" t="s">
         <v>446</v>
@@ -5801,13 +5801,13 @@
         <v>792</v>
       </c>
       <c r="H80" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="I80" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1902</v>
       </c>
@@ -5818,7 +5818,7 @@
         <v>82</v>
       </c>
       <c r="E81" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F81" t="s">
         <v>447</v>
@@ -5827,13 +5827,13 @@
         <v>793</v>
       </c>
       <c r="H81" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="I81" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1902</v>
       </c>
@@ -5844,7 +5844,7 @@
         <v>83</v>
       </c>
       <c r="E82" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F82" t="s">
         <v>448</v>
@@ -5853,13 +5853,13 @@
         <v>794</v>
       </c>
       <c r="H82" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="I82" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1902</v>
       </c>
@@ -5870,7 +5870,7 @@
         <v>84</v>
       </c>
       <c r="E83" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F83" t="s">
         <v>449</v>
@@ -5879,13 +5879,13 @@
         <v>795</v>
       </c>
       <c r="H83" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="I83" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1902</v>
       </c>
@@ -5896,7 +5896,7 @@
         <v>85</v>
       </c>
       <c r="E84" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F84" t="s">
         <v>450</v>
@@ -5905,13 +5905,13 @@
         <v>738</v>
       </c>
       <c r="H84" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="I84" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1902</v>
       </c>
@@ -5922,7 +5922,7 @@
         <v>86</v>
       </c>
       <c r="E85" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F85" t="s">
         <v>451</v>
@@ -5931,13 +5931,13 @@
         <v>737</v>
       </c>
       <c r="H85" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="I85" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1902</v>
       </c>
@@ -5948,7 +5948,7 @@
         <v>87</v>
       </c>
       <c r="E86" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F86" t="s">
         <v>452</v>
@@ -5957,13 +5957,13 @@
         <v>796</v>
       </c>
       <c r="H86" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="I86" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1902</v>
       </c>
@@ -5974,7 +5974,7 @@
         <v>88</v>
       </c>
       <c r="E87" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F87" t="s">
         <v>453</v>
@@ -5983,13 +5983,13 @@
         <v>797</v>
       </c>
       <c r="H87" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="I87" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1902</v>
       </c>
@@ -6000,7 +6000,7 @@
         <v>89</v>
       </c>
       <c r="E88" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F88" t="s">
         <v>454</v>
@@ -6009,13 +6009,13 @@
         <v>798</v>
       </c>
       <c r="H88" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="I88" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1902</v>
       </c>
@@ -6026,7 +6026,7 @@
         <v>90</v>
       </c>
       <c r="E89" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F89" t="s">
         <v>455</v>
@@ -6035,13 +6035,13 @@
         <v>799</v>
       </c>
       <c r="H89" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="I89" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1902</v>
       </c>
@@ -6052,7 +6052,7 @@
         <v>91</v>
       </c>
       <c r="E90" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F90" t="s">
         <v>456</v>
@@ -6061,13 +6061,13 @@
         <v>783</v>
       </c>
       <c r="H90" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="I90" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1902</v>
       </c>
@@ -6078,7 +6078,7 @@
         <v>92</v>
       </c>
       <c r="E91" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F91" t="s">
         <v>457</v>
@@ -6087,13 +6087,13 @@
         <v>755</v>
       </c>
       <c r="H91" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="I91" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1902</v>
       </c>
@@ -6104,7 +6104,7 @@
         <v>93</v>
       </c>
       <c r="E92" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F92" t="s">
         <v>458</v>
@@ -6113,13 +6113,13 @@
         <v>800</v>
       </c>
       <c r="H92" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="I92" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1902</v>
       </c>
@@ -6130,7 +6130,7 @@
         <v>94</v>
       </c>
       <c r="E93" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F93" t="s">
         <v>459</v>
@@ -6145,7 +6145,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1902</v>
       </c>
@@ -6156,7 +6156,7 @@
         <v>95</v>
       </c>
       <c r="E94" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F94" t="s">
         <v>460</v>
@@ -6171,7 +6171,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1902</v>
       </c>
@@ -6182,7 +6182,7 @@
         <v>96</v>
       </c>
       <c r="E95" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F95" t="s">
         <v>461</v>
@@ -6197,7 +6197,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1902</v>
       </c>
@@ -6208,7 +6208,7 @@
         <v>97</v>
       </c>
       <c r="E96" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F96" t="s">
         <v>462</v>
@@ -6223,7 +6223,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1902</v>
       </c>
@@ -6234,7 +6234,7 @@
         <v>98</v>
       </c>
       <c r="E97" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F97" t="s">
         <v>463</v>
@@ -6249,7 +6249,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1902</v>
       </c>
@@ -6260,7 +6260,7 @@
         <v>99</v>
       </c>
       <c r="E98" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F98" t="s">
         <v>464</v>
@@ -6275,7 +6275,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1902</v>
       </c>
@@ -6286,7 +6286,7 @@
         <v>100</v>
       </c>
       <c r="E99" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F99" t="s">
         <v>465</v>
@@ -6301,7 +6301,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1902</v>
       </c>
@@ -6312,7 +6312,7 @@
         <v>101</v>
       </c>
       <c r="E100" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F100" t="s">
         <v>466</v>
@@ -6327,7 +6327,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1902</v>
       </c>
@@ -6338,7 +6338,7 @@
         <v>102</v>
       </c>
       <c r="E101" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F101" t="s">
         <v>467</v>
@@ -6347,13 +6347,13 @@
         <v>805</v>
       </c>
       <c r="H101" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="I101" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1902</v>
       </c>
@@ -6364,7 +6364,7 @@
         <v>103</v>
       </c>
       <c r="E102" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F102" t="s">
         <v>468</v>
@@ -6373,13 +6373,13 @@
         <v>755</v>
       </c>
       <c r="H102" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="I102" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1902</v>
       </c>
@@ -6390,7 +6390,7 @@
         <v>104</v>
       </c>
       <c r="E103" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F103" t="s">
         <v>469</v>
@@ -6399,13 +6399,13 @@
         <v>737</v>
       </c>
       <c r="H103" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="I103" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1902</v>
       </c>
@@ -6416,7 +6416,7 @@
         <v>105</v>
       </c>
       <c r="E104" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F104" t="s">
         <v>470</v>
@@ -6431,7 +6431,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1902</v>
       </c>
@@ -6442,7 +6442,7 @@
         <v>106</v>
       </c>
       <c r="E105" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F105" t="s">
         <v>471</v>
@@ -6457,7 +6457,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1902</v>
       </c>
@@ -6468,7 +6468,7 @@
         <v>107</v>
       </c>
       <c r="E106" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F106" t="s">
         <v>472</v>
@@ -6483,7 +6483,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>1902</v>
       </c>
@@ -6494,7 +6494,7 @@
         <v>108</v>
       </c>
       <c r="E107" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F107" t="s">
         <v>473</v>
@@ -6509,7 +6509,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1902</v>
       </c>
@@ -6520,7 +6520,7 @@
         <v>109</v>
       </c>
       <c r="E108" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F108" t="s">
         <v>474</v>
@@ -6535,7 +6535,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>1902</v>
       </c>
@@ -6546,7 +6546,7 @@
         <v>110</v>
       </c>
       <c r="E109" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F109" t="s">
         <v>475</v>
@@ -6555,13 +6555,13 @@
         <v>807</v>
       </c>
       <c r="H109" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="I109" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1902</v>
       </c>
@@ -6572,7 +6572,7 @@
         <v>111</v>
       </c>
       <c r="E110" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F110" t="s">
         <v>476</v>
@@ -6581,13 +6581,13 @@
         <v>808</v>
       </c>
       <c r="H110" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="I110" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>1902</v>
       </c>
@@ -6598,7 +6598,7 @@
         <v>112</v>
       </c>
       <c r="E111" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F111" t="s">
         <v>477</v>
@@ -6613,7 +6613,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>1902</v>
       </c>
@@ -6624,7 +6624,7 @@
         <v>113</v>
       </c>
       <c r="E112" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F112" t="s">
         <v>478</v>
@@ -6639,7 +6639,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>1902</v>
       </c>
@@ -6650,7 +6650,7 @@
         <v>114</v>
       </c>
       <c r="E113" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F113" t="s">
         <v>479</v>
@@ -6665,7 +6665,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>1902</v>
       </c>
@@ -6676,7 +6676,7 @@
         <v>115</v>
       </c>
       <c r="E114" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F114" t="s">
         <v>480</v>
@@ -6685,13 +6685,13 @@
         <v>755</v>
       </c>
       <c r="H114" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="I114" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>1902</v>
       </c>
@@ -6702,7 +6702,7 @@
         <v>116</v>
       </c>
       <c r="E115" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F115" t="s">
         <v>481</v>
@@ -6711,13 +6711,13 @@
         <v>812</v>
       </c>
       <c r="H115" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="I115" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>1902</v>
       </c>
@@ -6728,7 +6728,7 @@
         <v>117</v>
       </c>
       <c r="E116" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F116" t="s">
         <v>482</v>
@@ -6737,13 +6737,13 @@
         <v>741</v>
       </c>
       <c r="H116" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="I116" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>1902</v>
       </c>
@@ -6754,7 +6754,7 @@
         <v>118</v>
       </c>
       <c r="E117" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F117" t="s">
         <v>483</v>
@@ -6763,13 +6763,13 @@
         <v>741</v>
       </c>
       <c r="H117" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="I117" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1902</v>
       </c>
@@ -6780,7 +6780,7 @@
         <v>119</v>
       </c>
       <c r="E118" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F118" t="s">
         <v>484</v>
@@ -6795,7 +6795,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1902</v>
       </c>
@@ -6806,7 +6806,7 @@
         <v>120</v>
       </c>
       <c r="E119" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F119" t="s">
         <v>485</v>
@@ -6821,7 +6821,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1902</v>
       </c>
@@ -6832,7 +6832,7 @@
         <v>121</v>
       </c>
       <c r="E120" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F120" t="s">
         <v>486</v>
@@ -6847,7 +6847,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>1902</v>
       </c>
@@ -6858,7 +6858,7 @@
         <v>122</v>
       </c>
       <c r="E121" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F121" t="s">
         <v>487</v>
@@ -6873,7 +6873,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>1902</v>
       </c>
@@ -6884,7 +6884,7 @@
         <v>123</v>
       </c>
       <c r="E122" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F122" t="s">
         <v>488</v>
@@ -6899,7 +6899,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>1902</v>
       </c>
@@ -6910,7 +6910,7 @@
         <v>124</v>
       </c>
       <c r="E123" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F123" t="s">
         <v>489</v>
@@ -6925,7 +6925,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>1902</v>
       </c>
@@ -6936,7 +6936,7 @@
         <v>125</v>
       </c>
       <c r="E124" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F124" t="s">
         <v>490</v>
@@ -6951,7 +6951,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>1902</v>
       </c>
@@ -6962,7 +6962,7 @@
         <v>126</v>
       </c>
       <c r="E125" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F125" t="s">
         <v>491</v>
@@ -6977,7 +6977,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>1902</v>
       </c>
@@ -6988,7 +6988,7 @@
         <v>127</v>
       </c>
       <c r="E126" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F126" t="s">
         <v>492</v>
@@ -7003,7 +7003,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>1902</v>
       </c>
@@ -7014,7 +7014,7 @@
         <v>128</v>
       </c>
       <c r="E127" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F127" t="s">
         <v>493</v>
@@ -7029,7 +7029,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1902</v>
       </c>
@@ -7040,7 +7040,7 @@
         <v>129</v>
       </c>
       <c r="E128" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F128" t="s">
         <v>494</v>
@@ -7055,7 +7055,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>1902</v>
       </c>
@@ -7066,7 +7066,7 @@
         <v>130</v>
       </c>
       <c r="E129" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F129" t="s">
         <v>495</v>
@@ -7081,7 +7081,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1902</v>
       </c>
@@ -7092,7 +7092,7 @@
         <v>131</v>
       </c>
       <c r="E130" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F130" t="s">
         <v>496</v>
@@ -7107,7 +7107,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>1902</v>
       </c>
@@ -7118,7 +7118,7 @@
         <v>132</v>
       </c>
       <c r="E131" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F131" t="s">
         <v>497</v>
@@ -7133,7 +7133,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>1902</v>
       </c>
@@ -7144,7 +7144,7 @@
         <v>133</v>
       </c>
       <c r="E132" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F132" t="s">
         <v>498</v>
@@ -7153,13 +7153,13 @@
         <v>755</v>
       </c>
       <c r="H132" t="s">
-        <v>1004</v>
+        <v>1093</v>
       </c>
       <c r="I132" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1902</v>
       </c>
@@ -7170,7 +7170,7 @@
         <v>134</v>
       </c>
       <c r="E133" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F133" t="s">
         <v>499</v>
@@ -7179,13 +7179,13 @@
         <v>823</v>
       </c>
       <c r="H133" t="s">
-        <v>1004</v>
+        <v>1093</v>
       </c>
       <c r="I133" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>1902</v>
       </c>
@@ -7196,7 +7196,7 @@
         <v>135</v>
       </c>
       <c r="E134" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F134" t="s">
         <v>500</v>
@@ -7205,13 +7205,13 @@
         <v>737</v>
       </c>
       <c r="H134" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="I134" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>1902</v>
       </c>
@@ -7222,7 +7222,7 @@
         <v>136</v>
       </c>
       <c r="E135" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F135" t="s">
         <v>501</v>
@@ -7231,13 +7231,13 @@
         <v>741</v>
       </c>
       <c r="H135" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="I135" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>1902</v>
       </c>
@@ -7248,7 +7248,7 @@
         <v>137</v>
       </c>
       <c r="E136" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F136" t="s">
         <v>502</v>
@@ -7257,13 +7257,13 @@
         <v>824</v>
       </c>
       <c r="H136" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="I136" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>1902</v>
       </c>
@@ -7274,7 +7274,7 @@
         <v>138</v>
       </c>
       <c r="E137" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F137" t="s">
         <v>503</v>
@@ -7283,13 +7283,13 @@
         <v>825</v>
       </c>
       <c r="H137" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="I137" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>1902</v>
       </c>
@@ -7300,7 +7300,7 @@
         <v>139</v>
       </c>
       <c r="E138" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F138" t="s">
         <v>504</v>
@@ -7309,13 +7309,13 @@
         <v>776</v>
       </c>
       <c r="H138" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="I138" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>1902</v>
       </c>
@@ -7326,7 +7326,7 @@
         <v>140</v>
       </c>
       <c r="E139" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F139" t="s">
         <v>505</v>
@@ -7335,13 +7335,13 @@
         <v>826</v>
       </c>
       <c r="H139" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="I139" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>1902</v>
       </c>
@@ -7352,7 +7352,7 @@
         <v>141</v>
       </c>
       <c r="E140" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F140" t="s">
         <v>506</v>
@@ -7361,13 +7361,13 @@
         <v>827</v>
       </c>
       <c r="H140" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="I140" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>1902</v>
       </c>
@@ -7378,7 +7378,7 @@
         <v>142</v>
       </c>
       <c r="E141" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F141" t="s">
         <v>507</v>
@@ -7387,7 +7387,7 @@
         <v>828</v>
       </c>
       <c r="H141" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="I141" t="s">
         <v>964</v>
@@ -7396,7 +7396,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>1902</v>
       </c>
@@ -7407,7 +7407,7 @@
         <v>143</v>
       </c>
       <c r="E142" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F142" t="s">
         <v>508</v>
@@ -7416,7 +7416,7 @@
         <v>829</v>
       </c>
       <c r="H142" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="I142" t="s">
         <v>964</v>
@@ -7425,7 +7425,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>1902</v>
       </c>
@@ -7436,7 +7436,7 @@
         <v>144</v>
       </c>
       <c r="E143" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F143" t="s">
         <v>509</v>
@@ -7445,13 +7445,13 @@
         <v>737</v>
       </c>
       <c r="H143" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="I143" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>1902</v>
       </c>
@@ -7462,7 +7462,7 @@
         <v>145</v>
       </c>
       <c r="E144" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F144" t="s">
         <v>510</v>
@@ -7471,13 +7471,13 @@
         <v>813</v>
       </c>
       <c r="H144" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="I144" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>1902</v>
       </c>
@@ -7488,7 +7488,7 @@
         <v>146</v>
       </c>
       <c r="E145" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F145" t="s">
         <v>511</v>
@@ -7497,13 +7497,13 @@
         <v>741</v>
       </c>
       <c r="H145" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="I145" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>1902</v>
       </c>
@@ -7514,7 +7514,7 @@
         <v>147</v>
       </c>
       <c r="E146" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F146" t="s">
         <v>512</v>
@@ -7523,13 +7523,13 @@
         <v>830</v>
       </c>
       <c r="H146" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="I146" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>1902</v>
       </c>
@@ -7540,7 +7540,7 @@
         <v>148</v>
       </c>
       <c r="E147" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F147" t="s">
         <v>513</v>
@@ -7549,13 +7549,13 @@
         <v>831</v>
       </c>
       <c r="H147" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="I147" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>1902</v>
       </c>
@@ -7566,7 +7566,7 @@
         <v>149</v>
       </c>
       <c r="E148" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F148" t="s">
         <v>514</v>
@@ -7575,13 +7575,13 @@
         <v>832</v>
       </c>
       <c r="H148" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="I148" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>1902</v>
       </c>
@@ -7592,7 +7592,7 @@
         <v>150</v>
       </c>
       <c r="E149" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F149" t="s">
         <v>515</v>
@@ -7601,13 +7601,13 @@
         <v>755</v>
       </c>
       <c r="H149" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="I149" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>1902</v>
       </c>
@@ -7618,7 +7618,7 @@
         <v>151</v>
       </c>
       <c r="E150" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F150" t="s">
         <v>516</v>
@@ -7627,13 +7627,13 @@
         <v>833</v>
       </c>
       <c r="H150" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="I150" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>1902</v>
       </c>
@@ -7644,7 +7644,7 @@
         <v>152</v>
       </c>
       <c r="E151" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F151" t="s">
         <v>517</v>
@@ -7653,13 +7653,13 @@
         <v>744</v>
       </c>
       <c r="H151" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="I151" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>1902</v>
       </c>
@@ -7670,7 +7670,7 @@
         <v>153</v>
       </c>
       <c r="E152" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F152" t="s">
         <v>518</v>
@@ -7679,13 +7679,13 @@
         <v>834</v>
       </c>
       <c r="H152" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="I152" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>1902</v>
       </c>
@@ -7696,7 +7696,7 @@
         <v>154</v>
       </c>
       <c r="E153" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F153" t="s">
         <v>519</v>
@@ -7705,13 +7705,13 @@
         <v>835</v>
       </c>
       <c r="H153" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="I153" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.35">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>1902</v>
       </c>
@@ -7722,7 +7722,7 @@
         <v>155</v>
       </c>
       <c r="E154" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F154" t="s">
         <v>520</v>
@@ -7731,13 +7731,13 @@
         <v>836</v>
       </c>
       <c r="H154" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="I154" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.35">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>1902</v>
       </c>
@@ -7748,7 +7748,7 @@
         <v>156</v>
       </c>
       <c r="E155" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F155" t="s">
         <v>513</v>
@@ -7757,31 +7757,31 @@
         <v>837</v>
       </c>
       <c r="H155" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="I155" t="s">
         <v>963</v>
       </c>
       <c r="K155" t="s">
+        <v>1011</v>
+      </c>
+      <c r="L155" t="s">
+        <v>1092</v>
+      </c>
+      <c r="M155" t="s">
         <v>1012</v>
       </c>
-      <c r="L155" t="s">
-        <v>1095</v>
-      </c>
-      <c r="M155" t="s">
-        <v>1013</v>
-      </c>
       <c r="N155" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="O155" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="P155" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.35">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>1902</v>
       </c>
@@ -7792,7 +7792,7 @@
         <v>157</v>
       </c>
       <c r="E156" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F156" t="s">
         <v>521</v>
@@ -7801,13 +7801,13 @@
         <v>838</v>
       </c>
       <c r="H156" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="I156" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.35">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>1902</v>
       </c>
@@ -7818,7 +7818,7 @@
         <v>158</v>
       </c>
       <c r="E157" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F157" t="s">
         <v>522</v>
@@ -7827,13 +7827,13 @@
         <v>839</v>
       </c>
       <c r="H157" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="I157" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.35">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>1902</v>
       </c>
@@ -7844,7 +7844,7 @@
         <v>159</v>
       </c>
       <c r="E158" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F158" t="s">
         <v>523</v>
@@ -7853,13 +7853,13 @@
         <v>840</v>
       </c>
       <c r="H158" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="I158" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.35">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>1902</v>
       </c>
@@ -7870,7 +7870,7 @@
         <v>160</v>
       </c>
       <c r="E159" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F159" t="s">
         <v>524</v>
@@ -7879,13 +7879,13 @@
         <v>841</v>
       </c>
       <c r="H159" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="I159" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.35">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>1902</v>
       </c>
@@ -7896,7 +7896,7 @@
         <v>161</v>
       </c>
       <c r="E160" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F160" t="s">
         <v>525</v>
@@ -7905,13 +7905,13 @@
         <v>842</v>
       </c>
       <c r="H160" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="I160" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>1902</v>
       </c>
@@ -7922,7 +7922,7 @@
         <v>162</v>
       </c>
       <c r="E161" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F161" t="s">
         <v>526</v>
@@ -7931,13 +7931,13 @@
         <v>843</v>
       </c>
       <c r="H161" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="I161" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>1902</v>
       </c>
@@ -7948,7 +7948,7 @@
         <v>163</v>
       </c>
       <c r="E162" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F162" t="s">
         <v>527</v>
@@ -7957,13 +7957,13 @@
         <v>844</v>
       </c>
       <c r="H162" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="I162" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>1902</v>
       </c>
@@ -7974,7 +7974,7 @@
         <v>164</v>
       </c>
       <c r="E163" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F163" t="s">
         <v>528</v>
@@ -7983,13 +7983,13 @@
         <v>845</v>
       </c>
       <c r="H163" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="I163" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>1902</v>
       </c>
@@ -8000,7 +8000,7 @@
         <v>165</v>
       </c>
       <c r="E164" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F164" t="s">
         <v>529</v>
@@ -8009,13 +8009,13 @@
         <v>846</v>
       </c>
       <c r="H164" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="I164" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>1902</v>
       </c>
@@ -8026,7 +8026,7 @@
         <v>166</v>
       </c>
       <c r="E165" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="F165" t="s">
         <v>530</v>
@@ -8035,13 +8035,13 @@
         <v>847</v>
       </c>
       <c r="H165" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="I165" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>1902</v>
       </c>
@@ -8052,7 +8052,7 @@
         <v>167</v>
       </c>
       <c r="E166" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="F166" t="s">
         <v>531</v>
@@ -8061,13 +8061,13 @@
         <v>848</v>
       </c>
       <c r="H166" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="I166" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>1902</v>
       </c>
@@ -8078,7 +8078,7 @@
         <v>168</v>
       </c>
       <c r="E167" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="F167" t="s">
         <v>532</v>
@@ -8087,13 +8087,13 @@
         <v>849</v>
       </c>
       <c r="H167" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="I167" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>1902</v>
       </c>
@@ -8104,7 +8104,7 @@
         <v>169</v>
       </c>
       <c r="E168" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="F168" t="s">
         <v>533</v>
@@ -8113,13 +8113,13 @@
         <v>755</v>
       </c>
       <c r="H168" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="I168" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>1902</v>
       </c>
@@ -8130,7 +8130,7 @@
         <v>170</v>
       </c>
       <c r="E169" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="F169" t="s">
         <v>534</v>
@@ -8139,13 +8139,13 @@
         <v>850</v>
       </c>
       <c r="H169" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="I169" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>1902</v>
       </c>
@@ -8156,7 +8156,7 @@
         <v>171</v>
       </c>
       <c r="E170" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="F170" t="s">
         <v>535</v>
@@ -8165,13 +8165,13 @@
         <v>851</v>
       </c>
       <c r="H170" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="I170" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>1902</v>
       </c>
@@ -8182,7 +8182,7 @@
         <v>172</v>
       </c>
       <c r="E171" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="F171" t="s">
         <v>536</v>
@@ -8191,13 +8191,13 @@
         <v>852</v>
       </c>
       <c r="H171" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="I171" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>1902</v>
       </c>
@@ -8208,7 +8208,7 @@
         <v>173</v>
       </c>
       <c r="E172" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="F172" t="s">
         <v>537</v>
@@ -8217,13 +8217,13 @@
         <v>853</v>
       </c>
       <c r="H172" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="I172" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>1902</v>
       </c>
@@ -8234,7 +8234,7 @@
         <v>174</v>
       </c>
       <c r="E173" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="F173" t="s">
         <v>538</v>
@@ -8243,13 +8243,13 @@
         <v>854</v>
       </c>
       <c r="H173" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="I173" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>1902</v>
       </c>
@@ -8260,7 +8260,7 @@
         <v>175</v>
       </c>
       <c r="E174" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="F174" t="s">
         <v>539</v>
@@ -8269,13 +8269,13 @@
         <v>855</v>
       </c>
       <c r="H174" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="I174" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>1902</v>
       </c>
@@ -8286,7 +8286,7 @@
         <v>176</v>
       </c>
       <c r="E175" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="F175" t="s">
         <v>540</v>
@@ -8295,7 +8295,7 @@
         <v>856</v>
       </c>
       <c r="H175" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="I175" t="s">
         <v>964</v>
@@ -8304,7 +8304,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>1902</v>
       </c>
@@ -8315,7 +8315,7 @@
         <v>177</v>
       </c>
       <c r="E176" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="F176" t="s">
         <v>541</v>
@@ -8324,7 +8324,7 @@
         <v>857</v>
       </c>
       <c r="H176" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="I176" t="s">
         <v>964</v>
@@ -8333,7 +8333,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>1902</v>
       </c>
@@ -8344,7 +8344,7 @@
         <v>178</v>
       </c>
       <c r="E177" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="F177" t="s">
         <v>542</v>
@@ -8353,7 +8353,7 @@
         <v>858</v>
       </c>
       <c r="H177" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="I177" t="s">
         <v>964</v>
@@ -8362,7 +8362,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>1902</v>
       </c>
@@ -8373,7 +8373,7 @@
         <v>179</v>
       </c>
       <c r="E178" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="F178" t="s">
         <v>543</v>
@@ -8382,7 +8382,7 @@
         <v>859</v>
       </c>
       <c r="H178" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="I178" t="s">
         <v>964</v>
@@ -8391,7 +8391,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>1902</v>
       </c>
@@ -8402,7 +8402,7 @@
         <v>180</v>
       </c>
       <c r="E179" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="F179" t="s">
         <v>544</v>
@@ -8411,7 +8411,7 @@
         <v>860</v>
       </c>
       <c r="H179" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="I179" t="s">
         <v>964</v>
@@ -8420,7 +8420,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>1902</v>
       </c>
@@ -8431,7 +8431,7 @@
         <v>181</v>
       </c>
       <c r="E180" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="F180" t="s">
         <v>493</v>
@@ -8440,13 +8440,13 @@
         <v>861</v>
       </c>
       <c r="H180" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="I180" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>1902</v>
       </c>
@@ -8457,7 +8457,7 @@
         <v>182</v>
       </c>
       <c r="E181" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="F181" t="s">
         <v>545</v>
@@ -8466,13 +8466,13 @@
         <v>862</v>
       </c>
       <c r="H181" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="I181" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>1902</v>
       </c>
@@ -8483,7 +8483,7 @@
         <v>183</v>
       </c>
       <c r="E182" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="F182" t="s">
         <v>546</v>
@@ -8492,13 +8492,13 @@
         <v>863</v>
       </c>
       <c r="H182" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="I182" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>1902</v>
       </c>
@@ -8509,7 +8509,7 @@
         <v>184</v>
       </c>
       <c r="E183" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="F183" t="s">
         <v>547</v>
@@ -8518,13 +8518,13 @@
         <v>864</v>
       </c>
       <c r="H183" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="I183" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>1902</v>
       </c>
@@ -8535,7 +8535,7 @@
         <v>185</v>
       </c>
       <c r="E184" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="F184" t="s">
         <v>548</v>
@@ -8544,13 +8544,13 @@
         <v>783</v>
       </c>
       <c r="H184" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="I184" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>1902</v>
       </c>
@@ -8561,7 +8561,7 @@
         <v>186</v>
       </c>
       <c r="E185" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="F185" t="s">
         <v>549</v>
@@ -8570,13 +8570,13 @@
         <v>865</v>
       </c>
       <c r="H185" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="I185" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>1902</v>
       </c>
@@ -8587,7 +8587,7 @@
         <v>187</v>
       </c>
       <c r="E186" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="F186" t="s">
         <v>550</v>
@@ -8596,13 +8596,13 @@
         <v>737</v>
       </c>
       <c r="H186" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="I186" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>1902</v>
       </c>
@@ -8613,7 +8613,7 @@
         <v>188</v>
       </c>
       <c r="E187" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="F187" t="s">
         <v>551</v>
@@ -8622,13 +8622,13 @@
         <v>745</v>
       </c>
       <c r="H187" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="I187" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>1902</v>
       </c>
@@ -8639,7 +8639,7 @@
         <v>189</v>
       </c>
       <c r="E188" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F188" t="s">
         <v>552</v>
@@ -8648,13 +8648,13 @@
         <v>866</v>
       </c>
       <c r="H188" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="I188" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>1902</v>
       </c>
@@ -8665,7 +8665,7 @@
         <v>190</v>
       </c>
       <c r="E189" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F189" t="s">
         <v>553</v>
@@ -8674,13 +8674,13 @@
         <v>867</v>
       </c>
       <c r="H189" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="I189" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>1902</v>
       </c>
@@ -8691,7 +8691,7 @@
         <v>191</v>
       </c>
       <c r="E190" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F190" t="s">
         <v>554</v>
@@ -8700,13 +8700,13 @@
         <v>868</v>
       </c>
       <c r="H190" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="I190" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>1902</v>
       </c>
@@ -8717,7 +8717,7 @@
         <v>192</v>
       </c>
       <c r="E191" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F191" t="s">
         <v>555</v>
@@ -8726,13 +8726,13 @@
         <v>869</v>
       </c>
       <c r="H191" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="I191" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>1902</v>
       </c>
@@ -8743,7 +8743,7 @@
         <v>193</v>
       </c>
       <c r="E192" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F192" t="s">
         <v>556</v>
@@ -8752,13 +8752,13 @@
         <v>870</v>
       </c>
       <c r="H192" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="I192" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>1902</v>
       </c>
@@ -8769,7 +8769,7 @@
         <v>194</v>
       </c>
       <c r="E193" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F193" t="s">
         <v>557</v>
@@ -8778,13 +8778,13 @@
         <v>871</v>
       </c>
       <c r="H193" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="I193" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>1902</v>
       </c>
@@ -8795,7 +8795,7 @@
         <v>195</v>
       </c>
       <c r="E194" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F194" t="s">
         <v>558</v>
@@ -8804,13 +8804,13 @@
         <v>872</v>
       </c>
       <c r="H194" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="I194" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>1902</v>
       </c>
@@ -8821,7 +8821,7 @@
         <v>196</v>
       </c>
       <c r="E195" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F195" t="s">
         <v>559</v>
@@ -8830,13 +8830,13 @@
         <v>737</v>
       </c>
       <c r="H195" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="I195" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>1902</v>
       </c>
@@ -8847,7 +8847,7 @@
         <v>197</v>
       </c>
       <c r="E196" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F196" t="s">
         <v>560</v>
@@ -8856,13 +8856,13 @@
         <v>755</v>
       </c>
       <c r="H196" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="I196" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>1902</v>
       </c>
@@ -8873,7 +8873,7 @@
         <v>198</v>
       </c>
       <c r="E197" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F197" t="s">
         <v>561</v>
@@ -8882,13 +8882,13 @@
         <v>873</v>
       </c>
       <c r="H197" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="I197" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>1902</v>
       </c>
@@ -8899,7 +8899,7 @@
         <v>199</v>
       </c>
       <c r="E198" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F198" t="s">
         <v>562</v>
@@ -8908,13 +8908,13 @@
         <v>874</v>
       </c>
       <c r="H198" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="I198" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>1902</v>
       </c>
@@ -8925,7 +8925,7 @@
         <v>200</v>
       </c>
       <c r="E199" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F199" t="s">
         <v>563</v>
@@ -8934,13 +8934,13 @@
         <v>875</v>
       </c>
       <c r="H199" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="I199" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>1902</v>
       </c>
@@ -8951,7 +8951,7 @@
         <v>201</v>
       </c>
       <c r="E200" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F200" t="s">
         <v>564</v>
@@ -8960,13 +8960,13 @@
         <v>876</v>
       </c>
       <c r="H200" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="I200" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>1902</v>
       </c>
@@ -8977,7 +8977,7 @@
         <v>202</v>
       </c>
       <c r="E201" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F201" t="s">
         <v>565</v>
@@ -8986,13 +8986,13 @@
         <v>877</v>
       </c>
       <c r="H201" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="I201" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>1902</v>
       </c>
@@ -9003,7 +9003,7 @@
         <v>203</v>
       </c>
       <c r="E202" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F202" t="s">
         <v>566</v>
@@ -9012,13 +9012,13 @@
         <v>878</v>
       </c>
       <c r="H202" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="I202" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>1902</v>
       </c>
@@ -9029,7 +9029,7 @@
         <v>204</v>
       </c>
       <c r="E203" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F203" t="s">
         <v>567</v>
@@ -9038,13 +9038,13 @@
         <v>879</v>
       </c>
       <c r="H203" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="I203" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>1902</v>
       </c>
@@ -9055,7 +9055,7 @@
         <v>205</v>
       </c>
       <c r="E204" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F204" t="s">
         <v>568</v>
@@ -9064,13 +9064,13 @@
         <v>880</v>
       </c>
       <c r="H204" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="I204" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>1902</v>
       </c>
@@ -9081,7 +9081,7 @@
         <v>206</v>
       </c>
       <c r="E205" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F205" t="s">
         <v>569</v>
@@ -9090,13 +9090,13 @@
         <v>881</v>
       </c>
       <c r="H205" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="I205" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>1902</v>
       </c>
@@ -9107,7 +9107,7 @@
         <v>207</v>
       </c>
       <c r="E206" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F206" t="s">
         <v>570</v>
@@ -9116,13 +9116,13 @@
         <v>741</v>
       </c>
       <c r="H206" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="I206" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>1902</v>
       </c>
@@ -9133,7 +9133,7 @@
         <v>208</v>
       </c>
       <c r="E207" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F207" t="s">
         <v>571</v>
@@ -9142,13 +9142,13 @@
         <v>745</v>
       </c>
       <c r="H207" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="I207" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>1902</v>
       </c>
@@ -9159,7 +9159,7 @@
         <v>209</v>
       </c>
       <c r="E208" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F208" t="s">
         <v>572</v>
@@ -9168,13 +9168,13 @@
         <v>737</v>
       </c>
       <c r="H208" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="I208" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>1902</v>
       </c>
@@ -9185,7 +9185,7 @@
         <v>210</v>
       </c>
       <c r="E209" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F209" t="s">
         <v>573</v>
@@ -9200,7 +9200,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>1902</v>
       </c>
@@ -9211,7 +9211,7 @@
         <v>211</v>
       </c>
       <c r="E210" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F210" t="s">
         <v>574</v>
@@ -9226,7 +9226,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>1902</v>
       </c>
@@ -9237,7 +9237,7 @@
         <v>212</v>
       </c>
       <c r="E211" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F211" t="s">
         <v>575</v>
@@ -9246,13 +9246,13 @@
         <v>737</v>
       </c>
       <c r="H211" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="I211" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>1902</v>
       </c>
@@ -9263,7 +9263,7 @@
         <v>213</v>
       </c>
       <c r="E212" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F212" t="s">
         <v>576</v>
@@ -9272,13 +9272,13 @@
         <v>737</v>
       </c>
       <c r="H212" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="I212" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>1902</v>
       </c>
@@ -9289,7 +9289,7 @@
         <v>214</v>
       </c>
       <c r="E213" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F213" t="s">
         <v>577</v>
@@ -9298,13 +9298,13 @@
         <v>882</v>
       </c>
       <c r="H213" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="I213" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>1902</v>
       </c>
@@ -9315,7 +9315,7 @@
         <v>215</v>
       </c>
       <c r="E214" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F214" t="s">
         <v>578</v>
@@ -9324,13 +9324,13 @@
         <v>737</v>
       </c>
       <c r="H214" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="I214" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>1902</v>
       </c>
@@ -9341,7 +9341,7 @@
         <v>216</v>
       </c>
       <c r="E215" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F215" t="s">
         <v>579</v>
@@ -9350,13 +9350,13 @@
         <v>737</v>
       </c>
       <c r="H215" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="I215" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>1902</v>
       </c>
@@ -9367,7 +9367,7 @@
         <v>217</v>
       </c>
       <c r="E216" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F216" t="s">
         <v>580</v>
@@ -9376,13 +9376,13 @@
         <v>883</v>
       </c>
       <c r="H216" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="I216" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>1902</v>
       </c>
@@ -9393,7 +9393,7 @@
         <v>218</v>
       </c>
       <c r="E217" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F217" t="s">
         <v>581</v>
@@ -9402,13 +9402,13 @@
         <v>737</v>
       </c>
       <c r="H217" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="I217" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>1902</v>
       </c>
@@ -9419,7 +9419,7 @@
         <v>219</v>
       </c>
       <c r="E218" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F218" t="s">
         <v>582</v>
@@ -9428,13 +9428,13 @@
         <v>741</v>
       </c>
       <c r="H218" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="I218" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>1902</v>
       </c>
@@ -9445,7 +9445,7 @@
         <v>220</v>
       </c>
       <c r="E219" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F219" t="s">
         <v>583</v>
@@ -9454,13 +9454,13 @@
         <v>741</v>
       </c>
       <c r="H219" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="I219" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>1902</v>
       </c>
@@ -9471,7 +9471,7 @@
         <v>221</v>
       </c>
       <c r="E220" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F220" t="s">
         <v>584</v>
@@ -9480,13 +9480,13 @@
         <v>884</v>
       </c>
       <c r="H220" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="I220" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>1902</v>
       </c>
@@ -9497,7 +9497,7 @@
         <v>222</v>
       </c>
       <c r="E221" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F221" t="s">
         <v>585</v>
@@ -9506,13 +9506,13 @@
         <v>885</v>
       </c>
       <c r="H221" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="I221" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>1902</v>
       </c>
@@ -9523,7 +9523,7 @@
         <v>223</v>
       </c>
       <c r="E222" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F222" t="s">
         <v>586</v>
@@ -9532,13 +9532,13 @@
         <v>737</v>
       </c>
       <c r="H222" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="I222" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>1902</v>
       </c>
@@ -9549,7 +9549,7 @@
         <v>224</v>
       </c>
       <c r="E223" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F223" t="s">
         <v>587</v>
@@ -9558,13 +9558,13 @@
         <v>744</v>
       </c>
       <c r="H223" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="I223" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>1902</v>
       </c>
@@ -9575,7 +9575,7 @@
         <v>225</v>
       </c>
       <c r="E224" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F224" t="s">
         <v>588</v>
@@ -9584,13 +9584,13 @@
         <v>744</v>
       </c>
       <c r="H224" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="I224" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>1902</v>
       </c>
@@ -9601,7 +9601,7 @@
         <v>226</v>
       </c>
       <c r="E225" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F225" t="s">
         <v>589</v>
@@ -9610,13 +9610,13 @@
         <v>886</v>
       </c>
       <c r="H225" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="I225" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>1902</v>
       </c>
@@ -9627,7 +9627,7 @@
         <v>227</v>
       </c>
       <c r="E226" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F226" t="s">
         <v>590</v>
@@ -9636,13 +9636,13 @@
         <v>887</v>
       </c>
       <c r="H226" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="I226" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>1902</v>
       </c>
@@ -9653,7 +9653,7 @@
         <v>228</v>
       </c>
       <c r="E227" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F227" t="s">
         <v>591</v>
@@ -9662,13 +9662,13 @@
         <v>888</v>
       </c>
       <c r="H227" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="I227" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>1902</v>
       </c>
@@ -9679,7 +9679,7 @@
         <v>229</v>
       </c>
       <c r="E228" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F228" t="s">
         <v>592</v>
@@ -9688,13 +9688,13 @@
         <v>741</v>
       </c>
       <c r="H228" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="I228" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>1902</v>
       </c>
@@ -9705,7 +9705,7 @@
         <v>230</v>
       </c>
       <c r="E229" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F229" t="s">
         <v>593</v>
@@ -9714,7 +9714,7 @@
         <v>869</v>
       </c>
       <c r="H229" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="I229" t="s">
         <v>964</v>
@@ -9723,7 +9723,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>1902</v>
       </c>
@@ -9734,7 +9734,7 @@
         <v>231</v>
       </c>
       <c r="E230" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F230" t="s">
         <v>594</v>
@@ -9743,7 +9743,7 @@
         <v>889</v>
       </c>
       <c r="H230" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="I230" t="s">
         <v>964</v>
@@ -9752,7 +9752,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>1902</v>
       </c>
@@ -9763,7 +9763,7 @@
         <v>232</v>
       </c>
       <c r="E231" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F231" t="s">
         <v>595</v>
@@ -9772,13 +9772,13 @@
         <v>755</v>
       </c>
       <c r="H231" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="I231" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>1902</v>
       </c>
@@ -9789,7 +9789,7 @@
         <v>233</v>
       </c>
       <c r="E232" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F232" t="s">
         <v>596</v>
@@ -9798,13 +9798,13 @@
         <v>738</v>
       </c>
       <c r="H232" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="I232" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>1902</v>
       </c>
@@ -9815,7 +9815,7 @@
         <v>234</v>
       </c>
       <c r="E233" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F233" t="s">
         <v>597</v>
@@ -9824,13 +9824,13 @@
         <v>890</v>
       </c>
       <c r="H233" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="I233" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>1902</v>
       </c>
@@ -9841,7 +9841,7 @@
         <v>235</v>
       </c>
       <c r="E234" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F234" t="s">
         <v>598</v>
@@ -9850,13 +9850,13 @@
         <v>891</v>
       </c>
       <c r="H234" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="I234" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>1902</v>
       </c>
@@ -9867,7 +9867,7 @@
         <v>236</v>
       </c>
       <c r="E235" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F235" t="s">
         <v>599</v>
@@ -9876,13 +9876,13 @@
         <v>741</v>
       </c>
       <c r="H235" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="I235" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>1902</v>
       </c>
@@ -9893,7 +9893,7 @@
         <v>237</v>
       </c>
       <c r="E236" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F236" t="s">
         <v>600</v>
@@ -9902,13 +9902,13 @@
         <v>741</v>
       </c>
       <c r="H236" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="I236" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>1902</v>
       </c>
@@ -9919,7 +9919,7 @@
         <v>238</v>
       </c>
       <c r="E237" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F237" t="s">
         <v>601</v>
@@ -9928,7 +9928,7 @@
         <v>892</v>
       </c>
       <c r="H237" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="I237" t="s">
         <v>964</v>
@@ -9937,7 +9937,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>1902</v>
       </c>
@@ -9948,7 +9948,7 @@
         <v>239</v>
       </c>
       <c r="E238" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F238" t="s">
         <v>602</v>
@@ -9957,7 +9957,7 @@
         <v>893</v>
       </c>
       <c r="H238" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="I238" t="s">
         <v>964</v>
@@ -9966,7 +9966,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>1902</v>
       </c>
@@ -9977,7 +9977,7 @@
         <v>240</v>
       </c>
       <c r="E239" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F239" t="s">
         <v>603</v>
@@ -9986,7 +9986,7 @@
         <v>894</v>
       </c>
       <c r="H239" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="I239" t="s">
         <v>964</v>
@@ -9995,7 +9995,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>1902</v>
       </c>
@@ -10006,7 +10006,7 @@
         <v>241</v>
       </c>
       <c r="E240" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F240" t="s">
         <v>604</v>
@@ -10015,13 +10015,13 @@
         <v>778</v>
       </c>
       <c r="H240" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="I240" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>1902</v>
       </c>
@@ -10032,7 +10032,7 @@
         <v>242</v>
       </c>
       <c r="E241" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F241" t="s">
         <v>605</v>
@@ -10041,13 +10041,13 @@
         <v>895</v>
       </c>
       <c r="H241" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="I241" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>1902</v>
       </c>
@@ -10058,7 +10058,7 @@
         <v>243</v>
       </c>
       <c r="E242" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F242" t="s">
         <v>606</v>
@@ -10067,13 +10067,13 @@
         <v>896</v>
       </c>
       <c r="H242" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="I242" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>1902</v>
       </c>
@@ -10084,7 +10084,7 @@
         <v>244</v>
       </c>
       <c r="E243" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F243" t="s">
         <v>607</v>
@@ -10093,13 +10093,13 @@
         <v>897</v>
       </c>
       <c r="H243" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="I243" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>1902</v>
       </c>
@@ -10113,7 +10113,7 @@
         <v>245</v>
       </c>
       <c r="E244" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F244" t="s">
         <v>608</v>
@@ -10122,13 +10122,13 @@
         <v>898</v>
       </c>
       <c r="H244" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="I244" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>1902</v>
       </c>
@@ -10142,7 +10142,7 @@
         <v>246</v>
       </c>
       <c r="E245" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F245" t="s">
         <v>609</v>
@@ -10151,13 +10151,13 @@
         <v>899</v>
       </c>
       <c r="H245" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="I245" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>1902</v>
       </c>
@@ -10168,7 +10168,7 @@
         <v>247</v>
       </c>
       <c r="E246" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F246" t="s">
         <v>610</v>
@@ -10177,13 +10177,13 @@
         <v>900</v>
       </c>
       <c r="H246" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="I246" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>1902</v>
       </c>
@@ -10194,7 +10194,7 @@
         <v>248</v>
       </c>
       <c r="E247" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F247" t="s">
         <v>611</v>
@@ -10203,13 +10203,13 @@
         <v>901</v>
       </c>
       <c r="H247" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="I247" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>1902</v>
       </c>
@@ -10220,7 +10220,7 @@
         <v>249</v>
       </c>
       <c r="E248" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F248" t="s">
         <v>612</v>
@@ -10229,13 +10229,13 @@
         <v>902</v>
       </c>
       <c r="H248" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="I248" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>1902</v>
       </c>
@@ -10246,7 +10246,7 @@
         <v>250</v>
       </c>
       <c r="E249" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F249" t="s">
         <v>613</v>
@@ -10255,13 +10255,13 @@
         <v>903</v>
       </c>
       <c r="H249" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="I249" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>1902</v>
       </c>
@@ -10272,7 +10272,7 @@
         <v>251</v>
       </c>
       <c r="E250" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F250" t="s">
         <v>614</v>
@@ -10281,13 +10281,13 @@
         <v>904</v>
       </c>
       <c r="H250" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="I250" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>1902</v>
       </c>
@@ -10298,7 +10298,7 @@
         <v>252</v>
       </c>
       <c r="E251" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F251" t="s">
         <v>615</v>
@@ -10307,13 +10307,13 @@
         <v>905</v>
       </c>
       <c r="H251" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="I251" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>1902</v>
       </c>
@@ -10324,7 +10324,7 @@
         <v>253</v>
       </c>
       <c r="E252" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F252" t="s">
         <v>616</v>
@@ -10333,13 +10333,13 @@
         <v>906</v>
       </c>
       <c r="H252" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="I252" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>1902</v>
       </c>
@@ -10350,7 +10350,7 @@
         <v>254</v>
       </c>
       <c r="E253" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F253" t="s">
         <v>617</v>
@@ -10359,13 +10359,13 @@
         <v>907</v>
       </c>
       <c r="H253" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="I253" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>1902</v>
       </c>
@@ -10376,7 +10376,7 @@
         <v>255</v>
       </c>
       <c r="E254" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F254" t="s">
         <v>618</v>
@@ -10385,13 +10385,13 @@
         <v>908</v>
       </c>
       <c r="H254" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="I254" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>1902</v>
       </c>
@@ -10402,7 +10402,7 @@
         <v>256</v>
       </c>
       <c r="E255" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F255" t="s">
         <v>619</v>
@@ -10411,13 +10411,13 @@
         <v>737</v>
       </c>
       <c r="H255" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="I255" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>1902</v>
       </c>
@@ -10428,7 +10428,7 @@
         <v>257</v>
       </c>
       <c r="E256" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F256" t="s">
         <v>620</v>
@@ -10437,13 +10437,13 @@
         <v>737</v>
       </c>
       <c r="H256" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="I256" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>1902</v>
       </c>
@@ -10454,7 +10454,7 @@
         <v>258</v>
       </c>
       <c r="E257" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F257" t="s">
         <v>621</v>
@@ -10463,13 +10463,13 @@
         <v>909</v>
       </c>
       <c r="H257" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="I257" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>1902</v>
       </c>
@@ -10480,7 +10480,7 @@
         <v>259</v>
       </c>
       <c r="E258" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F258" t="s">
         <v>622</v>
@@ -10489,13 +10489,13 @@
         <v>737</v>
       </c>
       <c r="H258" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="I258" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>1902</v>
       </c>
@@ -10506,7 +10506,7 @@
         <v>260</v>
       </c>
       <c r="E259" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F259" t="s">
         <v>623</v>
@@ -10515,13 +10515,13 @@
         <v>748</v>
       </c>
       <c r="H259" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="I259" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>1902</v>
       </c>
@@ -10532,7 +10532,7 @@
         <v>261</v>
       </c>
       <c r="E260" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F260" t="s">
         <v>624</v>
@@ -10541,13 +10541,13 @@
         <v>910</v>
       </c>
       <c r="H260" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="I260" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>1902</v>
       </c>
@@ -10558,7 +10558,7 @@
         <v>262</v>
       </c>
       <c r="E261" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F261" t="s">
         <v>625</v>
@@ -10567,13 +10567,13 @@
         <v>747</v>
       </c>
       <c r="H261" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="I261" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>1902</v>
       </c>
@@ -10584,7 +10584,7 @@
         <v>263</v>
       </c>
       <c r="E262" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F262" t="s">
         <v>626</v>
@@ -10593,13 +10593,13 @@
         <v>911</v>
       </c>
       <c r="H262" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="I262" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>1902</v>
       </c>
@@ -10610,7 +10610,7 @@
         <v>264</v>
       </c>
       <c r="E263" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F263" t="s">
         <v>627</v>
@@ -10619,13 +10619,13 @@
         <v>776</v>
       </c>
       <c r="H263" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="I263" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>1902</v>
       </c>
@@ -10636,7 +10636,7 @@
         <v>265</v>
       </c>
       <c r="E264" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F264" t="s">
         <v>628</v>
@@ -10645,13 +10645,13 @@
         <v>912</v>
       </c>
       <c r="H264" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="I264" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>1902</v>
       </c>
@@ -10662,7 +10662,7 @@
         <v>266</v>
       </c>
       <c r="E265" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F265" t="s">
         <v>629</v>
@@ -10671,13 +10671,13 @@
         <v>744</v>
       </c>
       <c r="H265" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="I265" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>1902</v>
       </c>
@@ -10688,7 +10688,7 @@
         <v>267</v>
       </c>
       <c r="E266" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F266" t="s">
         <v>630</v>
@@ -10697,13 +10697,13 @@
         <v>913</v>
       </c>
       <c r="H266" t="s">
-        <v>1075</v>
+        <v>1094</v>
       </c>
       <c r="I266" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>1902</v>
       </c>
@@ -10714,7 +10714,7 @@
         <v>268</v>
       </c>
       <c r="E267" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F267" t="s">
         <v>631</v>
@@ -10723,13 +10723,13 @@
         <v>914</v>
       </c>
       <c r="H267" t="s">
-        <v>1075</v>
+        <v>1094</v>
       </c>
       <c r="I267" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>1902</v>
       </c>
@@ -10740,7 +10740,7 @@
         <v>269</v>
       </c>
       <c r="E268" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F268" t="s">
         <v>632</v>
@@ -10749,13 +10749,13 @@
         <v>915</v>
       </c>
       <c r="H268" t="s">
-        <v>1075</v>
+        <v>1094</v>
       </c>
       <c r="I268" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>1902</v>
       </c>
@@ -10766,7 +10766,7 @@
         <v>270</v>
       </c>
       <c r="E269" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F269" t="s">
         <v>633</v>
@@ -10775,13 +10775,13 @@
         <v>916</v>
       </c>
       <c r="H269" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="I269" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>1902</v>
       </c>
@@ -10792,7 +10792,7 @@
         <v>271</v>
       </c>
       <c r="E270" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F270" t="s">
         <v>634</v>
@@ -10801,13 +10801,13 @@
         <v>917</v>
       </c>
       <c r="H270" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="I270" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>1902</v>
       </c>
@@ -10818,7 +10818,7 @@
         <v>272</v>
       </c>
       <c r="E271" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F271" t="s">
         <v>635</v>
@@ -10827,13 +10827,13 @@
         <v>755</v>
       </c>
       <c r="H271" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="I271" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>1902</v>
       </c>
@@ -10844,7 +10844,7 @@
         <v>273</v>
       </c>
       <c r="E272" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F272" t="s">
         <v>636</v>
@@ -10853,13 +10853,13 @@
         <v>918</v>
       </c>
       <c r="H272" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="I272" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>1902</v>
       </c>
@@ -10870,7 +10870,7 @@
         <v>274</v>
       </c>
       <c r="E273" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F273" t="s">
         <v>637</v>
@@ -10879,13 +10879,13 @@
         <v>919</v>
       </c>
       <c r="H273" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="I273" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>1902</v>
       </c>
@@ -10896,7 +10896,7 @@
         <v>275</v>
       </c>
       <c r="E274" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F274" t="s">
         <v>638</v>
@@ -10905,13 +10905,13 @@
         <v>920</v>
       </c>
       <c r="H274" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="I274" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>1902</v>
       </c>
@@ -10922,7 +10922,7 @@
         <v>276</v>
       </c>
       <c r="E275" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F275" t="s">
         <v>639</v>
@@ -10931,13 +10931,13 @@
         <v>921</v>
       </c>
       <c r="H275" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="I275" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>1902</v>
       </c>
@@ -10948,7 +10948,7 @@
         <v>277</v>
       </c>
       <c r="E276" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F276" t="s">
         <v>640</v>
@@ -10957,13 +10957,13 @@
         <v>922</v>
       </c>
       <c r="H276" t="s">
-        <v>1075</v>
+        <v>1094</v>
       </c>
       <c r="I276" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>1902</v>
       </c>
@@ -10974,7 +10974,7 @@
         <v>278</v>
       </c>
       <c r="E277" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F277" t="s">
         <v>641</v>
@@ -10983,13 +10983,13 @@
         <v>923</v>
       </c>
       <c r="H277" t="s">
-        <v>1075</v>
+        <v>1094</v>
       </c>
       <c r="I277" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>1902</v>
       </c>
@@ -11000,7 +11000,7 @@
         <v>279</v>
       </c>
       <c r="E278" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F278" t="s">
         <v>642</v>
@@ -11009,13 +11009,13 @@
         <v>924</v>
       </c>
       <c r="H278" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="I278" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>1902</v>
       </c>
@@ -11026,7 +11026,7 @@
         <v>280</v>
       </c>
       <c r="E279" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F279" t="s">
         <v>643</v>
@@ -11035,13 +11035,13 @@
         <v>896</v>
       </c>
       <c r="H279" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="I279" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>1902</v>
       </c>
@@ -11052,7 +11052,7 @@
         <v>281</v>
       </c>
       <c r="E280" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F280" t="s">
         <v>644</v>
@@ -11061,13 +11061,13 @@
         <v>925</v>
       </c>
       <c r="H280" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="I280" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>1902</v>
       </c>
@@ -11078,7 +11078,7 @@
         <v>282</v>
       </c>
       <c r="E281" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F281" t="s">
         <v>645</v>
@@ -11087,13 +11087,13 @@
         <v>737</v>
       </c>
       <c r="H281" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="I281" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>1902</v>
       </c>
@@ -11104,7 +11104,7 @@
         <v>283</v>
       </c>
       <c r="E282" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F282" t="s">
         <v>646</v>
@@ -11113,13 +11113,13 @@
         <v>737</v>
       </c>
       <c r="H282" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="I282" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>1902</v>
       </c>
@@ -11130,7 +11130,7 @@
         <v>284</v>
       </c>
       <c r="E283" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F283" t="s">
         <v>647</v>
@@ -11139,13 +11139,13 @@
         <v>741</v>
       </c>
       <c r="H283" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="I283" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>1902</v>
       </c>
@@ -11156,7 +11156,7 @@
         <v>285</v>
       </c>
       <c r="E284" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F284" t="s">
         <v>648</v>
@@ -11165,13 +11165,13 @@
         <v>744</v>
       </c>
       <c r="H284" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="I284" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>1902</v>
       </c>
@@ -11182,7 +11182,7 @@
         <v>286</v>
       </c>
       <c r="E285" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F285" t="s">
         <v>649</v>
@@ -11191,13 +11191,13 @@
         <v>818</v>
       </c>
       <c r="H285" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="I285" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>1902</v>
       </c>
@@ -11208,7 +11208,7 @@
         <v>287</v>
       </c>
       <c r="E286" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F286" t="s">
         <v>650</v>
@@ -11217,13 +11217,13 @@
         <v>755</v>
       </c>
       <c r="H286" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="I286" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>1902</v>
       </c>
@@ -11234,7 +11234,7 @@
         <v>288</v>
       </c>
       <c r="E287" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F287" t="s">
         <v>651</v>
@@ -11243,13 +11243,13 @@
         <v>741</v>
       </c>
       <c r="H287" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="I287" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>1902</v>
       </c>
@@ -11260,7 +11260,7 @@
         <v>289</v>
       </c>
       <c r="E288" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="F288" t="s">
         <v>652</v>
@@ -11269,13 +11269,13 @@
         <v>926</v>
       </c>
       <c r="H288" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="I288" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>1902</v>
       </c>
@@ -11286,7 +11286,7 @@
         <v>290</v>
       </c>
       <c r="E289" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="F289" t="s">
         <v>653</v>
@@ -11295,13 +11295,13 @@
         <v>927</v>
       </c>
       <c r="H289" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="I289" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>1902</v>
       </c>
@@ -11312,7 +11312,7 @@
         <v>291</v>
       </c>
       <c r="E290" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="F290" t="s">
         <v>654</v>
@@ -11321,13 +11321,13 @@
         <v>928</v>
       </c>
       <c r="H290" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="I290" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>1902</v>
       </c>
@@ -11338,7 +11338,7 @@
         <v>292</v>
       </c>
       <c r="E291" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="F291" t="s">
         <v>655</v>
@@ -11347,13 +11347,13 @@
         <v>929</v>
       </c>
       <c r="H291" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="I291" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>1902</v>
       </c>
@@ -11364,7 +11364,7 @@
         <v>293</v>
       </c>
       <c r="E292" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="F292" t="s">
         <v>656</v>
@@ -11373,13 +11373,13 @@
         <v>745</v>
       </c>
       <c r="H292" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="I292" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>1902</v>
       </c>
@@ -11390,7 +11390,7 @@
         <v>294</v>
       </c>
       <c r="E293" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="F293" t="s">
         <v>657</v>
@@ -11399,13 +11399,13 @@
         <v>730</v>
       </c>
       <c r="H293" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="I293" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>1902</v>
       </c>
@@ -11416,7 +11416,7 @@
         <v>295</v>
       </c>
       <c r="E294" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="F294" t="s">
         <v>658</v>
@@ -11425,13 +11425,13 @@
         <v>737</v>
       </c>
       <c r="H294" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="I294" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>1902</v>
       </c>
@@ -11442,7 +11442,7 @@
         <v>296</v>
       </c>
       <c r="E295" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="F295" t="s">
         <v>659</v>
@@ -11451,13 +11451,13 @@
         <v>730</v>
       </c>
       <c r="H295" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="I295" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>1902</v>
       </c>
@@ -11468,7 +11468,7 @@
         <v>297</v>
       </c>
       <c r="E296" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="F296" t="s">
         <v>660</v>
@@ -11477,13 +11477,13 @@
         <v>737</v>
       </c>
       <c r="H296" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="I296" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>1902</v>
       </c>
@@ -11494,7 +11494,7 @@
         <v>298</v>
       </c>
       <c r="E297" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="F297" t="s">
         <v>661</v>
@@ -11503,13 +11503,13 @@
         <v>737</v>
       </c>
       <c r="H297" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="I297" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>1902</v>
       </c>
@@ -11520,7 +11520,7 @@
         <v>299</v>
       </c>
       <c r="E298" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="F298" t="s">
         <v>662</v>
@@ -11529,13 +11529,13 @@
         <v>737</v>
       </c>
       <c r="H298" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="I298" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>1902</v>
       </c>
@@ -11546,7 +11546,7 @@
         <v>300</v>
       </c>
       <c r="E299" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="F299" t="s">
         <v>663</v>
@@ -11555,13 +11555,13 @@
         <v>930</v>
       </c>
       <c r="H299" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="I299" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>1902</v>
       </c>
@@ -11575,7 +11575,7 @@
         <v>301</v>
       </c>
       <c r="E300" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="F300" t="s">
         <v>664</v>
@@ -11584,13 +11584,13 @@
         <v>931</v>
       </c>
       <c r="H300" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="I300" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>1902</v>
       </c>
@@ -11604,7 +11604,7 @@
         <v>302</v>
       </c>
       <c r="E301" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="F301" t="s">
         <v>665</v>
@@ -11613,13 +11613,13 @@
         <v>932</v>
       </c>
       <c r="H301" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="I301" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>1902</v>
       </c>
@@ -11633,7 +11633,7 @@
         <v>303</v>
       </c>
       <c r="E302" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="F302" t="s">
         <v>666</v>
@@ -11642,13 +11642,13 @@
         <v>933</v>
       </c>
       <c r="H302" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="I302" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>1902</v>
       </c>
@@ -11659,7 +11659,7 @@
         <v>304</v>
       </c>
       <c r="E303" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="F303" t="s">
         <v>667</v>
@@ -11668,13 +11668,13 @@
         <v>934</v>
       </c>
       <c r="H303" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="I303" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>1902</v>
       </c>
@@ -11685,7 +11685,7 @@
         <v>305</v>
       </c>
       <c r="E304" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="F304" t="s">
         <v>668</v>
@@ -11694,13 +11694,13 @@
         <v>737</v>
       </c>
       <c r="H304" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="I304" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>1902</v>
       </c>
@@ -11711,7 +11711,7 @@
         <v>306</v>
       </c>
       <c r="E305" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="F305" t="s">
         <v>669</v>
@@ -11720,13 +11720,13 @@
         <v>935</v>
       </c>
       <c r="H305" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="I305" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>1902</v>
       </c>
@@ -11737,7 +11737,7 @@
         <v>307</v>
       </c>
       <c r="E306" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="F306" t="s">
         <v>670</v>
@@ -11746,13 +11746,13 @@
         <v>783</v>
       </c>
       <c r="H306" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="I306" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>1902</v>
       </c>
@@ -11763,7 +11763,7 @@
         <v>308</v>
       </c>
       <c r="E307" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="F307" t="s">
         <v>671</v>
@@ -11772,13 +11772,13 @@
         <v>737</v>
       </c>
       <c r="H307" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="I307" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>1902</v>
       </c>
@@ -11789,7 +11789,7 @@
         <v>309</v>
       </c>
       <c r="E308" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="F308" t="s">
         <v>672</v>
@@ -11798,13 +11798,13 @@
         <v>741</v>
       </c>
       <c r="H308" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="I308" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>1902</v>
       </c>
@@ -11815,7 +11815,7 @@
         <v>310</v>
       </c>
       <c r="E309" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="F309" t="s">
         <v>673</v>
@@ -11824,7 +11824,7 @@
         <v>936</v>
       </c>
       <c r="H309" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="I309" t="s">
         <v>964</v>
@@ -11833,7 +11833,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>1902</v>
       </c>
@@ -11844,13 +11844,13 @@
         <v>311</v>
       </c>
       <c r="E310" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="F310" t="s">
         <v>674</v>
       </c>
       <c r="H310" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="I310" t="s">
         <v>964</v>
@@ -11859,7 +11859,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>1902</v>
       </c>
@@ -11870,7 +11870,7 @@
         <v>312</v>
       </c>
       <c r="E311" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="F311" t="s">
         <v>675</v>
@@ -11879,7 +11879,7 @@
         <v>818</v>
       </c>
       <c r="H311" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="I311" t="s">
         <v>964</v>
@@ -11888,7 +11888,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>1902</v>
       </c>
@@ -11899,7 +11899,7 @@
         <v>313</v>
       </c>
       <c r="E312" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="F312" t="s">
         <v>676</v>
@@ -11908,7 +11908,7 @@
         <v>783</v>
       </c>
       <c r="H312" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="I312" t="s">
         <v>964</v>
@@ -11917,7 +11917,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>1902</v>
       </c>
@@ -11928,7 +11928,7 @@
         <v>314</v>
       </c>
       <c r="E313" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="F313" t="s">
         <v>677</v>
@@ -11937,7 +11937,7 @@
         <v>783</v>
       </c>
       <c r="H313" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="I313" t="s">
         <v>964</v>
@@ -11946,7 +11946,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>1902</v>
       </c>
@@ -11957,7 +11957,7 @@
         <v>315</v>
       </c>
       <c r="E314" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="F314" t="s">
         <v>678</v>
@@ -11966,7 +11966,7 @@
         <v>937</v>
       </c>
       <c r="H314" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="I314" t="s">
         <v>964</v>
@@ -11975,7 +11975,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>1902</v>
       </c>
@@ -11986,7 +11986,7 @@
         <v>316</v>
       </c>
       <c r="E315" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="F315" t="s">
         <v>679</v>
@@ -11995,7 +11995,7 @@
         <v>938</v>
       </c>
       <c r="H315" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="I315" t="s">
         <v>964</v>
@@ -12004,7 +12004,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>1902</v>
       </c>
@@ -12015,7 +12015,7 @@
         <v>317</v>
       </c>
       <c r="E316" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="F316" t="s">
         <v>680</v>
@@ -12024,7 +12024,7 @@
         <v>939</v>
       </c>
       <c r="H316" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="I316" t="s">
         <v>964</v>
@@ -12033,7 +12033,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>1902</v>
       </c>
@@ -12044,7 +12044,7 @@
         <v>318</v>
       </c>
       <c r="E317" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="F317" t="s">
         <v>681</v>
@@ -12053,13 +12053,13 @@
         <v>940</v>
       </c>
       <c r="H317" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="I317" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>1902</v>
       </c>
@@ -12070,7 +12070,7 @@
         <v>319</v>
       </c>
       <c r="E318" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="F318" t="s">
         <v>682</v>
@@ -12079,13 +12079,13 @@
         <v>941</v>
       </c>
       <c r="H318" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="I318" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>1902</v>
       </c>
@@ -12096,7 +12096,7 @@
         <v>320</v>
       </c>
       <c r="E319" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="F319" t="s">
         <v>683</v>
@@ -12105,13 +12105,13 @@
         <v>772</v>
       </c>
       <c r="H319" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="I319" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>1902</v>
       </c>
@@ -12122,7 +12122,7 @@
         <v>321</v>
       </c>
       <c r="E320" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="F320" t="s">
         <v>684</v>
@@ -12131,13 +12131,13 @@
         <v>942</v>
       </c>
       <c r="H320" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="I320" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>1902</v>
       </c>
@@ -12148,7 +12148,7 @@
         <v>322</v>
       </c>
       <c r="E321" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="F321" t="s">
         <v>685</v>
@@ -12157,13 +12157,13 @@
         <v>943</v>
       </c>
       <c r="H321" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="I321" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>1902</v>
       </c>
@@ -12174,7 +12174,7 @@
         <v>323</v>
       </c>
       <c r="E322" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="F322" t="s">
         <v>686</v>
@@ -12183,13 +12183,13 @@
         <v>783</v>
       </c>
       <c r="H322" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="I322" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>1902</v>
       </c>
@@ -12200,7 +12200,7 @@
         <v>324</v>
       </c>
       <c r="E323" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="F323" t="s">
         <v>687</v>
@@ -12209,13 +12209,13 @@
         <v>944</v>
       </c>
       <c r="H323" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="I323" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>1902</v>
       </c>
@@ -12226,7 +12226,7 @@
         <v>325</v>
       </c>
       <c r="E324" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="F324" t="s">
         <v>688</v>
@@ -12235,13 +12235,13 @@
         <v>943</v>
       </c>
       <c r="H324" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="I324" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>1902</v>
       </c>
@@ -12252,7 +12252,7 @@
         <v>326</v>
       </c>
       <c r="E325" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="F325" t="s">
         <v>689</v>
@@ -12261,13 +12261,13 @@
         <v>945</v>
       </c>
       <c r="H325" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="I325" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>1902</v>
       </c>
@@ -12278,7 +12278,7 @@
         <v>327</v>
       </c>
       <c r="E326" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="F326" t="s">
         <v>690</v>
@@ -12287,13 +12287,13 @@
         <v>741</v>
       </c>
       <c r="H326" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="I326" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>1902</v>
       </c>
@@ -12307,7 +12307,7 @@
         <v>328</v>
       </c>
       <c r="E327" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="F327" t="s">
         <v>691</v>
@@ -12316,13 +12316,13 @@
         <v>946</v>
       </c>
       <c r="H327" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="I327" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>1902</v>
       </c>
@@ -12336,7 +12336,7 @@
         <v>329</v>
       </c>
       <c r="E328" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="F328" t="s">
         <v>692</v>
@@ -12345,13 +12345,13 @@
         <v>947</v>
       </c>
       <c r="H328" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="I328" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>1902</v>
       </c>
@@ -12365,7 +12365,7 @@
         <v>330</v>
       </c>
       <c r="E329" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="F329" t="s">
         <v>693</v>
@@ -12374,13 +12374,13 @@
         <v>813</v>
       </c>
       <c r="H329" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="I329" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>1902</v>
       </c>
@@ -12394,7 +12394,7 @@
         <v>331</v>
       </c>
       <c r="E330" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="F330" t="s">
         <v>694</v>
@@ -12403,13 +12403,13 @@
         <v>783</v>
       </c>
       <c r="H330" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="I330" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>1902</v>
       </c>
@@ -12423,7 +12423,7 @@
         <v>332</v>
       </c>
       <c r="E331" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="F331" t="s">
         <v>695</v>
@@ -12438,7 +12438,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>1902</v>
       </c>
@@ -12452,7 +12452,7 @@
         <v>333</v>
       </c>
       <c r="E332" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="F332" t="s">
         <v>696</v>
@@ -12467,7 +12467,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>1902</v>
       </c>
@@ -12481,7 +12481,7 @@
         <v>334</v>
       </c>
       <c r="E333" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="F333" t="s">
         <v>697</v>
@@ -12496,7 +12496,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>1902</v>
       </c>
@@ -12510,7 +12510,7 @@
         <v>335</v>
       </c>
       <c r="E334" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="F334" t="s">
         <v>698</v>
@@ -12525,7 +12525,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>1902</v>
       </c>
@@ -12536,7 +12536,7 @@
         <v>336</v>
       </c>
       <c r="E335" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="F335" t="s">
         <v>699</v>
@@ -12545,13 +12545,13 @@
         <v>949</v>
       </c>
       <c r="H335" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="I335" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>1902</v>
       </c>
@@ -12562,7 +12562,7 @@
         <v>337</v>
       </c>
       <c r="E336" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="F336" t="s">
         <v>700</v>
@@ -12571,13 +12571,13 @@
         <v>755</v>
       </c>
       <c r="H336" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="I336" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>1902</v>
       </c>
@@ -12588,7 +12588,7 @@
         <v>338</v>
       </c>
       <c r="E337" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="F337" t="s">
         <v>701</v>
@@ -12597,13 +12597,13 @@
         <v>737</v>
       </c>
       <c r="H337" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="I337" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>1902</v>
       </c>
@@ -12614,7 +12614,7 @@
         <v>339</v>
       </c>
       <c r="E338" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="F338" t="s">
         <v>702</v>
@@ -12623,13 +12623,13 @@
         <v>737</v>
       </c>
       <c r="H338" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="I338" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>1902</v>
       </c>
@@ -12640,7 +12640,7 @@
         <v>340</v>
       </c>
       <c r="E339" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="F339" t="s">
         <v>703</v>
@@ -12649,13 +12649,13 @@
         <v>737</v>
       </c>
       <c r="H339" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="I339" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>1902</v>
       </c>
@@ -12666,7 +12666,7 @@
         <v>341</v>
       </c>
       <c r="E340" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="F340" t="s">
         <v>704</v>
@@ -12675,13 +12675,13 @@
         <v>737</v>
       </c>
       <c r="H340" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="I340" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>1902</v>
       </c>
@@ -12692,7 +12692,7 @@
         <v>342</v>
       </c>
       <c r="E341" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="F341" t="s">
         <v>705</v>
@@ -12701,13 +12701,13 @@
         <v>737</v>
       </c>
       <c r="H341" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="I341" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>1902</v>
       </c>
@@ -12718,7 +12718,7 @@
         <v>343</v>
       </c>
       <c r="E342" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="F342" t="s">
         <v>706</v>
@@ -12727,13 +12727,13 @@
         <v>950</v>
       </c>
       <c r="H342" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="I342" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>1902</v>
       </c>
@@ -12744,7 +12744,7 @@
         <v>344</v>
       </c>
       <c r="E343" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="F343" t="s">
         <v>707</v>
@@ -12753,7 +12753,7 @@
         <v>879</v>
       </c>
       <c r="H343" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="I343" t="s">
         <v>964</v>
@@ -12765,7 +12765,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>1902</v>
       </c>
@@ -12776,7 +12776,7 @@
         <v>345</v>
       </c>
       <c r="E344" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="F344" t="s">
         <v>708</v>
@@ -12785,7 +12785,7 @@
         <v>951</v>
       </c>
       <c r="H344" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="I344" t="s">
         <v>964</v>
@@ -12797,7 +12797,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>1902</v>
       </c>
@@ -12808,7 +12808,7 @@
         <v>346</v>
       </c>
       <c r="E345" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="F345" t="s">
         <v>709</v>
@@ -12817,7 +12817,7 @@
         <v>952</v>
       </c>
       <c r="H345" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="I345" t="s">
         <v>964</v>
@@ -12829,7 +12829,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>1902</v>
       </c>
@@ -12840,7 +12840,7 @@
         <v>347</v>
       </c>
       <c r="E346" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="F346" t="s">
         <v>710</v>
@@ -12849,13 +12849,13 @@
         <v>953</v>
       </c>
       <c r="H346" t="s">
-        <v>1060</v>
+        <v>1095</v>
       </c>
       <c r="I346" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>1902</v>
       </c>
@@ -12866,7 +12866,7 @@
         <v>348</v>
       </c>
       <c r="E347" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="F347" t="s">
         <v>711</v>
@@ -12875,13 +12875,13 @@
         <v>954</v>
       </c>
       <c r="H347" t="s">
-        <v>1060</v>
+        <v>1095</v>
       </c>
       <c r="I347" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>1902</v>
       </c>
@@ -12892,7 +12892,7 @@
         <v>349</v>
       </c>
       <c r="E348" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="F348" t="s">
         <v>712</v>
@@ -12901,13 +12901,13 @@
         <v>955</v>
       </c>
       <c r="H348" t="s">
-        <v>1060</v>
+        <v>1095</v>
       </c>
       <c r="I348" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>1902</v>
       </c>
@@ -12918,7 +12918,7 @@
         <v>350</v>
       </c>
       <c r="E349" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="F349" t="s">
         <v>713</v>
@@ -12927,13 +12927,13 @@
         <v>956</v>
       </c>
       <c r="H349" t="s">
-        <v>1060</v>
+        <v>1095</v>
       </c>
       <c r="I349" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>1902</v>
       </c>
@@ -12944,7 +12944,7 @@
         <v>351</v>
       </c>
       <c r="E350" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="F350" t="s">
         <v>714</v>
@@ -12953,13 +12953,13 @@
         <v>957</v>
       </c>
       <c r="H350" t="s">
-        <v>1060</v>
+        <v>1095</v>
       </c>
       <c r="I350" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>1902</v>
       </c>
@@ -12970,7 +12970,7 @@
         <v>352</v>
       </c>
       <c r="E351" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="F351" t="s">
         <v>715</v>
@@ -12979,13 +12979,13 @@
         <v>958</v>
       </c>
       <c r="H351" t="s">
-        <v>1060</v>
+        <v>1095</v>
       </c>
       <c r="I351" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>1902</v>
       </c>
@@ -12996,7 +12996,7 @@
         <v>353</v>
       </c>
       <c r="E352" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="F352" t="s">
         <v>716</v>
@@ -13005,13 +13005,13 @@
         <v>738</v>
       </c>
       <c r="H352" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="I352" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>1902</v>
       </c>
@@ -13022,7 +13022,7 @@
         <v>354</v>
       </c>
       <c r="E353" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="F353" t="s">
         <v>717</v>
@@ -13031,13 +13031,13 @@
         <v>737</v>
       </c>
       <c r="H353" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="I353" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>1902</v>
       </c>
@@ -13048,7 +13048,7 @@
         <v>355</v>
       </c>
       <c r="E354" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="F354" t="s">
         <v>718</v>
@@ -13063,7 +13063,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>1902</v>
       </c>
@@ -13074,7 +13074,7 @@
         <v>356</v>
       </c>
       <c r="E355" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="F355" t="s">
         <v>719</v>
@@ -13089,7 +13089,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>1902</v>
       </c>
@@ -13100,7 +13100,7 @@
         <v>357</v>
       </c>
       <c r="E356" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="F356" t="s">
         <v>720</v>
@@ -13109,13 +13109,13 @@
         <v>959</v>
       </c>
       <c r="H356" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="I356" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>1902</v>
       </c>
@@ -13126,7 +13126,7 @@
         <v>358</v>
       </c>
       <c r="E357" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="F357" t="s">
         <v>721</v>
@@ -13135,13 +13135,13 @@
         <v>954</v>
       </c>
       <c r="H357" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="I357" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>1902</v>
       </c>
@@ -13152,7 +13152,7 @@
         <v>359</v>
       </c>
       <c r="E358" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="F358" t="s">
         <v>722</v>
@@ -13161,19 +13161,19 @@
         <v>849</v>
       </c>
       <c r="H358" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="I358" t="s">
         <v>964</v>
       </c>
       <c r="K358" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="L358" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>1902</v>
       </c>
@@ -13184,7 +13184,7 @@
         <v>360</v>
       </c>
       <c r="E359" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="F359" t="s">
         <v>723</v>
@@ -13193,19 +13193,19 @@
         <v>960</v>
       </c>
       <c r="H359" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="I359" t="s">
         <v>964</v>
       </c>
       <c r="K359" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="L359" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>1902</v>
       </c>
@@ -13216,7 +13216,7 @@
         <v>361</v>
       </c>
       <c r="E360" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="F360" t="s">
         <v>724</v>
@@ -13225,19 +13225,19 @@
         <v>961</v>
       </c>
       <c r="H360" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="I360" t="s">
         <v>964</v>
       </c>
       <c r="K360" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="L360" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>1902</v>
       </c>
@@ -13248,7 +13248,7 @@
         <v>362</v>
       </c>
       <c r="E361" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="F361" t="s">
         <v>725</v>
@@ -13257,13 +13257,13 @@
         <v>950</v>
       </c>
       <c r="H361" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="I361" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>1902</v>
       </c>
@@ -13274,7 +13274,7 @@
         <v>363</v>
       </c>
       <c r="E362" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="F362" t="s">
         <v>726</v>
@@ -13283,13 +13283,13 @@
         <v>962</v>
       </c>
       <c r="H362" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="I362" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>1902</v>
       </c>
@@ -13300,7 +13300,7 @@
         <v>364</v>
       </c>
       <c r="E363" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="F363" t="s">
         <v>727</v>
@@ -13309,13 +13309,13 @@
         <v>737</v>
       </c>
       <c r="H363" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="I363" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>1902</v>
       </c>
@@ -13326,7 +13326,7 @@
         <v>365</v>
       </c>
       <c r="E364" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="F364" t="s">
         <v>728</v>
@@ -13335,13 +13335,13 @@
         <v>737</v>
       </c>
       <c r="H364" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="I364" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>1902</v>
       </c>
@@ -13352,7 +13352,7 @@
         <v>366</v>
       </c>
       <c r="E365" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="F365" t="s">
         <v>729</v>
@@ -13361,7 +13361,7 @@
         <v>783</v>
       </c>
       <c r="H365" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="I365" t="s">
         <v>963</v>

--- a/data-migration/xlsx_1900-/1902_Sommer.xlsx
+++ b/data-migration/xlsx_1900-/1902_Sommer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\TEMP_REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{810C83B1-DA8F-4FE3-889B-B72048C8BFFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F835E14-6E25-4A1E-882E-13F5F7806A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2951,9 +2951,6 @@
     <t>rueegg_a</t>
   </si>
   <si>
-    <t>kappeler_a</t>
-  </si>
-  <si>
     <t>egli_k</t>
   </si>
   <si>
@@ -2978,9 +2975,6 @@
     <t>zuercher_e</t>
   </si>
   <si>
-    <t>huber_r</t>
-  </si>
-  <si>
     <t>schollenberger_j</t>
   </si>
   <si>
@@ -3032,9 +3026,6 @@
     <t>heuss_e</t>
   </si>
   <si>
-    <t>kroenlein_u</t>
-  </si>
-  <si>
     <t>schlatter_k</t>
   </si>
   <si>
@@ -3125,9 +3116,6 @@
     <t>rittershaus_a</t>
   </si>
   <si>
-    <t>frey_k</t>
-  </si>
-  <si>
     <t>vetter_t</t>
   </si>
   <si>
@@ -3218,18 +3206,12 @@
     <t>lang_a</t>
   </si>
   <si>
-    <t>standfuss_m</t>
-  </si>
-  <si>
     <t>martin_r</t>
   </si>
   <si>
     <t>kesselring_h</t>
   </si>
   <si>
-    <t>vonmonakow_c</t>
-  </si>
-  <si>
     <t>cloetta_m</t>
   </si>
   <si>
@@ -3245,12 +3227,6 @@
     <t>ehrhardt_j</t>
   </si>
   <si>
-    <t>silberschmidt _w</t>
-  </si>
-  <si>
-    <t>vonschulthessrechberg_g</t>
-  </si>
-  <si>
     <t>schulthess_w</t>
   </si>
   <si>
@@ -3263,9 +3239,6 @@
     <t>meili_f2</t>
   </si>
   <si>
-    <t>wyss_o</t>
-  </si>
-  <si>
     <t>ernst_p</t>
   </si>
   <si>
@@ -3278,9 +3251,6 @@
     <t>billeter_j</t>
   </si>
   <si>
-    <t>meyerrueegg_h</t>
-  </si>
-  <si>
     <t>gysi_a</t>
   </si>
   <si>
@@ -3324,6 +3294,36 @@
   </si>
   <si>
     <t>heim_a</t>
+  </si>
+  <si>
+    <t>frey_a</t>
+  </si>
+  <si>
+    <t>kappeler_ga</t>
+  </si>
+  <si>
+    <t>meyer-rueegg_h</t>
+  </si>
+  <si>
+    <t>huber_m</t>
+  </si>
+  <si>
+    <t>kroenlein_ru</t>
+  </si>
+  <si>
+    <t>monakow_c</t>
+  </si>
+  <si>
+    <t>schulthess_rg</t>
+  </si>
+  <si>
+    <t>wyss-kienast_o</t>
+  </si>
+  <si>
+    <t>standfuss_mr</t>
+  </si>
+  <si>
+    <t>silberschmidt_w</t>
   </si>
 </sst>
 </file>
@@ -3363,7 +3363,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3667,19 +3667,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A306" workbookViewId="0">
-      <selection activeCell="H331" sqref="H331"/>
+    <sheetView tabSelected="1" topLeftCell="B66" workbookViewId="0">
+      <selection activeCell="I85" sqref="I85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="23.85546875" customWidth="1"/>
-    <col min="6" max="6" width="52.85546875" customWidth="1"/>
-    <col min="8" max="8" width="30.42578125" customWidth="1"/>
+    <col min="5" max="5" width="23.88671875" customWidth="1"/>
+    <col min="6" max="6" width="52.88671875" customWidth="1"/>
+    <col min="8" max="8" width="30.44140625" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1902</v>
       </c>
@@ -3690,7 +3690,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>1085</v>
+        <v>1075</v>
       </c>
       <c r="F1" t="s">
         <v>367</v>
@@ -3705,7 +3705,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1902</v>
       </c>
@@ -3716,7 +3716,7 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>1085</v>
+        <v>1075</v>
       </c>
       <c r="F2" t="s">
         <v>368</v>
@@ -3731,7 +3731,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1902</v>
       </c>
@@ -3742,7 +3742,7 @@
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>1085</v>
+        <v>1075</v>
       </c>
       <c r="F3" t="s">
         <v>369</v>
@@ -3757,7 +3757,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1902</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>1085</v>
+        <v>1075</v>
       </c>
       <c r="F4" t="s">
         <v>370</v>
@@ -3777,7 +3777,7 @@
         <v>733</v>
       </c>
       <c r="H4" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
       <c r="I4" t="s">
         <v>964</v>
@@ -3786,7 +3786,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1902</v>
       </c>
@@ -3797,7 +3797,7 @@
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>1085</v>
+        <v>1075</v>
       </c>
       <c r="F5" t="s">
         <v>371</v>
@@ -3806,7 +3806,7 @@
         <v>734</v>
       </c>
       <c r="H5" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
       <c r="I5" t="s">
         <v>964</v>
@@ -3815,7 +3815,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1902</v>
       </c>
@@ -3826,7 +3826,7 @@
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>1085</v>
+        <v>1075</v>
       </c>
       <c r="F6" t="s">
         <v>372</v>
@@ -3841,7 +3841,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1902</v>
       </c>
@@ -3852,7 +3852,7 @@
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>1085</v>
+        <v>1075</v>
       </c>
       <c r="F7" t="s">
         <v>373</v>
@@ -3867,7 +3867,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1902</v>
       </c>
@@ -3878,7 +3878,7 @@
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>1085</v>
+        <v>1075</v>
       </c>
       <c r="F8" t="s">
         <v>374</v>
@@ -3893,7 +3893,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1902</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>1085</v>
+        <v>1075</v>
       </c>
       <c r="F9" t="s">
         <v>375</v>
@@ -3913,13 +3913,13 @@
         <v>738</v>
       </c>
       <c r="H9" t="s">
-        <v>972</v>
+        <v>1088</v>
       </c>
       <c r="I9" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1902</v>
       </c>
@@ -3930,7 +3930,7 @@
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>1085</v>
+        <v>1075</v>
       </c>
       <c r="F10" t="s">
         <v>376</v>
@@ -3939,13 +3939,13 @@
         <v>739</v>
       </c>
       <c r="H10" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="I10" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1902</v>
       </c>
@@ -3956,7 +3956,7 @@
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>1085</v>
+        <v>1075</v>
       </c>
       <c r="F11" t="s">
         <v>377</v>
@@ -3965,13 +3965,13 @@
         <v>740</v>
       </c>
       <c r="H11" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="I11" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1902</v>
       </c>
@@ -3982,7 +3982,7 @@
         <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>1085</v>
+        <v>1075</v>
       </c>
       <c r="F12" t="s">
         <v>378</v>
@@ -3991,13 +3991,13 @@
         <v>737</v>
       </c>
       <c r="H12" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="I12" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1902</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>1085</v>
+        <v>1075</v>
       </c>
       <c r="F13" t="s">
         <v>379</v>
@@ -4017,13 +4017,13 @@
         <v>741</v>
       </c>
       <c r="H13" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="I13" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1902</v>
       </c>
@@ -4034,7 +4034,7 @@
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>1085</v>
+        <v>1075</v>
       </c>
       <c r="F14" t="s">
         <v>380</v>
@@ -4043,13 +4043,13 @@
         <v>740</v>
       </c>
       <c r="H14" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="I14" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1902</v>
       </c>
@@ -4060,7 +4060,7 @@
         <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>1085</v>
+        <v>1075</v>
       </c>
       <c r="F15" t="s">
         <v>381</v>
@@ -4069,13 +4069,13 @@
         <v>739</v>
       </c>
       <c r="H15" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="I15" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1902</v>
       </c>
@@ -4086,7 +4086,7 @@
         <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>1085</v>
+        <v>1075</v>
       </c>
       <c r="F16" t="s">
         <v>382</v>
@@ -4095,13 +4095,13 @@
         <v>741</v>
       </c>
       <c r="H16" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="I16" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1902</v>
       </c>
@@ -4112,7 +4112,7 @@
         <v>18</v>
       </c>
       <c r="E17" t="s">
-        <v>1085</v>
+        <v>1075</v>
       </c>
       <c r="F17" t="s">
         <v>383</v>
@@ -4121,13 +4121,13 @@
         <v>742</v>
       </c>
       <c r="H17" t="s">
-        <v>1071</v>
+        <v>1093</v>
       </c>
       <c r="I17" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1902</v>
       </c>
@@ -4138,7 +4138,7 @@
         <v>19</v>
       </c>
       <c r="E18" t="s">
-        <v>1085</v>
+        <v>1075</v>
       </c>
       <c r="F18" t="s">
         <v>384</v>
@@ -4147,13 +4147,13 @@
         <v>743</v>
       </c>
       <c r="H18" t="s">
-        <v>1071</v>
+        <v>1093</v>
       </c>
       <c r="I18" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1902</v>
       </c>
@@ -4164,7 +4164,7 @@
         <v>20</v>
       </c>
       <c r="E19" t="s">
-        <v>1085</v>
+        <v>1075</v>
       </c>
       <c r="F19" t="s">
         <v>385</v>
@@ -4179,7 +4179,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1902</v>
       </c>
@@ -4190,7 +4190,7 @@
         <v>21</v>
       </c>
       <c r="E20" t="s">
-        <v>1085</v>
+        <v>1075</v>
       </c>
       <c r="F20" t="s">
         <v>386</v>
@@ -4205,7 +4205,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1902</v>
       </c>
@@ -4216,7 +4216,7 @@
         <v>22</v>
       </c>
       <c r="E21" t="s">
-        <v>1085</v>
+        <v>1075</v>
       </c>
       <c r="F21" t="s">
         <v>387</v>
@@ -4225,13 +4225,13 @@
         <v>745</v>
       </c>
       <c r="H21" t="s">
-        <v>1075</v>
+        <v>1067</v>
       </c>
       <c r="I21" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1902</v>
       </c>
@@ -4242,7 +4242,7 @@
         <v>23</v>
       </c>
       <c r="E22" t="s">
-        <v>1085</v>
+        <v>1075</v>
       </c>
       <c r="F22" t="s">
         <v>388</v>
@@ -4251,13 +4251,13 @@
         <v>746</v>
       </c>
       <c r="H22" t="s">
-        <v>1075</v>
+        <v>1067</v>
       </c>
       <c r="I22" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1902</v>
       </c>
@@ -4268,7 +4268,7 @@
         <v>24</v>
       </c>
       <c r="E23" t="s">
-        <v>1085</v>
+        <v>1075</v>
       </c>
       <c r="F23" t="s">
         <v>389</v>
@@ -4277,13 +4277,13 @@
         <v>741</v>
       </c>
       <c r="H23" t="s">
-        <v>1075</v>
+        <v>1067</v>
       </c>
       <c r="I23" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1902</v>
       </c>
@@ -4294,7 +4294,7 @@
         <v>25</v>
       </c>
       <c r="E24" t="s">
-        <v>1085</v>
+        <v>1075</v>
       </c>
       <c r="F24" t="s">
         <v>390</v>
@@ -4303,13 +4303,13 @@
         <v>741</v>
       </c>
       <c r="H24" t="s">
-        <v>1075</v>
+        <v>1067</v>
       </c>
       <c r="I24" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1902</v>
       </c>
@@ -4320,7 +4320,7 @@
         <v>26</v>
       </c>
       <c r="E25" t="s">
-        <v>1085</v>
+        <v>1075</v>
       </c>
       <c r="F25" t="s">
         <v>391</v>
@@ -4329,7 +4329,7 @@
         <v>737</v>
       </c>
       <c r="H25" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
       <c r="I25" t="s">
         <v>964</v>
@@ -4338,7 +4338,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1902</v>
       </c>
@@ -4349,7 +4349,7 @@
         <v>27</v>
       </c>
       <c r="E26" t="s">
-        <v>1085</v>
+        <v>1075</v>
       </c>
       <c r="F26" t="s">
         <v>392</v>
@@ -4364,7 +4364,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1902</v>
       </c>
@@ -4375,7 +4375,7 @@
         <v>28</v>
       </c>
       <c r="E27" t="s">
-        <v>1085</v>
+        <v>1075</v>
       </c>
       <c r="F27" t="s">
         <v>393</v>
@@ -4384,7 +4384,7 @@
         <v>737</v>
       </c>
       <c r="H27" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
       <c r="I27" t="s">
         <v>964</v>
@@ -4393,7 +4393,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1902</v>
       </c>
@@ -4404,7 +4404,7 @@
         <v>29</v>
       </c>
       <c r="E28" t="s">
-        <v>1085</v>
+        <v>1075</v>
       </c>
       <c r="F28" t="s">
         <v>394</v>
@@ -4413,13 +4413,13 @@
         <v>737</v>
       </c>
       <c r="H28" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="I28" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1902</v>
       </c>
@@ -4430,7 +4430,7 @@
         <v>30</v>
       </c>
       <c r="E29" t="s">
-        <v>1085</v>
+        <v>1075</v>
       </c>
       <c r="F29" t="s">
         <v>395</v>
@@ -4439,13 +4439,13 @@
         <v>748</v>
       </c>
       <c r="H29" t="s">
-        <v>1071</v>
+        <v>1093</v>
       </c>
       <c r="I29" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1902</v>
       </c>
@@ -4456,7 +4456,7 @@
         <v>31</v>
       </c>
       <c r="E30" t="s">
-        <v>1085</v>
+        <v>1075</v>
       </c>
       <c r="F30" t="s">
         <v>396</v>
@@ -4465,13 +4465,13 @@
         <v>749</v>
       </c>
       <c r="H30" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="I30" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1902</v>
       </c>
@@ -4482,7 +4482,7 @@
         <v>32</v>
       </c>
       <c r="E31" t="s">
-        <v>1086</v>
+        <v>1076</v>
       </c>
       <c r="F31" t="s">
         <v>397</v>
@@ -4491,13 +4491,13 @@
         <v>750</v>
       </c>
       <c r="H31" t="s">
-        <v>1084</v>
+        <v>1074</v>
       </c>
       <c r="I31" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1902</v>
       </c>
@@ -4508,7 +4508,7 @@
         <v>33</v>
       </c>
       <c r="E32" t="s">
-        <v>1086</v>
+        <v>1076</v>
       </c>
       <c r="F32" t="s">
         <v>398</v>
@@ -4517,13 +4517,13 @@
         <v>751</v>
       </c>
       <c r="H32" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="I32" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1902</v>
       </c>
@@ -4534,7 +4534,7 @@
         <v>34</v>
       </c>
       <c r="E33" t="s">
-        <v>1086</v>
+        <v>1076</v>
       </c>
       <c r="F33" t="s">
         <v>399</v>
@@ -4543,13 +4543,13 @@
         <v>752</v>
       </c>
       <c r="H33" t="s">
-        <v>1084</v>
+        <v>1074</v>
       </c>
       <c r="I33" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1902</v>
       </c>
@@ -4560,7 +4560,7 @@
         <v>35</v>
       </c>
       <c r="E34" t="s">
-        <v>1086</v>
+        <v>1076</v>
       </c>
       <c r="F34" t="s">
         <v>400</v>
@@ -4569,13 +4569,13 @@
         <v>753</v>
       </c>
       <c r="H34" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="I34" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1902</v>
       </c>
@@ -4586,7 +4586,7 @@
         <v>36</v>
       </c>
       <c r="E35" t="s">
-        <v>1086</v>
+        <v>1076</v>
       </c>
       <c r="F35" t="s">
         <v>401</v>
@@ -4595,7 +4595,7 @@
         <v>754</v>
       </c>
       <c r="H35" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="I35" t="s">
         <v>964</v>
@@ -4604,7 +4604,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1902</v>
       </c>
@@ -4615,7 +4615,7 @@
         <v>37</v>
       </c>
       <c r="E36" t="s">
-        <v>1086</v>
+        <v>1076</v>
       </c>
       <c r="F36" t="s">
         <v>402</v>
@@ -4624,13 +4624,13 @@
         <v>755</v>
       </c>
       <c r="H36" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="I36" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1902</v>
       </c>
@@ -4641,7 +4641,7 @@
         <v>38</v>
       </c>
       <c r="E37" t="s">
-        <v>1086</v>
+        <v>1076</v>
       </c>
       <c r="F37" t="s">
         <v>403</v>
@@ -4650,7 +4650,7 @@
         <v>756</v>
       </c>
       <c r="H37" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="I37" t="s">
         <v>964</v>
@@ -4659,7 +4659,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1902</v>
       </c>
@@ -4670,7 +4670,7 @@
         <v>39</v>
       </c>
       <c r="E38" t="s">
-        <v>1086</v>
+        <v>1076</v>
       </c>
       <c r="F38" t="s">
         <v>404</v>
@@ -4679,13 +4679,13 @@
         <v>757</v>
       </c>
       <c r="H38" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="I38" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1902</v>
       </c>
@@ -4696,7 +4696,7 @@
         <v>40</v>
       </c>
       <c r="E39" t="s">
-        <v>1086</v>
+        <v>1076</v>
       </c>
       <c r="F39" t="s">
         <v>405</v>
@@ -4705,13 +4705,13 @@
         <v>758</v>
       </c>
       <c r="H39" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="I39" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1902</v>
       </c>
@@ -4722,7 +4722,7 @@
         <v>41</v>
       </c>
       <c r="E40" t="s">
-        <v>1086</v>
+        <v>1076</v>
       </c>
       <c r="F40" t="s">
         <v>406</v>
@@ -4731,13 +4731,13 @@
         <v>759</v>
       </c>
       <c r="H40" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="I40" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1902</v>
       </c>
@@ -4748,7 +4748,7 @@
         <v>42</v>
       </c>
       <c r="E41" t="s">
-        <v>1086</v>
+        <v>1076</v>
       </c>
       <c r="F41" t="s">
         <v>407</v>
@@ -4757,13 +4757,13 @@
         <v>760</v>
       </c>
       <c r="H41" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="I41" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1902</v>
       </c>
@@ -4774,7 +4774,7 @@
         <v>43</v>
       </c>
       <c r="E42" t="s">
-        <v>1086</v>
+        <v>1076</v>
       </c>
       <c r="F42" t="s">
         <v>408</v>
@@ -4783,13 +4783,13 @@
         <v>761</v>
       </c>
       <c r="H42" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="I42" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1902</v>
       </c>
@@ -4800,7 +4800,7 @@
         <v>44</v>
       </c>
       <c r="E43" t="s">
-        <v>1086</v>
+        <v>1076</v>
       </c>
       <c r="F43" t="s">
         <v>409</v>
@@ -4809,13 +4809,13 @@
         <v>755</v>
       </c>
       <c r="H43" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="I43" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1902</v>
       </c>
@@ -4826,7 +4826,7 @@
         <v>45</v>
       </c>
       <c r="E44" t="s">
-        <v>1086</v>
+        <v>1076</v>
       </c>
       <c r="F44" t="s">
         <v>410</v>
@@ -4835,13 +4835,13 @@
         <v>762</v>
       </c>
       <c r="H44" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="I44" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1902</v>
       </c>
@@ -4852,7 +4852,7 @@
         <v>46</v>
       </c>
       <c r="E45" t="s">
-        <v>1086</v>
+        <v>1076</v>
       </c>
       <c r="F45" t="s">
         <v>411</v>
@@ -4861,13 +4861,13 @@
         <v>763</v>
       </c>
       <c r="H45" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="I45" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1902</v>
       </c>
@@ -4878,7 +4878,7 @@
         <v>47</v>
       </c>
       <c r="E46" t="s">
-        <v>1086</v>
+        <v>1076</v>
       </c>
       <c r="F46" t="s">
         <v>412</v>
@@ -4887,13 +4887,13 @@
         <v>764</v>
       </c>
       <c r="H46" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="I46" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1902</v>
       </c>
@@ -4904,7 +4904,7 @@
         <v>48</v>
       </c>
       <c r="E47" t="s">
-        <v>1086</v>
+        <v>1076</v>
       </c>
       <c r="F47" t="s">
         <v>413</v>
@@ -4913,13 +4913,13 @@
         <v>765</v>
       </c>
       <c r="H47" t="s">
-        <v>981</v>
+        <v>1090</v>
       </c>
       <c r="I47" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1902</v>
       </c>
@@ -4930,7 +4930,7 @@
         <v>49</v>
       </c>
       <c r="E48" t="s">
-        <v>1086</v>
+        <v>1076</v>
       </c>
       <c r="F48" t="s">
         <v>414</v>
@@ -4939,13 +4939,13 @@
         <v>766</v>
       </c>
       <c r="H48" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="I48" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1902</v>
       </c>
@@ -4956,7 +4956,7 @@
         <v>50</v>
       </c>
       <c r="E49" t="s">
-        <v>1086</v>
+        <v>1076</v>
       </c>
       <c r="F49" t="s">
         <v>415</v>
@@ -4965,13 +4965,13 @@
         <v>767</v>
       </c>
       <c r="H49" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="I49" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1902</v>
       </c>
@@ -4982,7 +4982,7 @@
         <v>51</v>
       </c>
       <c r="E50" t="s">
-        <v>1086</v>
+        <v>1076</v>
       </c>
       <c r="F50" t="s">
         <v>416</v>
@@ -4991,7 +4991,7 @@
         <v>768</v>
       </c>
       <c r="H50" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="I50" t="s">
         <v>964</v>
@@ -5000,7 +5000,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1902</v>
       </c>
@@ -5011,7 +5011,7 @@
         <v>52</v>
       </c>
       <c r="E51" t="s">
-        <v>1086</v>
+        <v>1076</v>
       </c>
       <c r="F51" t="s">
         <v>417</v>
@@ -5020,7 +5020,7 @@
         <v>769</v>
       </c>
       <c r="H51" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="I51" t="s">
         <v>964</v>
@@ -5029,7 +5029,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1902</v>
       </c>
@@ -5040,7 +5040,7 @@
         <v>53</v>
       </c>
       <c r="E52" t="s">
-        <v>1086</v>
+        <v>1076</v>
       </c>
       <c r="F52" t="s">
         <v>418</v>
@@ -5049,13 +5049,13 @@
         <v>770</v>
       </c>
       <c r="H52" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="I52" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1902</v>
       </c>
@@ -5066,7 +5066,7 @@
         <v>54</v>
       </c>
       <c r="E53" t="s">
-        <v>1086</v>
+        <v>1076</v>
       </c>
       <c r="F53" t="s">
         <v>419</v>
@@ -5075,13 +5075,13 @@
         <v>771</v>
       </c>
       <c r="H53" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="I53" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1902</v>
       </c>
@@ -5092,7 +5092,7 @@
         <v>55</v>
       </c>
       <c r="E54" t="s">
-        <v>1086</v>
+        <v>1076</v>
       </c>
       <c r="F54" t="s">
         <v>420</v>
@@ -5101,13 +5101,13 @@
         <v>760</v>
       </c>
       <c r="H54" t="s">
-        <v>1084</v>
+        <v>1074</v>
       </c>
       <c r="I54" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1902</v>
       </c>
@@ -5118,7 +5118,7 @@
         <v>56</v>
       </c>
       <c r="E55" t="s">
-        <v>1086</v>
+        <v>1076</v>
       </c>
       <c r="F55" t="s">
         <v>421</v>
@@ -5127,13 +5127,13 @@
         <v>772</v>
       </c>
       <c r="H55" t="s">
-        <v>1084</v>
+        <v>1074</v>
       </c>
       <c r="I55" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1902</v>
       </c>
@@ -5144,7 +5144,7 @@
         <v>57</v>
       </c>
       <c r="E56" t="s">
-        <v>1086</v>
+        <v>1076</v>
       </c>
       <c r="F56" t="s">
         <v>422</v>
@@ -5153,13 +5153,13 @@
         <v>773</v>
       </c>
       <c r="H56" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="I56" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1902</v>
       </c>
@@ -5170,7 +5170,7 @@
         <v>58</v>
       </c>
       <c r="E57" t="s">
-        <v>1086</v>
+        <v>1076</v>
       </c>
       <c r="F57" t="s">
         <v>423</v>
@@ -5179,13 +5179,13 @@
         <v>774</v>
       </c>
       <c r="H57" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="I57" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1902</v>
       </c>
@@ -5196,7 +5196,7 @@
         <v>59</v>
       </c>
       <c r="E58" t="s">
-        <v>1086</v>
+        <v>1076</v>
       </c>
       <c r="F58" t="s">
         <v>424</v>
@@ -5205,7 +5205,7 @@
         <v>775</v>
       </c>
       <c r="H58" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="I58" t="s">
         <v>964</v>
@@ -5214,7 +5214,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1902</v>
       </c>
@@ -5225,7 +5225,7 @@
         <v>60</v>
       </c>
       <c r="E59" t="s">
-        <v>1086</v>
+        <v>1076</v>
       </c>
       <c r="F59" t="s">
         <v>425</v>
@@ -5234,13 +5234,13 @@
         <v>776</v>
       </c>
       <c r="H59" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="I59" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1902</v>
       </c>
@@ -5251,7 +5251,7 @@
         <v>61</v>
       </c>
       <c r="E60" t="s">
-        <v>1086</v>
+        <v>1076</v>
       </c>
       <c r="F60" t="s">
         <v>426</v>
@@ -5260,13 +5260,13 @@
         <v>777</v>
       </c>
       <c r="H60" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="I60" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1902</v>
       </c>
@@ -5277,7 +5277,7 @@
         <v>62</v>
       </c>
       <c r="E61" t="s">
-        <v>1086</v>
+        <v>1076</v>
       </c>
       <c r="F61" t="s">
         <v>427</v>
@@ -5286,7 +5286,7 @@
         <v>778</v>
       </c>
       <c r="H61" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="I61" t="s">
         <v>964</v>
@@ -5295,7 +5295,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1902</v>
       </c>
@@ -5306,7 +5306,7 @@
         <v>63</v>
       </c>
       <c r="E62" t="s">
-        <v>1086</v>
+        <v>1076</v>
       </c>
       <c r="F62" t="s">
         <v>428</v>
@@ -5315,13 +5315,13 @@
         <v>749</v>
       </c>
       <c r="H62" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="I62" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1902</v>
       </c>
@@ -5332,7 +5332,7 @@
         <v>64</v>
       </c>
       <c r="E63" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F63" t="s">
         <v>429</v>
@@ -5341,13 +5341,13 @@
         <v>779</v>
       </c>
       <c r="H63" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="I63" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1902</v>
       </c>
@@ -5358,7 +5358,7 @@
         <v>65</v>
       </c>
       <c r="E64" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F64" t="s">
         <v>430</v>
@@ -5367,19 +5367,19 @@
         <v>780</v>
       </c>
       <c r="H64" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="I64" t="s">
         <v>964</v>
       </c>
       <c r="K64" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="L64" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1902</v>
       </c>
@@ -5390,7 +5390,7 @@
         <v>66</v>
       </c>
       <c r="E65" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F65" t="s">
         <v>431</v>
@@ -5399,13 +5399,13 @@
         <v>781</v>
       </c>
       <c r="H65" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="I65" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1902</v>
       </c>
@@ -5416,7 +5416,7 @@
         <v>67</v>
       </c>
       <c r="E66" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F66" t="s">
         <v>432</v>
@@ -5425,19 +5425,19 @@
         <v>782</v>
       </c>
       <c r="H66" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="I66" t="s">
         <v>964</v>
       </c>
       <c r="K66" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="L66" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1902</v>
       </c>
@@ -5448,7 +5448,7 @@
         <v>68</v>
       </c>
       <c r="E67" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F67" t="s">
         <v>433</v>
@@ -5457,19 +5457,19 @@
         <v>783</v>
       </c>
       <c r="H67" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="I67" t="s">
         <v>964</v>
       </c>
       <c r="K67" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="L67" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1902</v>
       </c>
@@ -5480,7 +5480,7 @@
         <v>69</v>
       </c>
       <c r="E68" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F68" t="s">
         <v>434</v>
@@ -5489,13 +5489,13 @@
         <v>784</v>
       </c>
       <c r="H68" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="I68" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1902</v>
       </c>
@@ -5506,7 +5506,7 @@
         <v>70</v>
       </c>
       <c r="E69" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F69" t="s">
         <v>435</v>
@@ -5515,13 +5515,13 @@
         <v>785</v>
       </c>
       <c r="H69" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="I69" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1902</v>
       </c>
@@ -5532,7 +5532,7 @@
         <v>71</v>
       </c>
       <c r="E70" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F70" t="s">
         <v>436</v>
@@ -5541,13 +5541,13 @@
         <v>786</v>
       </c>
       <c r="H70" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="I70" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1902</v>
       </c>
@@ -5558,7 +5558,7 @@
         <v>72</v>
       </c>
       <c r="E71" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F71" t="s">
         <v>437</v>
@@ -5567,13 +5567,13 @@
         <v>741</v>
       </c>
       <c r="H71" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="I71" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1902</v>
       </c>
@@ -5584,7 +5584,7 @@
         <v>73</v>
       </c>
       <c r="E72" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F72" t="s">
         <v>438</v>
@@ -5593,13 +5593,13 @@
         <v>787</v>
       </c>
       <c r="H72" t="s">
-        <v>1064</v>
+        <v>1092</v>
       </c>
       <c r="I72" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1902</v>
       </c>
@@ -5610,7 +5610,7 @@
         <v>74</v>
       </c>
       <c r="E73" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F73" t="s">
         <v>439</v>
@@ -5619,13 +5619,13 @@
         <v>788</v>
       </c>
       <c r="H73" t="s">
-        <v>1064</v>
+        <v>1092</v>
       </c>
       <c r="I73" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1902</v>
       </c>
@@ -5636,7 +5636,7 @@
         <v>75</v>
       </c>
       <c r="E74" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F74" t="s">
         <v>440</v>
@@ -5645,13 +5645,13 @@
         <v>754</v>
       </c>
       <c r="H74" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="I74" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1902</v>
       </c>
@@ -5662,7 +5662,7 @@
         <v>76</v>
       </c>
       <c r="E75" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F75" t="s">
         <v>441</v>
@@ -5671,13 +5671,13 @@
         <v>789</v>
       </c>
       <c r="H75" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="I75" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1902</v>
       </c>
@@ -5688,7 +5688,7 @@
         <v>77</v>
       </c>
       <c r="E76" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F76" t="s">
         <v>442</v>
@@ -5697,13 +5697,13 @@
         <v>790</v>
       </c>
       <c r="H76" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="I76" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1902</v>
       </c>
@@ -5714,7 +5714,7 @@
         <v>78</v>
       </c>
       <c r="E77" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F77" t="s">
         <v>443</v>
@@ -5723,13 +5723,13 @@
         <v>791</v>
       </c>
       <c r="H77" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="I77" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1902</v>
       </c>
@@ -5740,7 +5740,7 @@
         <v>79</v>
       </c>
       <c r="E78" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F78" t="s">
         <v>444</v>
@@ -5749,13 +5749,13 @@
         <v>737</v>
       </c>
       <c r="H78" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="I78" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1902</v>
       </c>
@@ -5766,7 +5766,7 @@
         <v>80</v>
       </c>
       <c r="E79" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F79" t="s">
         <v>445</v>
@@ -5775,13 +5775,13 @@
         <v>755</v>
       </c>
       <c r="H79" t="s">
-        <v>1072</v>
+        <v>1064</v>
       </c>
       <c r="I79" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1902</v>
       </c>
@@ -5792,7 +5792,7 @@
         <v>81</v>
       </c>
       <c r="E80" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F80" t="s">
         <v>446</v>
@@ -5801,13 +5801,13 @@
         <v>792</v>
       </c>
       <c r="H80" t="s">
-        <v>1076</v>
+        <v>1094</v>
       </c>
       <c r="I80" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1902</v>
       </c>
@@ -5818,7 +5818,7 @@
         <v>82</v>
       </c>
       <c r="E81" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F81" t="s">
         <v>447</v>
@@ -5827,13 +5827,13 @@
         <v>793</v>
       </c>
       <c r="H81" t="s">
-        <v>1076</v>
+        <v>1094</v>
       </c>
       <c r="I81" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1902</v>
       </c>
@@ -5844,7 +5844,7 @@
         <v>83</v>
       </c>
       <c r="E82" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F82" t="s">
         <v>448</v>
@@ -5853,13 +5853,13 @@
         <v>794</v>
       </c>
       <c r="H82" t="s">
-        <v>1070</v>
+        <v>1096</v>
       </c>
       <c r="I82" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1902</v>
       </c>
@@ -5870,7 +5870,7 @@
         <v>84</v>
       </c>
       <c r="E83" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F83" t="s">
         <v>449</v>
@@ -5879,13 +5879,13 @@
         <v>795</v>
       </c>
       <c r="H83" t="s">
-        <v>1070</v>
+        <v>1096</v>
       </c>
       <c r="I83" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1902</v>
       </c>
@@ -5896,7 +5896,7 @@
         <v>85</v>
       </c>
       <c r="E84" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F84" t="s">
         <v>450</v>
@@ -5905,13 +5905,13 @@
         <v>738</v>
       </c>
       <c r="H84" t="s">
-        <v>1070</v>
+        <v>1096</v>
       </c>
       <c r="I84" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1902</v>
       </c>
@@ -5922,7 +5922,7 @@
         <v>86</v>
       </c>
       <c r="E85" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F85" t="s">
         <v>451</v>
@@ -5931,13 +5931,13 @@
         <v>737</v>
       </c>
       <c r="H85" t="s">
-        <v>1070</v>
+        <v>1096</v>
       </c>
       <c r="I85" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1902</v>
       </c>
@@ -5948,7 +5948,7 @@
         <v>87</v>
       </c>
       <c r="E86" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F86" t="s">
         <v>452</v>
@@ -5957,13 +5957,13 @@
         <v>796</v>
       </c>
       <c r="H86" t="s">
-        <v>1077</v>
+        <v>1068</v>
       </c>
       <c r="I86" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>1902</v>
       </c>
@@ -5974,7 +5974,7 @@
         <v>88</v>
       </c>
       <c r="E87" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F87" t="s">
         <v>453</v>
@@ -5983,13 +5983,13 @@
         <v>797</v>
       </c>
       <c r="H87" t="s">
-        <v>1077</v>
+        <v>1068</v>
       </c>
       <c r="I87" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1902</v>
       </c>
@@ -6000,7 +6000,7 @@
         <v>89</v>
       </c>
       <c r="E88" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F88" t="s">
         <v>454</v>
@@ -6009,13 +6009,13 @@
         <v>798</v>
       </c>
       <c r="H88" t="s">
-        <v>1077</v>
+        <v>1068</v>
       </c>
       <c r="I88" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>1902</v>
       </c>
@@ -6026,7 +6026,7 @@
         <v>90</v>
       </c>
       <c r="E89" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F89" t="s">
         <v>455</v>
@@ -6035,13 +6035,13 @@
         <v>799</v>
       </c>
       <c r="H89" t="s">
-        <v>1077</v>
+        <v>1068</v>
       </c>
       <c r="I89" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>1902</v>
       </c>
@@ -6052,7 +6052,7 @@
         <v>91</v>
       </c>
       <c r="E90" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F90" t="s">
         <v>456</v>
@@ -6061,13 +6061,13 @@
         <v>783</v>
       </c>
       <c r="H90" t="s">
-        <v>1077</v>
+        <v>1068</v>
       </c>
       <c r="I90" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>1902</v>
       </c>
@@ -6078,7 +6078,7 @@
         <v>92</v>
       </c>
       <c r="E91" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F91" t="s">
         <v>457</v>
@@ -6087,13 +6087,13 @@
         <v>755</v>
       </c>
       <c r="H91" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
       <c r="I91" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>1902</v>
       </c>
@@ -6104,7 +6104,7 @@
         <v>93</v>
       </c>
       <c r="E92" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F92" t="s">
         <v>458</v>
@@ -6113,13 +6113,13 @@
         <v>800</v>
       </c>
       <c r="H92" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
       <c r="I92" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1902</v>
       </c>
@@ -6130,7 +6130,7 @@
         <v>94</v>
       </c>
       <c r="E93" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F93" t="s">
         <v>459</v>
@@ -6139,13 +6139,13 @@
         <v>737</v>
       </c>
       <c r="H93" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="I93" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1902</v>
       </c>
@@ -6156,7 +6156,7 @@
         <v>95</v>
       </c>
       <c r="E94" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F94" t="s">
         <v>460</v>
@@ -6165,13 +6165,13 @@
         <v>801</v>
       </c>
       <c r="H94" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="I94" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1902</v>
       </c>
@@ -6182,7 +6182,7 @@
         <v>96</v>
       </c>
       <c r="E95" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F95" t="s">
         <v>461</v>
@@ -6191,13 +6191,13 @@
         <v>802</v>
       </c>
       <c r="H95" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="I95" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1902</v>
       </c>
@@ -6208,7 +6208,7 @@
         <v>97</v>
       </c>
       <c r="E96" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F96" t="s">
         <v>462</v>
@@ -6217,13 +6217,13 @@
         <v>803</v>
       </c>
       <c r="H96" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="I96" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1902</v>
       </c>
@@ -6234,7 +6234,7 @@
         <v>98</v>
       </c>
       <c r="E97" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F97" t="s">
         <v>463</v>
@@ -6243,13 +6243,13 @@
         <v>804</v>
       </c>
       <c r="H97" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="I97" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1902</v>
       </c>
@@ -6260,7 +6260,7 @@
         <v>99</v>
       </c>
       <c r="E98" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F98" t="s">
         <v>464</v>
@@ -6269,13 +6269,13 @@
         <v>745</v>
       </c>
       <c r="H98" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="I98" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1902</v>
       </c>
@@ -6286,7 +6286,7 @@
         <v>100</v>
       </c>
       <c r="E99" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F99" t="s">
         <v>465</v>
@@ -6295,13 +6295,13 @@
         <v>737</v>
       </c>
       <c r="H99" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="I99" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1902</v>
       </c>
@@ -6312,7 +6312,7 @@
         <v>101</v>
       </c>
       <c r="E100" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F100" t="s">
         <v>466</v>
@@ -6321,13 +6321,13 @@
         <v>741</v>
       </c>
       <c r="H100" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="I100" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1902</v>
       </c>
@@ -6338,7 +6338,7 @@
         <v>102</v>
       </c>
       <c r="E101" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F101" t="s">
         <v>467</v>
@@ -6347,13 +6347,13 @@
         <v>805</v>
       </c>
       <c r="H101" t="s">
-        <v>1076</v>
+        <v>1094</v>
       </c>
       <c r="I101" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>1902</v>
       </c>
@@ -6364,7 +6364,7 @@
         <v>103</v>
       </c>
       <c r="E102" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F102" t="s">
         <v>468</v>
@@ -6373,13 +6373,13 @@
         <v>755</v>
       </c>
       <c r="H102" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="I102" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1902</v>
       </c>
@@ -6390,7 +6390,7 @@
         <v>104</v>
       </c>
       <c r="E103" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F103" t="s">
         <v>469</v>
@@ -6399,13 +6399,13 @@
         <v>737</v>
       </c>
       <c r="H103" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="I103" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>1902</v>
       </c>
@@ -6416,7 +6416,7 @@
         <v>105</v>
       </c>
       <c r="E104" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F104" t="s">
         <v>470</v>
@@ -6425,13 +6425,13 @@
         <v>741</v>
       </c>
       <c r="H104" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="I104" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>1902</v>
       </c>
@@ -6442,7 +6442,7 @@
         <v>106</v>
       </c>
       <c r="E105" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F105" t="s">
         <v>471</v>
@@ -6451,13 +6451,13 @@
         <v>741</v>
       </c>
       <c r="H105" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="I105" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>1902</v>
       </c>
@@ -6468,7 +6468,7 @@
         <v>107</v>
       </c>
       <c r="E106" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F106" t="s">
         <v>472</v>
@@ -6477,13 +6477,13 @@
         <v>806</v>
       </c>
       <c r="H106" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="I106" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>1902</v>
       </c>
@@ -6494,7 +6494,7 @@
         <v>108</v>
       </c>
       <c r="E107" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F107" t="s">
         <v>473</v>
@@ -6503,13 +6503,13 @@
         <v>737</v>
       </c>
       <c r="H107" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="I107" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>1902</v>
       </c>
@@ -6520,7 +6520,7 @@
         <v>109</v>
       </c>
       <c r="E108" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F108" t="s">
         <v>474</v>
@@ -6529,13 +6529,13 @@
         <v>741</v>
       </c>
       <c r="H108" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="I108" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>1902</v>
       </c>
@@ -6546,7 +6546,7 @@
         <v>110</v>
       </c>
       <c r="E109" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F109" t="s">
         <v>475</v>
@@ -6555,13 +6555,13 @@
         <v>807</v>
       </c>
       <c r="H109" t="s">
-        <v>1064</v>
+        <v>1092</v>
       </c>
       <c r="I109" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>1902</v>
       </c>
@@ -6572,7 +6572,7 @@
         <v>111</v>
       </c>
       <c r="E110" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F110" t="s">
         <v>476</v>
@@ -6581,13 +6581,13 @@
         <v>808</v>
       </c>
       <c r="H110" t="s">
-        <v>1064</v>
+        <v>1092</v>
       </c>
       <c r="I110" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>1902</v>
       </c>
@@ -6598,7 +6598,7 @@
         <v>112</v>
       </c>
       <c r="E111" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F111" t="s">
         <v>477</v>
@@ -6607,13 +6607,13 @@
         <v>809</v>
       </c>
       <c r="H111" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="I111" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>1902</v>
       </c>
@@ -6624,7 +6624,7 @@
         <v>113</v>
       </c>
       <c r="E112" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F112" t="s">
         <v>478</v>
@@ -6633,13 +6633,13 @@
         <v>810</v>
       </c>
       <c r="H112" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="I112" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>1902</v>
       </c>
@@ -6650,7 +6650,7 @@
         <v>114</v>
       </c>
       <c r="E113" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F113" t="s">
         <v>479</v>
@@ -6659,13 +6659,13 @@
         <v>811</v>
       </c>
       <c r="H113" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="I113" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>1902</v>
       </c>
@@ -6676,7 +6676,7 @@
         <v>115</v>
       </c>
       <c r="E114" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F114" t="s">
         <v>480</v>
@@ -6685,13 +6685,13 @@
         <v>755</v>
       </c>
       <c r="H114" t="s">
-        <v>1079</v>
+        <v>1070</v>
       </c>
       <c r="I114" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>1902</v>
       </c>
@@ -6702,7 +6702,7 @@
         <v>116</v>
       </c>
       <c r="E115" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F115" t="s">
         <v>481</v>
@@ -6711,13 +6711,13 @@
         <v>812</v>
       </c>
       <c r="H115" t="s">
-        <v>1079</v>
+        <v>1070</v>
       </c>
       <c r="I115" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>1902</v>
       </c>
@@ -6728,7 +6728,7 @@
         <v>117</v>
       </c>
       <c r="E116" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F116" t="s">
         <v>482</v>
@@ -6737,13 +6737,13 @@
         <v>741</v>
       </c>
       <c r="H116" t="s">
-        <v>1078</v>
+        <v>1069</v>
       </c>
       <c r="I116" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>1902</v>
       </c>
@@ -6754,7 +6754,7 @@
         <v>118</v>
       </c>
       <c r="E117" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F117" t="s">
         <v>483</v>
@@ -6763,13 +6763,13 @@
         <v>741</v>
       </c>
       <c r="H117" t="s">
-        <v>1078</v>
+        <v>1069</v>
       </c>
       <c r="I117" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>1902</v>
       </c>
@@ -6780,7 +6780,7 @@
         <v>119</v>
       </c>
       <c r="E118" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F118" t="s">
         <v>484</v>
@@ -6789,13 +6789,13 @@
         <v>741</v>
       </c>
       <c r="H118" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="I118" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>1902</v>
       </c>
@@ -6806,7 +6806,7 @@
         <v>120</v>
       </c>
       <c r="E119" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F119" t="s">
         <v>485</v>
@@ -6815,13 +6815,13 @@
         <v>813</v>
       </c>
       <c r="H119" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="I119" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>1902</v>
       </c>
@@ -6832,7 +6832,7 @@
         <v>121</v>
       </c>
       <c r="E120" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F120" t="s">
         <v>486</v>
@@ -6841,13 +6841,13 @@
         <v>737</v>
       </c>
       <c r="H120" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="I120" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>1902</v>
       </c>
@@ -6858,7 +6858,7 @@
         <v>122</v>
       </c>
       <c r="E121" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F121" t="s">
         <v>487</v>
@@ -6867,13 +6867,13 @@
         <v>814</v>
       </c>
       <c r="H121" t="s">
-        <v>999</v>
+        <v>1091</v>
       </c>
       <c r="I121" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>1902</v>
       </c>
@@ -6884,7 +6884,7 @@
         <v>123</v>
       </c>
       <c r="E122" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F122" t="s">
         <v>488</v>
@@ -6893,13 +6893,13 @@
         <v>815</v>
       </c>
       <c r="H122" t="s">
-        <v>999</v>
+        <v>1091</v>
       </c>
       <c r="I122" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>1902</v>
       </c>
@@ -6910,7 +6910,7 @@
         <v>124</v>
       </c>
       <c r="E123" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F123" t="s">
         <v>489</v>
@@ -6919,13 +6919,13 @@
         <v>816</v>
       </c>
       <c r="H123" t="s">
-        <v>999</v>
+        <v>1091</v>
       </c>
       <c r="I123" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>1902</v>
       </c>
@@ -6936,7 +6936,7 @@
         <v>125</v>
       </c>
       <c r="E124" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F124" t="s">
         <v>490</v>
@@ -6945,13 +6945,13 @@
         <v>817</v>
       </c>
       <c r="H124" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="I124" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>1902</v>
       </c>
@@ -6962,7 +6962,7 @@
         <v>126</v>
       </c>
       <c r="E125" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F125" t="s">
         <v>491</v>
@@ -6971,13 +6971,13 @@
         <v>818</v>
       </c>
       <c r="H125" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="I125" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>1902</v>
       </c>
@@ -6988,7 +6988,7 @@
         <v>127</v>
       </c>
       <c r="E126" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F126" t="s">
         <v>492</v>
@@ -6997,13 +6997,13 @@
         <v>819</v>
       </c>
       <c r="H126" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="I126" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>1902</v>
       </c>
@@ -7014,7 +7014,7 @@
         <v>128</v>
       </c>
       <c r="E127" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F127" t="s">
         <v>493</v>
@@ -7023,13 +7023,13 @@
         <v>737</v>
       </c>
       <c r="H127" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="I127" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>1902</v>
       </c>
@@ -7040,7 +7040,7 @@
         <v>129</v>
       </c>
       <c r="E128" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F128" t="s">
         <v>494</v>
@@ -7049,13 +7049,13 @@
         <v>820</v>
       </c>
       <c r="H128" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="I128" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>1902</v>
       </c>
@@ -7066,7 +7066,7 @@
         <v>130</v>
       </c>
       <c r="E129" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F129" t="s">
         <v>495</v>
@@ -7075,13 +7075,13 @@
         <v>737</v>
       </c>
       <c r="H129" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="I129" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>1902</v>
       </c>
@@ -7092,7 +7092,7 @@
         <v>131</v>
       </c>
       <c r="E130" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F130" t="s">
         <v>496</v>
@@ -7101,13 +7101,13 @@
         <v>821</v>
       </c>
       <c r="H130" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="I130" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>1902</v>
       </c>
@@ -7118,7 +7118,7 @@
         <v>132</v>
       </c>
       <c r="E131" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F131" t="s">
         <v>497</v>
@@ -7127,13 +7127,13 @@
         <v>822</v>
       </c>
       <c r="H131" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="I131" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>1902</v>
       </c>
@@ -7144,7 +7144,7 @@
         <v>133</v>
       </c>
       <c r="E132" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F132" t="s">
         <v>498</v>
@@ -7153,13 +7153,13 @@
         <v>755</v>
       </c>
       <c r="H132" t="s">
-        <v>1093</v>
+        <v>1083</v>
       </c>
       <c r="I132" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>1902</v>
       </c>
@@ -7170,7 +7170,7 @@
         <v>134</v>
       </c>
       <c r="E133" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F133" t="s">
         <v>499</v>
@@ -7179,13 +7179,13 @@
         <v>823</v>
       </c>
       <c r="H133" t="s">
-        <v>1093</v>
+        <v>1083</v>
       </c>
       <c r="I133" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>1902</v>
       </c>
@@ -7196,7 +7196,7 @@
         <v>135</v>
       </c>
       <c r="E134" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F134" t="s">
         <v>500</v>
@@ -7205,13 +7205,13 @@
         <v>737</v>
       </c>
       <c r="H134" t="s">
-        <v>1091</v>
+        <v>1081</v>
       </c>
       <c r="I134" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>1902</v>
       </c>
@@ -7222,7 +7222,7 @@
         <v>136</v>
       </c>
       <c r="E135" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F135" t="s">
         <v>501</v>
@@ -7231,13 +7231,13 @@
         <v>741</v>
       </c>
       <c r="H135" t="s">
-        <v>1091</v>
+        <v>1081</v>
       </c>
       <c r="I135" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>1902</v>
       </c>
@@ -7248,7 +7248,7 @@
         <v>137</v>
       </c>
       <c r="E136" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F136" t="s">
         <v>502</v>
@@ -7257,13 +7257,13 @@
         <v>824</v>
       </c>
       <c r="H136" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="I136" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>1902</v>
       </c>
@@ -7274,7 +7274,7 @@
         <v>138</v>
       </c>
       <c r="E137" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F137" t="s">
         <v>503</v>
@@ -7283,13 +7283,13 @@
         <v>825</v>
       </c>
       <c r="H137" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="I137" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>1902</v>
       </c>
@@ -7300,7 +7300,7 @@
         <v>139</v>
       </c>
       <c r="E138" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F138" t="s">
         <v>504</v>
@@ -7309,13 +7309,13 @@
         <v>776</v>
       </c>
       <c r="H138" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="I138" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>1902</v>
       </c>
@@ -7326,7 +7326,7 @@
         <v>140</v>
       </c>
       <c r="E139" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F139" t="s">
         <v>505</v>
@@ -7335,13 +7335,13 @@
         <v>826</v>
       </c>
       <c r="H139" t="s">
-        <v>1081</v>
+        <v>1089</v>
       </c>
       <c r="I139" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>1902</v>
       </c>
@@ -7352,7 +7352,7 @@
         <v>141</v>
       </c>
       <c r="E140" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F140" t="s">
         <v>506</v>
@@ -7361,13 +7361,13 @@
         <v>827</v>
       </c>
       <c r="H140" t="s">
-        <v>1081</v>
+        <v>1089</v>
       </c>
       <c r="I140" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>1902</v>
       </c>
@@ -7378,7 +7378,7 @@
         <v>142</v>
       </c>
       <c r="E141" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F141" t="s">
         <v>507</v>
@@ -7387,7 +7387,7 @@
         <v>828</v>
       </c>
       <c r="H141" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="I141" t="s">
         <v>964</v>
@@ -7396,7 +7396,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>1902</v>
       </c>
@@ -7407,7 +7407,7 @@
         <v>143</v>
       </c>
       <c r="E142" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F142" t="s">
         <v>508</v>
@@ -7416,7 +7416,7 @@
         <v>829</v>
       </c>
       <c r="H142" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="I142" t="s">
         <v>964</v>
@@ -7425,7 +7425,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>1902</v>
       </c>
@@ -7436,7 +7436,7 @@
         <v>144</v>
       </c>
       <c r="E143" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F143" t="s">
         <v>509</v>
@@ -7445,13 +7445,13 @@
         <v>737</v>
       </c>
       <c r="H143" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
       <c r="I143" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>1902</v>
       </c>
@@ -7462,7 +7462,7 @@
         <v>145</v>
       </c>
       <c r="E144" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F144" t="s">
         <v>510</v>
@@ -7471,13 +7471,13 @@
         <v>813</v>
       </c>
       <c r="H144" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
       <c r="I144" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>1902</v>
       </c>
@@ -7488,7 +7488,7 @@
         <v>146</v>
       </c>
       <c r="E145" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F145" t="s">
         <v>511</v>
@@ -7497,13 +7497,13 @@
         <v>741</v>
       </c>
       <c r="H145" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
       <c r="I145" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>1902</v>
       </c>
@@ -7514,7 +7514,7 @@
         <v>147</v>
       </c>
       <c r="E146" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F146" t="s">
         <v>512</v>
@@ -7523,13 +7523,13 @@
         <v>830</v>
       </c>
       <c r="H146" t="s">
-        <v>1080</v>
+        <v>1071</v>
       </c>
       <c r="I146" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>1902</v>
       </c>
@@ -7540,7 +7540,7 @@
         <v>148</v>
       </c>
       <c r="E147" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F147" t="s">
         <v>513</v>
@@ -7549,13 +7549,13 @@
         <v>831</v>
       </c>
       <c r="H147" t="s">
-        <v>1080</v>
+        <v>1071</v>
       </c>
       <c r="I147" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>1902</v>
       </c>
@@ -7566,7 +7566,7 @@
         <v>149</v>
       </c>
       <c r="E148" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F148" t="s">
         <v>514</v>
@@ -7575,13 +7575,13 @@
         <v>832</v>
       </c>
       <c r="H148" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="I148" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>1902</v>
       </c>
@@ -7592,7 +7592,7 @@
         <v>150</v>
       </c>
       <c r="E149" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F149" t="s">
         <v>515</v>
@@ -7601,13 +7601,13 @@
         <v>755</v>
       </c>
       <c r="H149" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="I149" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>1902</v>
       </c>
@@ -7618,7 +7618,7 @@
         <v>151</v>
       </c>
       <c r="E150" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F150" t="s">
         <v>516</v>
@@ -7627,13 +7627,13 @@
         <v>833</v>
       </c>
       <c r="H150" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="I150" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>1902</v>
       </c>
@@ -7644,7 +7644,7 @@
         <v>152</v>
       </c>
       <c r="E151" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F151" t="s">
         <v>517</v>
@@ -7653,13 +7653,13 @@
         <v>744</v>
       </c>
       <c r="H151" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="I151" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>1902</v>
       </c>
@@ -7670,7 +7670,7 @@
         <v>153</v>
       </c>
       <c r="E152" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F152" t="s">
         <v>518</v>
@@ -7679,13 +7679,13 @@
         <v>834</v>
       </c>
       <c r="H152" t="s">
-        <v>1080</v>
+        <v>1071</v>
       </c>
       <c r="I152" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>1902</v>
       </c>
@@ -7696,7 +7696,7 @@
         <v>154</v>
       </c>
       <c r="E153" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F153" t="s">
         <v>519</v>
@@ -7705,13 +7705,13 @@
         <v>835</v>
       </c>
       <c r="H153" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="I153" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>1902</v>
       </c>
@@ -7722,7 +7722,7 @@
         <v>155</v>
       </c>
       <c r="E154" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F154" t="s">
         <v>520</v>
@@ -7731,13 +7731,13 @@
         <v>836</v>
       </c>
       <c r="H154" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="I154" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>1902</v>
       </c>
@@ -7748,7 +7748,7 @@
         <v>156</v>
       </c>
       <c r="E155" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F155" t="s">
         <v>513</v>
@@ -7757,31 +7757,31 @@
         <v>837</v>
       </c>
       <c r="H155" t="s">
-        <v>1080</v>
+        <v>1071</v>
       </c>
       <c r="I155" t="s">
         <v>963</v>
       </c>
       <c r="K155" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="L155" t="s">
-        <v>1092</v>
+        <v>1082</v>
       </c>
       <c r="M155" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="N155" t="s">
-        <v>1092</v>
+        <v>1082</v>
       </c>
       <c r="O155" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="P155" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>1902</v>
       </c>
@@ -7792,7 +7792,7 @@
         <v>157</v>
       </c>
       <c r="E156" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F156" t="s">
         <v>521</v>
@@ -7801,13 +7801,13 @@
         <v>838</v>
       </c>
       <c r="H156" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="I156" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>1902</v>
       </c>
@@ -7818,7 +7818,7 @@
         <v>158</v>
       </c>
       <c r="E157" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F157" t="s">
         <v>522</v>
@@ -7827,13 +7827,13 @@
         <v>839</v>
       </c>
       <c r="H157" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="I157" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>1902</v>
       </c>
@@ -7844,7 +7844,7 @@
         <v>159</v>
       </c>
       <c r="E158" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F158" t="s">
         <v>523</v>
@@ -7853,13 +7853,13 @@
         <v>840</v>
       </c>
       <c r="H158" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="I158" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>1902</v>
       </c>
@@ -7870,7 +7870,7 @@
         <v>160</v>
       </c>
       <c r="E159" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F159" t="s">
         <v>524</v>
@@ -7879,13 +7879,13 @@
         <v>841</v>
       </c>
       <c r="H159" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="I159" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>1902</v>
       </c>
@@ -7896,7 +7896,7 @@
         <v>161</v>
       </c>
       <c r="E160" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F160" t="s">
         <v>525</v>
@@ -7905,13 +7905,13 @@
         <v>842</v>
       </c>
       <c r="H160" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="I160" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>1902</v>
       </c>
@@ -7922,7 +7922,7 @@
         <v>162</v>
       </c>
       <c r="E161" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F161" t="s">
         <v>526</v>
@@ -7931,13 +7931,13 @@
         <v>843</v>
       </c>
       <c r="H161" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="I161" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>1902</v>
       </c>
@@ -7948,7 +7948,7 @@
         <v>163</v>
       </c>
       <c r="E162" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F162" t="s">
         <v>527</v>
@@ -7957,13 +7957,13 @@
         <v>844</v>
       </c>
       <c r="H162" t="s">
+        <v>1072</v>
+      </c>
+      <c r="I162" t="s">
         <v>1082</v>
       </c>
-      <c r="I162" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>1902</v>
       </c>
@@ -7974,7 +7974,7 @@
         <v>164</v>
       </c>
       <c r="E163" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F163" t="s">
         <v>528</v>
@@ -7983,13 +7983,13 @@
         <v>845</v>
       </c>
       <c r="H163" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="I163" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>1902</v>
       </c>
@@ -8000,7 +8000,7 @@
         <v>165</v>
       </c>
       <c r="E164" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F164" t="s">
         <v>529</v>
@@ -8009,13 +8009,13 @@
         <v>846</v>
       </c>
       <c r="H164" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="I164" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>1902</v>
       </c>
@@ -8026,7 +8026,7 @@
         <v>166</v>
       </c>
       <c r="E165" t="s">
-        <v>1088</v>
+        <v>1078</v>
       </c>
       <c r="F165" t="s">
         <v>530</v>
@@ -8035,13 +8035,13 @@
         <v>847</v>
       </c>
       <c r="H165" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="I165" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>1902</v>
       </c>
@@ -8052,7 +8052,7 @@
         <v>167</v>
       </c>
       <c r="E166" t="s">
-        <v>1088</v>
+        <v>1078</v>
       </c>
       <c r="F166" t="s">
         <v>531</v>
@@ -8061,13 +8061,13 @@
         <v>848</v>
       </c>
       <c r="H166" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="I166" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>1902</v>
       </c>
@@ -8078,7 +8078,7 @@
         <v>168</v>
       </c>
       <c r="E167" t="s">
-        <v>1088</v>
+        <v>1078</v>
       </c>
       <c r="F167" t="s">
         <v>532</v>
@@ -8087,13 +8087,13 @@
         <v>849</v>
       </c>
       <c r="H167" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="I167" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>1902</v>
       </c>
@@ -8104,7 +8104,7 @@
         <v>169</v>
       </c>
       <c r="E168" t="s">
-        <v>1088</v>
+        <v>1078</v>
       </c>
       <c r="F168" t="s">
         <v>533</v>
@@ -8113,13 +8113,13 @@
         <v>755</v>
       </c>
       <c r="H168" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="I168" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>1902</v>
       </c>
@@ -8130,7 +8130,7 @@
         <v>170</v>
       </c>
       <c r="E169" t="s">
-        <v>1088</v>
+        <v>1078</v>
       </c>
       <c r="F169" t="s">
         <v>534</v>
@@ -8139,13 +8139,13 @@
         <v>850</v>
       </c>
       <c r="H169" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="I169" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>1902</v>
       </c>
@@ -8156,7 +8156,7 @@
         <v>171</v>
       </c>
       <c r="E170" t="s">
-        <v>1088</v>
+        <v>1078</v>
       </c>
       <c r="F170" t="s">
         <v>535</v>
@@ -8165,13 +8165,13 @@
         <v>851</v>
       </c>
       <c r="H170" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
       <c r="I170" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>1902</v>
       </c>
@@ -8182,7 +8182,7 @@
         <v>172</v>
       </c>
       <c r="E171" t="s">
-        <v>1088</v>
+        <v>1078</v>
       </c>
       <c r="F171" t="s">
         <v>536</v>
@@ -8191,13 +8191,13 @@
         <v>852</v>
       </c>
       <c r="H171" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
       <c r="I171" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>1902</v>
       </c>
@@ -8208,7 +8208,7 @@
         <v>173</v>
       </c>
       <c r="E172" t="s">
-        <v>1088</v>
+        <v>1078</v>
       </c>
       <c r="F172" t="s">
         <v>537</v>
@@ -8217,13 +8217,13 @@
         <v>853</v>
       </c>
       <c r="H172" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
       <c r="I172" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>1902</v>
       </c>
@@ -8234,7 +8234,7 @@
         <v>174</v>
       </c>
       <c r="E173" t="s">
-        <v>1088</v>
+        <v>1078</v>
       </c>
       <c r="F173" t="s">
         <v>538</v>
@@ -8243,13 +8243,13 @@
         <v>854</v>
       </c>
       <c r="H173" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
       <c r="I173" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>1902</v>
       </c>
@@ -8260,7 +8260,7 @@
         <v>175</v>
       </c>
       <c r="E174" t="s">
-        <v>1088</v>
+        <v>1078</v>
       </c>
       <c r="F174" t="s">
         <v>539</v>
@@ -8269,13 +8269,13 @@
         <v>855</v>
       </c>
       <c r="H174" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
       <c r="I174" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>1902</v>
       </c>
@@ -8286,7 +8286,7 @@
         <v>176</v>
       </c>
       <c r="E175" t="s">
-        <v>1088</v>
+        <v>1078</v>
       </c>
       <c r="F175" t="s">
         <v>540</v>
@@ -8295,7 +8295,7 @@
         <v>856</v>
       </c>
       <c r="H175" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="I175" t="s">
         <v>964</v>
@@ -8304,7 +8304,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>1902</v>
       </c>
@@ -8315,7 +8315,7 @@
         <v>177</v>
       </c>
       <c r="E176" t="s">
-        <v>1088</v>
+        <v>1078</v>
       </c>
       <c r="F176" t="s">
         <v>541</v>
@@ -8324,7 +8324,7 @@
         <v>857</v>
       </c>
       <c r="H176" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="I176" t="s">
         <v>964</v>
@@ -8333,7 +8333,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>1902</v>
       </c>
@@ -8344,7 +8344,7 @@
         <v>178</v>
       </c>
       <c r="E177" t="s">
-        <v>1088</v>
+        <v>1078</v>
       </c>
       <c r="F177" t="s">
         <v>542</v>
@@ -8353,7 +8353,7 @@
         <v>858</v>
       </c>
       <c r="H177" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="I177" t="s">
         <v>964</v>
@@ -8362,7 +8362,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>1902</v>
       </c>
@@ -8373,7 +8373,7 @@
         <v>179</v>
       </c>
       <c r="E178" t="s">
-        <v>1088</v>
+        <v>1078</v>
       </c>
       <c r="F178" t="s">
         <v>543</v>
@@ -8382,7 +8382,7 @@
         <v>859</v>
       </c>
       <c r="H178" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="I178" t="s">
         <v>964</v>
@@ -8391,7 +8391,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>1902</v>
       </c>
@@ -8402,7 +8402,7 @@
         <v>180</v>
       </c>
       <c r="E179" t="s">
-        <v>1088</v>
+        <v>1078</v>
       </c>
       <c r="F179" t="s">
         <v>544</v>
@@ -8411,7 +8411,7 @@
         <v>860</v>
       </c>
       <c r="H179" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="I179" t="s">
         <v>964</v>
@@ -8420,7 +8420,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>1902</v>
       </c>
@@ -8431,7 +8431,7 @@
         <v>181</v>
       </c>
       <c r="E180" t="s">
-        <v>1088</v>
+        <v>1078</v>
       </c>
       <c r="F180" t="s">
         <v>493</v>
@@ -8440,13 +8440,13 @@
         <v>861</v>
       </c>
       <c r="H180" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="I180" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>1902</v>
       </c>
@@ -8457,7 +8457,7 @@
         <v>182</v>
       </c>
       <c r="E181" t="s">
-        <v>1088</v>
+        <v>1078</v>
       </c>
       <c r="F181" t="s">
         <v>545</v>
@@ -8466,13 +8466,13 @@
         <v>862</v>
       </c>
       <c r="H181" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="I181" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>1902</v>
       </c>
@@ -8483,7 +8483,7 @@
         <v>183</v>
       </c>
       <c r="E182" t="s">
-        <v>1088</v>
+        <v>1078</v>
       </c>
       <c r="F182" t="s">
         <v>546</v>
@@ -8492,13 +8492,13 @@
         <v>863</v>
       </c>
       <c r="H182" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="I182" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>1902</v>
       </c>
@@ -8509,7 +8509,7 @@
         <v>184</v>
       </c>
       <c r="E183" t="s">
-        <v>1088</v>
+        <v>1078</v>
       </c>
       <c r="F183" t="s">
         <v>547</v>
@@ -8518,13 +8518,13 @@
         <v>864</v>
       </c>
       <c r="H183" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="I183" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>1902</v>
       </c>
@@ -8535,7 +8535,7 @@
         <v>185</v>
       </c>
       <c r="E184" t="s">
-        <v>1088</v>
+        <v>1078</v>
       </c>
       <c r="F184" t="s">
         <v>548</v>
@@ -8544,13 +8544,13 @@
         <v>783</v>
       </c>
       <c r="H184" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="I184" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>1902</v>
       </c>
@@ -8561,7 +8561,7 @@
         <v>186</v>
       </c>
       <c r="E185" t="s">
-        <v>1088</v>
+        <v>1078</v>
       </c>
       <c r="F185" t="s">
         <v>549</v>
@@ -8570,13 +8570,13 @@
         <v>865</v>
       </c>
       <c r="H185" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="I185" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>1902</v>
       </c>
@@ -8587,7 +8587,7 @@
         <v>187</v>
       </c>
       <c r="E186" t="s">
-        <v>1088</v>
+        <v>1078</v>
       </c>
       <c r="F186" t="s">
         <v>550</v>
@@ -8596,13 +8596,13 @@
         <v>737</v>
       </c>
       <c r="H186" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="I186" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>1902</v>
       </c>
@@ -8613,7 +8613,7 @@
         <v>188</v>
       </c>
       <c r="E187" t="s">
-        <v>1088</v>
+        <v>1078</v>
       </c>
       <c r="F187" t="s">
         <v>551</v>
@@ -8622,13 +8622,13 @@
         <v>745</v>
       </c>
       <c r="H187" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="I187" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>1902</v>
       </c>
@@ -8639,7 +8639,7 @@
         <v>189</v>
       </c>
       <c r="E188" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F188" t="s">
         <v>552</v>
@@ -8648,13 +8648,13 @@
         <v>866</v>
       </c>
       <c r="H188" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="I188" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>1902</v>
       </c>
@@ -8665,7 +8665,7 @@
         <v>190</v>
       </c>
       <c r="E189" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F189" t="s">
         <v>553</v>
@@ -8674,13 +8674,13 @@
         <v>867</v>
       </c>
       <c r="H189" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="I189" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>1902</v>
       </c>
@@ -8691,7 +8691,7 @@
         <v>191</v>
       </c>
       <c r="E190" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F190" t="s">
         <v>554</v>
@@ -8700,13 +8700,13 @@
         <v>868</v>
       </c>
       <c r="H190" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="I190" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>1902</v>
       </c>
@@ -8717,7 +8717,7 @@
         <v>192</v>
       </c>
       <c r="E191" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F191" t="s">
         <v>555</v>
@@ -8726,13 +8726,13 @@
         <v>869</v>
       </c>
       <c r="H191" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="I191" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>1902</v>
       </c>
@@ -8743,7 +8743,7 @@
         <v>193</v>
       </c>
       <c r="E192" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F192" t="s">
         <v>556</v>
@@ -8752,13 +8752,13 @@
         <v>870</v>
       </c>
       <c r="H192" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="I192" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>1902</v>
       </c>
@@ -8769,7 +8769,7 @@
         <v>194</v>
       </c>
       <c r="E193" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F193" t="s">
         <v>557</v>
@@ -8778,13 +8778,13 @@
         <v>871</v>
       </c>
       <c r="H193" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="I193" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>1902</v>
       </c>
@@ -8795,7 +8795,7 @@
         <v>195</v>
       </c>
       <c r="E194" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F194" t="s">
         <v>558</v>
@@ -8804,13 +8804,13 @@
         <v>872</v>
       </c>
       <c r="H194" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="I194" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>1902</v>
       </c>
@@ -8821,7 +8821,7 @@
         <v>196</v>
       </c>
       <c r="E195" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F195" t="s">
         <v>559</v>
@@ -8830,13 +8830,13 @@
         <v>737</v>
       </c>
       <c r="H195" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="I195" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>1902</v>
       </c>
@@ -8847,7 +8847,7 @@
         <v>197</v>
       </c>
       <c r="E196" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F196" t="s">
         <v>560</v>
@@ -8856,13 +8856,13 @@
         <v>755</v>
       </c>
       <c r="H196" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="I196" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>1902</v>
       </c>
@@ -8873,7 +8873,7 @@
         <v>198</v>
       </c>
       <c r="E197" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F197" t="s">
         <v>561</v>
@@ -8882,13 +8882,13 @@
         <v>873</v>
       </c>
       <c r="H197" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="I197" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>1902</v>
       </c>
@@ -8899,7 +8899,7 @@
         <v>199</v>
       </c>
       <c r="E198" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F198" t="s">
         <v>562</v>
@@ -8908,13 +8908,13 @@
         <v>874</v>
       </c>
       <c r="H198" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="I198" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>1902</v>
       </c>
@@ -8925,7 +8925,7 @@
         <v>200</v>
       </c>
       <c r="E199" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F199" t="s">
         <v>563</v>
@@ -8934,13 +8934,13 @@
         <v>875</v>
       </c>
       <c r="H199" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="I199" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>1902</v>
       </c>
@@ -8951,7 +8951,7 @@
         <v>201</v>
       </c>
       <c r="E200" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F200" t="s">
         <v>564</v>
@@ -8960,13 +8960,13 @@
         <v>876</v>
       </c>
       <c r="H200" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="I200" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>1902</v>
       </c>
@@ -8977,7 +8977,7 @@
         <v>202</v>
       </c>
       <c r="E201" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F201" t="s">
         <v>565</v>
@@ -8986,13 +8986,13 @@
         <v>877</v>
       </c>
       <c r="H201" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="I201" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>1902</v>
       </c>
@@ -9003,7 +9003,7 @@
         <v>203</v>
       </c>
       <c r="E202" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F202" t="s">
         <v>566</v>
@@ -9012,13 +9012,13 @@
         <v>878</v>
       </c>
       <c r="H202" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="I202" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>1902</v>
       </c>
@@ -9029,7 +9029,7 @@
         <v>204</v>
       </c>
       <c r="E203" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F203" t="s">
         <v>567</v>
@@ -9038,13 +9038,13 @@
         <v>879</v>
       </c>
       <c r="H203" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="I203" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>1902</v>
       </c>
@@ -9055,7 +9055,7 @@
         <v>205</v>
       </c>
       <c r="E204" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F204" t="s">
         <v>568</v>
@@ -9064,13 +9064,13 @@
         <v>880</v>
       </c>
       <c r="H204" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="I204" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>1902</v>
       </c>
@@ -9081,7 +9081,7 @@
         <v>206</v>
       </c>
       <c r="E205" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F205" t="s">
         <v>569</v>
@@ -9090,13 +9090,13 @@
         <v>881</v>
       </c>
       <c r="H205" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="I205" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>1902</v>
       </c>
@@ -9107,7 +9107,7 @@
         <v>207</v>
       </c>
       <c r="E206" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F206" t="s">
         <v>570</v>
@@ -9116,13 +9116,13 @@
         <v>741</v>
       </c>
       <c r="H206" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="I206" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>1902</v>
       </c>
@@ -9133,7 +9133,7 @@
         <v>208</v>
       </c>
       <c r="E207" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F207" t="s">
         <v>571</v>
@@ -9142,13 +9142,13 @@
         <v>745</v>
       </c>
       <c r="H207" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="I207" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>1902</v>
       </c>
@@ -9159,7 +9159,7 @@
         <v>209</v>
       </c>
       <c r="E208" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F208" t="s">
         <v>572</v>
@@ -9168,13 +9168,13 @@
         <v>737</v>
       </c>
       <c r="H208" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="I208" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>1902</v>
       </c>
@@ -9185,7 +9185,7 @@
         <v>210</v>
       </c>
       <c r="E209" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F209" t="s">
         <v>573</v>
@@ -9200,7 +9200,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>1902</v>
       </c>
@@ -9211,7 +9211,7 @@
         <v>211</v>
       </c>
       <c r="E210" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F210" t="s">
         <v>574</v>
@@ -9226,7 +9226,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>1902</v>
       </c>
@@ -9237,7 +9237,7 @@
         <v>212</v>
       </c>
       <c r="E211" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F211" t="s">
         <v>575</v>
@@ -9246,13 +9246,13 @@
         <v>737</v>
       </c>
       <c r="H211" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="I211" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>1902</v>
       </c>
@@ -9263,7 +9263,7 @@
         <v>213</v>
       </c>
       <c r="E212" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F212" t="s">
         <v>576</v>
@@ -9272,13 +9272,13 @@
         <v>737</v>
       </c>
       <c r="H212" t="s">
-        <v>1083</v>
+        <v>1073</v>
       </c>
       <c r="I212" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>1902</v>
       </c>
@@ -9289,7 +9289,7 @@
         <v>214</v>
       </c>
       <c r="E213" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F213" t="s">
         <v>577</v>
@@ -9298,13 +9298,13 @@
         <v>882</v>
       </c>
       <c r="H213" t="s">
-        <v>1074</v>
+        <v>1066</v>
       </c>
       <c r="I213" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>1902</v>
       </c>
@@ -9315,7 +9315,7 @@
         <v>215</v>
       </c>
       <c r="E214" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F214" t="s">
         <v>578</v>
@@ -9324,13 +9324,13 @@
         <v>737</v>
       </c>
       <c r="H214" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="I214" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>1902</v>
       </c>
@@ -9341,7 +9341,7 @@
         <v>216</v>
       </c>
       <c r="E215" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F215" t="s">
         <v>579</v>
@@ -9350,13 +9350,13 @@
         <v>737</v>
       </c>
       <c r="H215" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="I215" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>1902</v>
       </c>
@@ -9367,7 +9367,7 @@
         <v>217</v>
       </c>
       <c r="E216" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F216" t="s">
         <v>580</v>
@@ -9376,13 +9376,13 @@
         <v>883</v>
       </c>
       <c r="H216" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="I216" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>1902</v>
       </c>
@@ -9393,7 +9393,7 @@
         <v>218</v>
       </c>
       <c r="E217" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F217" t="s">
         <v>581</v>
@@ -9402,13 +9402,13 @@
         <v>737</v>
       </c>
       <c r="H217" t="s">
-        <v>1074</v>
+        <v>1066</v>
       </c>
       <c r="I217" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>1902</v>
       </c>
@@ -9419,7 +9419,7 @@
         <v>219</v>
       </c>
       <c r="E218" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F218" t="s">
         <v>582</v>
@@ -9428,13 +9428,13 @@
         <v>741</v>
       </c>
       <c r="H218" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="I218" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>1902</v>
       </c>
@@ -9445,7 +9445,7 @@
         <v>220</v>
       </c>
       <c r="E219" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F219" t="s">
         <v>583</v>
@@ -9454,13 +9454,13 @@
         <v>741</v>
       </c>
       <c r="H219" t="s">
-        <v>1083</v>
+        <v>1073</v>
       </c>
       <c r="I219" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>1902</v>
       </c>
@@ -9471,7 +9471,7 @@
         <v>221</v>
       </c>
       <c r="E220" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F220" t="s">
         <v>584</v>
@@ -9480,13 +9480,13 @@
         <v>884</v>
       </c>
       <c r="H220" t="s">
-        <v>1074</v>
+        <v>1066</v>
       </c>
       <c r="I220" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>1902</v>
       </c>
@@ -9497,7 +9497,7 @@
         <v>222</v>
       </c>
       <c r="E221" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F221" t="s">
         <v>585</v>
@@ -9506,13 +9506,13 @@
         <v>885</v>
       </c>
       <c r="H221" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="I221" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>1902</v>
       </c>
@@ -9523,7 +9523,7 @@
         <v>223</v>
       </c>
       <c r="E222" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F222" t="s">
         <v>586</v>
@@ -9532,13 +9532,13 @@
         <v>737</v>
       </c>
       <c r="H222" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="I222" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>1902</v>
       </c>
@@ -9549,7 +9549,7 @@
         <v>224</v>
       </c>
       <c r="E223" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F223" t="s">
         <v>587</v>
@@ -9558,13 +9558,13 @@
         <v>744</v>
       </c>
       <c r="H223" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="I223" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>1902</v>
       </c>
@@ -9575,7 +9575,7 @@
         <v>225</v>
       </c>
       <c r="E224" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F224" t="s">
         <v>588</v>
@@ -9584,13 +9584,13 @@
         <v>744</v>
       </c>
       <c r="H224" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="I224" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>1902</v>
       </c>
@@ -9601,7 +9601,7 @@
         <v>226</v>
       </c>
       <c r="E225" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F225" t="s">
         <v>589</v>
@@ -9610,13 +9610,13 @@
         <v>886</v>
       </c>
       <c r="H225" t="s">
-        <v>1074</v>
+        <v>1066</v>
       </c>
       <c r="I225" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>1902</v>
       </c>
@@ -9627,7 +9627,7 @@
         <v>227</v>
       </c>
       <c r="E226" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F226" t="s">
         <v>590</v>
@@ -9636,13 +9636,13 @@
         <v>887</v>
       </c>
       <c r="H226" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="I226" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>1902</v>
       </c>
@@ -9653,7 +9653,7 @@
         <v>228</v>
       </c>
       <c r="E227" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F227" t="s">
         <v>591</v>
@@ -9662,13 +9662,13 @@
         <v>888</v>
       </c>
       <c r="H227" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="I227" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>1902</v>
       </c>
@@ -9679,7 +9679,7 @@
         <v>229</v>
       </c>
       <c r="E228" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F228" t="s">
         <v>592</v>
@@ -9688,13 +9688,13 @@
         <v>741</v>
       </c>
       <c r="H228" t="s">
-        <v>1074</v>
+        <v>1066</v>
       </c>
       <c r="I228" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>1902</v>
       </c>
@@ -9705,7 +9705,7 @@
         <v>230</v>
       </c>
       <c r="E229" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F229" t="s">
         <v>593</v>
@@ -9714,7 +9714,7 @@
         <v>869</v>
       </c>
       <c r="H229" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="I229" t="s">
         <v>964</v>
@@ -9723,7 +9723,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>1902</v>
       </c>
@@ -9734,7 +9734,7 @@
         <v>231</v>
       </c>
       <c r="E230" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F230" t="s">
         <v>594</v>
@@ -9743,7 +9743,7 @@
         <v>889</v>
       </c>
       <c r="H230" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="I230" t="s">
         <v>964</v>
@@ -9752,7 +9752,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>1902</v>
       </c>
@@ -9763,7 +9763,7 @@
         <v>232</v>
       </c>
       <c r="E231" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F231" t="s">
         <v>595</v>
@@ -9772,13 +9772,13 @@
         <v>755</v>
       </c>
       <c r="H231" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="I231" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>1902</v>
       </c>
@@ -9789,7 +9789,7 @@
         <v>233</v>
       </c>
       <c r="E232" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F232" t="s">
         <v>596</v>
@@ -9798,13 +9798,13 @@
         <v>738</v>
       </c>
       <c r="H232" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="I232" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>1902</v>
       </c>
@@ -9815,7 +9815,7 @@
         <v>234</v>
       </c>
       <c r="E233" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F233" t="s">
         <v>597</v>
@@ -9824,13 +9824,13 @@
         <v>890</v>
       </c>
       <c r="H233" t="s">
-        <v>1030</v>
+        <v>1087</v>
       </c>
       <c r="I233" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>1902</v>
       </c>
@@ -9841,7 +9841,7 @@
         <v>235</v>
       </c>
       <c r="E234" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F234" t="s">
         <v>598</v>
@@ -9850,13 +9850,13 @@
         <v>891</v>
       </c>
       <c r="H234" t="s">
-        <v>1030</v>
+        <v>1087</v>
       </c>
       <c r="I234" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>1902</v>
       </c>
@@ -9867,7 +9867,7 @@
         <v>236</v>
       </c>
       <c r="E235" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F235" t="s">
         <v>599</v>
@@ -9876,13 +9876,13 @@
         <v>741</v>
       </c>
       <c r="H235" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="I235" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>1902</v>
       </c>
@@ -9893,7 +9893,7 @@
         <v>237</v>
       </c>
       <c r="E236" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F236" t="s">
         <v>600</v>
@@ -9902,13 +9902,13 @@
         <v>741</v>
       </c>
       <c r="H236" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="I236" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>1902</v>
       </c>
@@ -9919,7 +9919,7 @@
         <v>238</v>
       </c>
       <c r="E237" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F237" t="s">
         <v>601</v>
@@ -9928,7 +9928,7 @@
         <v>892</v>
       </c>
       <c r="H237" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="I237" t="s">
         <v>964</v>
@@ -9937,7 +9937,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>1902</v>
       </c>
@@ -9948,7 +9948,7 @@
         <v>239</v>
       </c>
       <c r="E238" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F238" t="s">
         <v>602</v>
@@ -9957,7 +9957,7 @@
         <v>893</v>
       </c>
       <c r="H238" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="I238" t="s">
         <v>964</v>
@@ -9966,7 +9966,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>1902</v>
       </c>
@@ -9977,7 +9977,7 @@
         <v>240</v>
       </c>
       <c r="E239" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F239" t="s">
         <v>603</v>
@@ -9986,7 +9986,7 @@
         <v>894</v>
       </c>
       <c r="H239" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="I239" t="s">
         <v>964</v>
@@ -9995,7 +9995,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>1902</v>
       </c>
@@ -10006,7 +10006,7 @@
         <v>241</v>
       </c>
       <c r="E240" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F240" t="s">
         <v>604</v>
@@ -10015,13 +10015,13 @@
         <v>778</v>
       </c>
       <c r="H240" t="s">
-        <v>1030</v>
+        <v>1087</v>
       </c>
       <c r="I240" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>1902</v>
       </c>
@@ -10032,7 +10032,7 @@
         <v>242</v>
       </c>
       <c r="E241" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F241" t="s">
         <v>605</v>
@@ -10041,13 +10041,13 @@
         <v>895</v>
       </c>
       <c r="H241" t="s">
-        <v>1030</v>
+        <v>1087</v>
       </c>
       <c r="I241" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>1902</v>
       </c>
@@ -10058,7 +10058,7 @@
         <v>243</v>
       </c>
       <c r="E242" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F242" t="s">
         <v>606</v>
@@ -10067,13 +10067,13 @@
         <v>896</v>
       </c>
       <c r="H242" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="I242" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>1902</v>
       </c>
@@ -10084,7 +10084,7 @@
         <v>244</v>
       </c>
       <c r="E243" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F243" t="s">
         <v>607</v>
@@ -10093,13 +10093,13 @@
         <v>897</v>
       </c>
       <c r="H243" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="I243" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>1902</v>
       </c>
@@ -10113,7 +10113,7 @@
         <v>245</v>
       </c>
       <c r="E244" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F244" t="s">
         <v>608</v>
@@ -10122,13 +10122,13 @@
         <v>898</v>
       </c>
       <c r="H244" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="I244" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>1902</v>
       </c>
@@ -10142,7 +10142,7 @@
         <v>246</v>
       </c>
       <c r="E245" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F245" t="s">
         <v>609</v>
@@ -10151,13 +10151,13 @@
         <v>899</v>
       </c>
       <c r="H245" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="I245" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>1902</v>
       </c>
@@ -10168,7 +10168,7 @@
         <v>247</v>
       </c>
       <c r="E246" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F246" t="s">
         <v>610</v>
@@ -10177,13 +10177,13 @@
         <v>900</v>
       </c>
       <c r="H246" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="I246" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>1902</v>
       </c>
@@ -10194,7 +10194,7 @@
         <v>248</v>
       </c>
       <c r="E247" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F247" t="s">
         <v>611</v>
@@ -10203,13 +10203,13 @@
         <v>901</v>
       </c>
       <c r="H247" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="I247" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>1902</v>
       </c>
@@ -10220,7 +10220,7 @@
         <v>249</v>
       </c>
       <c r="E248" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F248" t="s">
         <v>612</v>
@@ -10229,13 +10229,13 @@
         <v>902</v>
       </c>
       <c r="H248" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="I248" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>1902</v>
       </c>
@@ -10246,7 +10246,7 @@
         <v>250</v>
       </c>
       <c r="E249" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F249" t="s">
         <v>613</v>
@@ -10255,13 +10255,13 @@
         <v>903</v>
       </c>
       <c r="H249" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="I249" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>1902</v>
       </c>
@@ -10272,7 +10272,7 @@
         <v>251</v>
       </c>
       <c r="E250" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F250" t="s">
         <v>614</v>
@@ -10281,13 +10281,13 @@
         <v>904</v>
       </c>
       <c r="H250" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="I250" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>1902</v>
       </c>
@@ -10298,7 +10298,7 @@
         <v>252</v>
       </c>
       <c r="E251" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F251" t="s">
         <v>615</v>
@@ -10307,13 +10307,13 @@
         <v>905</v>
       </c>
       <c r="H251" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="I251" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>1902</v>
       </c>
@@ -10324,7 +10324,7 @@
         <v>253</v>
       </c>
       <c r="E252" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F252" t="s">
         <v>616</v>
@@ -10333,13 +10333,13 @@
         <v>906</v>
       </c>
       <c r="H252" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="I252" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>1902</v>
       </c>
@@ -10350,7 +10350,7 @@
         <v>254</v>
       </c>
       <c r="E253" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F253" t="s">
         <v>617</v>
@@ -10359,13 +10359,13 @@
         <v>907</v>
       </c>
       <c r="H253" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="I253" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>1902</v>
       </c>
@@ -10376,7 +10376,7 @@
         <v>255</v>
       </c>
       <c r="E254" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F254" t="s">
         <v>618</v>
@@ -10385,13 +10385,13 @@
         <v>908</v>
       </c>
       <c r="H254" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="I254" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>1902</v>
       </c>
@@ -10402,7 +10402,7 @@
         <v>256</v>
       </c>
       <c r="E255" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F255" t="s">
         <v>619</v>
@@ -10411,13 +10411,13 @@
         <v>737</v>
       </c>
       <c r="H255" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="I255" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>1902</v>
       </c>
@@ -10428,7 +10428,7 @@
         <v>257</v>
       </c>
       <c r="E256" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F256" t="s">
         <v>620</v>
@@ -10437,13 +10437,13 @@
         <v>737</v>
       </c>
       <c r="H256" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="I256" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>1902</v>
       </c>
@@ -10454,7 +10454,7 @@
         <v>258</v>
       </c>
       <c r="E257" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F257" t="s">
         <v>621</v>
@@ -10463,13 +10463,13 @@
         <v>909</v>
       </c>
       <c r="H257" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="I257" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>1902</v>
       </c>
@@ -10480,7 +10480,7 @@
         <v>259</v>
       </c>
       <c r="E258" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F258" t="s">
         <v>622</v>
@@ -10489,13 +10489,13 @@
         <v>737</v>
       </c>
       <c r="H258" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="I258" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>1902</v>
       </c>
@@ -10506,7 +10506,7 @@
         <v>260</v>
       </c>
       <c r="E259" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F259" t="s">
         <v>623</v>
@@ -10515,13 +10515,13 @@
         <v>748</v>
       </c>
       <c r="H259" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="I259" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>1902</v>
       </c>
@@ -10532,7 +10532,7 @@
         <v>261</v>
       </c>
       <c r="E260" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F260" t="s">
         <v>624</v>
@@ -10541,13 +10541,13 @@
         <v>910</v>
       </c>
       <c r="H260" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="I260" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>1902</v>
       </c>
@@ -10558,7 +10558,7 @@
         <v>262</v>
       </c>
       <c r="E261" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F261" t="s">
         <v>625</v>
@@ -10567,13 +10567,13 @@
         <v>747</v>
       </c>
       <c r="H261" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="I261" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>1902</v>
       </c>
@@ -10584,7 +10584,7 @@
         <v>263</v>
       </c>
       <c r="E262" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F262" t="s">
         <v>626</v>
@@ -10593,13 +10593,13 @@
         <v>911</v>
       </c>
       <c r="H262" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="I262" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>1902</v>
       </c>
@@ -10610,7 +10610,7 @@
         <v>264</v>
       </c>
       <c r="E263" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F263" t="s">
         <v>627</v>
@@ -10619,13 +10619,13 @@
         <v>776</v>
       </c>
       <c r="H263" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="I263" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>1902</v>
       </c>
@@ -10636,7 +10636,7 @@
         <v>265</v>
       </c>
       <c r="E264" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F264" t="s">
         <v>628</v>
@@ -10645,13 +10645,13 @@
         <v>912</v>
       </c>
       <c r="H264" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="I264" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>1902</v>
       </c>
@@ -10662,7 +10662,7 @@
         <v>266</v>
       </c>
       <c r="E265" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F265" t="s">
         <v>629</v>
@@ -10671,13 +10671,13 @@
         <v>744</v>
       </c>
       <c r="H265" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="I265" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>1902</v>
       </c>
@@ -10688,7 +10688,7 @@
         <v>267</v>
       </c>
       <c r="E266" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F266" t="s">
         <v>630</v>
@@ -10697,13 +10697,13 @@
         <v>913</v>
       </c>
       <c r="H266" t="s">
-        <v>1094</v>
+        <v>1084</v>
       </c>
       <c r="I266" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>1902</v>
       </c>
@@ -10714,7 +10714,7 @@
         <v>268</v>
       </c>
       <c r="E267" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F267" t="s">
         <v>631</v>
@@ -10723,13 +10723,13 @@
         <v>914</v>
       </c>
       <c r="H267" t="s">
-        <v>1094</v>
+        <v>1084</v>
       </c>
       <c r="I267" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>1902</v>
       </c>
@@ -10740,7 +10740,7 @@
         <v>269</v>
       </c>
       <c r="E268" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F268" t="s">
         <v>632</v>
@@ -10749,13 +10749,13 @@
         <v>915</v>
       </c>
       <c r="H268" t="s">
-        <v>1094</v>
+        <v>1084</v>
       </c>
       <c r="I268" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>1902</v>
       </c>
@@ -10766,7 +10766,7 @@
         <v>270</v>
       </c>
       <c r="E269" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F269" t="s">
         <v>633</v>
@@ -10775,13 +10775,13 @@
         <v>916</v>
       </c>
       <c r="H269" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="I269" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>1902</v>
       </c>
@@ -10792,7 +10792,7 @@
         <v>271</v>
       </c>
       <c r="E270" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F270" t="s">
         <v>634</v>
@@ -10801,13 +10801,13 @@
         <v>917</v>
       </c>
       <c r="H270" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="I270" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>1902</v>
       </c>
@@ -10818,7 +10818,7 @@
         <v>272</v>
       </c>
       <c r="E271" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F271" t="s">
         <v>635</v>
@@ -10827,13 +10827,13 @@
         <v>755</v>
       </c>
       <c r="H271" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="I271" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>1902</v>
       </c>
@@ -10844,7 +10844,7 @@
         <v>273</v>
       </c>
       <c r="E272" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F272" t="s">
         <v>636</v>
@@ -10853,13 +10853,13 @@
         <v>918</v>
       </c>
       <c r="H272" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="I272" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>1902</v>
       </c>
@@ -10870,7 +10870,7 @@
         <v>274</v>
       </c>
       <c r="E273" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F273" t="s">
         <v>637</v>
@@ -10879,13 +10879,13 @@
         <v>919</v>
       </c>
       <c r="H273" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="I273" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>1902</v>
       </c>
@@ -10896,7 +10896,7 @@
         <v>275</v>
       </c>
       <c r="E274" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F274" t="s">
         <v>638</v>
@@ -10905,13 +10905,13 @@
         <v>920</v>
       </c>
       <c r="H274" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="I274" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>1902</v>
       </c>
@@ -10922,7 +10922,7 @@
         <v>276</v>
       </c>
       <c r="E275" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F275" t="s">
         <v>639</v>
@@ -10931,13 +10931,13 @@
         <v>921</v>
       </c>
       <c r="H275" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="I275" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>1902</v>
       </c>
@@ -10948,7 +10948,7 @@
         <v>277</v>
       </c>
       <c r="E276" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F276" t="s">
         <v>640</v>
@@ -10957,13 +10957,13 @@
         <v>922</v>
       </c>
       <c r="H276" t="s">
-        <v>1094</v>
+        <v>1084</v>
       </c>
       <c r="I276" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>1902</v>
       </c>
@@ -10974,7 +10974,7 @@
         <v>278</v>
       </c>
       <c r="E277" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F277" t="s">
         <v>641</v>
@@ -10983,13 +10983,13 @@
         <v>923</v>
       </c>
       <c r="H277" t="s">
-        <v>1094</v>
+        <v>1084</v>
       </c>
       <c r="I277" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>1902</v>
       </c>
@@ -11000,7 +11000,7 @@
         <v>279</v>
       </c>
       <c r="E278" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F278" t="s">
         <v>642</v>
@@ -11009,13 +11009,13 @@
         <v>924</v>
       </c>
       <c r="H278" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="I278" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>1902</v>
       </c>
@@ -11026,7 +11026,7 @@
         <v>280</v>
       </c>
       <c r="E279" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F279" t="s">
         <v>643</v>
@@ -11035,13 +11035,13 @@
         <v>896</v>
       </c>
       <c r="H279" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="I279" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>1902</v>
       </c>
@@ -11052,7 +11052,7 @@
         <v>281</v>
       </c>
       <c r="E280" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F280" t="s">
         <v>644</v>
@@ -11061,13 +11061,13 @@
         <v>925</v>
       </c>
       <c r="H280" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="I280" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>1902</v>
       </c>
@@ -11078,7 +11078,7 @@
         <v>282</v>
       </c>
       <c r="E281" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F281" t="s">
         <v>645</v>
@@ -11087,13 +11087,13 @@
         <v>737</v>
       </c>
       <c r="H281" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="I281" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>1902</v>
       </c>
@@ -11104,7 +11104,7 @@
         <v>283</v>
       </c>
       <c r="E282" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F282" t="s">
         <v>646</v>
@@ -11113,13 +11113,13 @@
         <v>737</v>
       </c>
       <c r="H282" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="I282" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>1902</v>
       </c>
@@ -11130,7 +11130,7 @@
         <v>284</v>
       </c>
       <c r="E283" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F283" t="s">
         <v>647</v>
@@ -11139,13 +11139,13 @@
         <v>741</v>
       </c>
       <c r="H283" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="I283" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>1902</v>
       </c>
@@ -11156,7 +11156,7 @@
         <v>285</v>
       </c>
       <c r="E284" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F284" t="s">
         <v>648</v>
@@ -11165,13 +11165,13 @@
         <v>744</v>
       </c>
       <c r="H284" t="s">
-        <v>1073</v>
+        <v>1065</v>
       </c>
       <c r="I284" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>1902</v>
       </c>
@@ -11182,7 +11182,7 @@
         <v>286</v>
       </c>
       <c r="E285" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F285" t="s">
         <v>649</v>
@@ -11191,13 +11191,13 @@
         <v>818</v>
       </c>
       <c r="H285" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="I285" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>1902</v>
       </c>
@@ -11208,7 +11208,7 @@
         <v>287</v>
       </c>
       <c r="E286" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F286" t="s">
         <v>650</v>
@@ -11217,13 +11217,13 @@
         <v>755</v>
       </c>
       <c r="H286" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="I286" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>1902</v>
       </c>
@@ -11234,7 +11234,7 @@
         <v>288</v>
       </c>
       <c r="E287" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F287" t="s">
         <v>651</v>
@@ -11243,13 +11243,13 @@
         <v>741</v>
       </c>
       <c r="H287" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="I287" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>1902</v>
       </c>
@@ -11260,7 +11260,7 @@
         <v>289</v>
       </c>
       <c r="E288" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="F288" t="s">
         <v>652</v>
@@ -11269,13 +11269,13 @@
         <v>926</v>
       </c>
       <c r="H288" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="I288" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>1902</v>
       </c>
@@ -11286,7 +11286,7 @@
         <v>290</v>
       </c>
       <c r="E289" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="F289" t="s">
         <v>653</v>
@@ -11295,13 +11295,13 @@
         <v>927</v>
       </c>
       <c r="H289" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="I289" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>1902</v>
       </c>
@@ -11312,7 +11312,7 @@
         <v>291</v>
       </c>
       <c r="E290" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="F290" t="s">
         <v>654</v>
@@ -11321,13 +11321,13 @@
         <v>928</v>
       </c>
       <c r="H290" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="I290" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>1902</v>
       </c>
@@ -11338,7 +11338,7 @@
         <v>292</v>
       </c>
       <c r="E291" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="F291" t="s">
         <v>655</v>
@@ -11347,13 +11347,13 @@
         <v>929</v>
       </c>
       <c r="H291" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="I291" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>1902</v>
       </c>
@@ -11364,7 +11364,7 @@
         <v>293</v>
       </c>
       <c r="E292" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="F292" t="s">
         <v>656</v>
@@ -11373,13 +11373,13 @@
         <v>745</v>
       </c>
       <c r="H292" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="I292" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>1902</v>
       </c>
@@ -11390,7 +11390,7 @@
         <v>294</v>
       </c>
       <c r="E293" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="F293" t="s">
         <v>657</v>
@@ -11399,13 +11399,13 @@
         <v>730</v>
       </c>
       <c r="H293" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="I293" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>1902</v>
       </c>
@@ -11416,7 +11416,7 @@
         <v>295</v>
       </c>
       <c r="E294" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="F294" t="s">
         <v>658</v>
@@ -11425,13 +11425,13 @@
         <v>737</v>
       </c>
       <c r="H294" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="I294" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>1902</v>
       </c>
@@ -11442,7 +11442,7 @@
         <v>296</v>
       </c>
       <c r="E295" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="F295" t="s">
         <v>659</v>
@@ -11451,13 +11451,13 @@
         <v>730</v>
       </c>
       <c r="H295" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="I295" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>1902</v>
       </c>
@@ -11468,7 +11468,7 @@
         <v>297</v>
       </c>
       <c r="E296" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="F296" t="s">
         <v>660</v>
@@ -11477,13 +11477,13 @@
         <v>737</v>
       </c>
       <c r="H296" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="I296" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>1902</v>
       </c>
@@ -11494,7 +11494,7 @@
         <v>298</v>
       </c>
       <c r="E297" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="F297" t="s">
         <v>661</v>
@@ -11503,13 +11503,13 @@
         <v>737</v>
       </c>
       <c r="H297" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="I297" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>1902</v>
       </c>
@@ -11520,7 +11520,7 @@
         <v>299</v>
       </c>
       <c r="E298" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="F298" t="s">
         <v>662</v>
@@ -11529,13 +11529,13 @@
         <v>737</v>
       </c>
       <c r="H298" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="I298" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>1902</v>
       </c>
@@ -11546,7 +11546,7 @@
         <v>300</v>
       </c>
       <c r="E299" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="F299" t="s">
         <v>663</v>
@@ -11555,13 +11555,13 @@
         <v>930</v>
       </c>
       <c r="H299" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="I299" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>1902</v>
       </c>
@@ -11575,7 +11575,7 @@
         <v>301</v>
       </c>
       <c r="E300" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="F300" t="s">
         <v>664</v>
@@ -11584,13 +11584,13 @@
         <v>931</v>
       </c>
       <c r="H300" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="I300" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>1902</v>
       </c>
@@ -11604,7 +11604,7 @@
         <v>302</v>
       </c>
       <c r="E301" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="F301" t="s">
         <v>665</v>
@@ -11613,13 +11613,13 @@
         <v>932</v>
       </c>
       <c r="H301" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="I301" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>1902</v>
       </c>
@@ -11633,7 +11633,7 @@
         <v>303</v>
       </c>
       <c r="E302" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="F302" t="s">
         <v>666</v>
@@ -11642,13 +11642,13 @@
         <v>933</v>
       </c>
       <c r="H302" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="I302" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>1902</v>
       </c>
@@ -11659,7 +11659,7 @@
         <v>304</v>
       </c>
       <c r="E303" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="F303" t="s">
         <v>667</v>
@@ -11668,13 +11668,13 @@
         <v>934</v>
       </c>
       <c r="H303" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="I303" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>1902</v>
       </c>
@@ -11685,7 +11685,7 @@
         <v>305</v>
       </c>
       <c r="E304" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="F304" t="s">
         <v>668</v>
@@ -11694,13 +11694,13 @@
         <v>737</v>
       </c>
       <c r="H304" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="I304" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>1902</v>
       </c>
@@ -11711,7 +11711,7 @@
         <v>306</v>
       </c>
       <c r="E305" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="F305" t="s">
         <v>669</v>
@@ -11720,13 +11720,13 @@
         <v>935</v>
       </c>
       <c r="H305" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="I305" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>1902</v>
       </c>
@@ -11737,7 +11737,7 @@
         <v>307</v>
       </c>
       <c r="E306" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="F306" t="s">
         <v>670</v>
@@ -11746,13 +11746,13 @@
         <v>783</v>
       </c>
       <c r="H306" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="I306" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>1902</v>
       </c>
@@ -11763,7 +11763,7 @@
         <v>308</v>
       </c>
       <c r="E307" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="F307" t="s">
         <v>671</v>
@@ -11772,13 +11772,13 @@
         <v>737</v>
       </c>
       <c r="H307" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="I307" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>1902</v>
       </c>
@@ -11789,7 +11789,7 @@
         <v>309</v>
       </c>
       <c r="E308" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="F308" t="s">
         <v>672</v>
@@ -11798,13 +11798,13 @@
         <v>741</v>
       </c>
       <c r="H308" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="I308" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>1902</v>
       </c>
@@ -11815,7 +11815,7 @@
         <v>310</v>
       </c>
       <c r="E309" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="F309" t="s">
         <v>673</v>
@@ -11824,7 +11824,7 @@
         <v>936</v>
       </c>
       <c r="H309" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="I309" t="s">
         <v>964</v>
@@ -11833,7 +11833,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>1902</v>
       </c>
@@ -11844,13 +11844,13 @@
         <v>311</v>
       </c>
       <c r="E310" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="F310" t="s">
         <v>674</v>
       </c>
       <c r="H310" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="I310" t="s">
         <v>964</v>
@@ -11859,7 +11859,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>1902</v>
       </c>
@@ -11870,7 +11870,7 @@
         <v>312</v>
       </c>
       <c r="E311" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="F311" t="s">
         <v>675</v>
@@ -11879,7 +11879,7 @@
         <v>818</v>
       </c>
       <c r="H311" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="I311" t="s">
         <v>964</v>
@@ -11888,7 +11888,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>1902</v>
       </c>
@@ -11899,7 +11899,7 @@
         <v>313</v>
       </c>
       <c r="E312" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="F312" t="s">
         <v>676</v>
@@ -11908,7 +11908,7 @@
         <v>783</v>
       </c>
       <c r="H312" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="I312" t="s">
         <v>964</v>
@@ -11917,7 +11917,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>1902</v>
       </c>
@@ -11928,7 +11928,7 @@
         <v>314</v>
       </c>
       <c r="E313" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="F313" t="s">
         <v>677</v>
@@ -11937,7 +11937,7 @@
         <v>783</v>
       </c>
       <c r="H313" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="I313" t="s">
         <v>964</v>
@@ -11946,7 +11946,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>1902</v>
       </c>
@@ -11957,7 +11957,7 @@
         <v>315</v>
       </c>
       <c r="E314" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="F314" t="s">
         <v>678</v>
@@ -11966,7 +11966,7 @@
         <v>937</v>
       </c>
       <c r="H314" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="I314" t="s">
         <v>964</v>
@@ -11975,7 +11975,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>1902</v>
       </c>
@@ -11986,7 +11986,7 @@
         <v>316</v>
       </c>
       <c r="E315" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="F315" t="s">
         <v>679</v>
@@ -11995,7 +11995,7 @@
         <v>938</v>
       </c>
       <c r="H315" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="I315" t="s">
         <v>964</v>
@@ -12004,7 +12004,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>1902</v>
       </c>
@@ -12015,7 +12015,7 @@
         <v>317</v>
       </c>
       <c r="E316" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="F316" t="s">
         <v>680</v>
@@ -12024,7 +12024,7 @@
         <v>939</v>
       </c>
       <c r="H316" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="I316" t="s">
         <v>964</v>
@@ -12033,7 +12033,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>1902</v>
       </c>
@@ -12044,7 +12044,7 @@
         <v>318</v>
       </c>
       <c r="E317" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="F317" t="s">
         <v>681</v>
@@ -12053,13 +12053,13 @@
         <v>940</v>
       </c>
       <c r="H317" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="I317" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>1902</v>
       </c>
@@ -12070,7 +12070,7 @@
         <v>319</v>
       </c>
       <c r="E318" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="F318" t="s">
         <v>682</v>
@@ -12079,13 +12079,13 @@
         <v>941</v>
       </c>
       <c r="H318" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="I318" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>1902</v>
       </c>
@@ -12096,7 +12096,7 @@
         <v>320</v>
       </c>
       <c r="E319" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="F319" t="s">
         <v>683</v>
@@ -12105,13 +12105,13 @@
         <v>772</v>
       </c>
       <c r="H319" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="I319" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>1902</v>
       </c>
@@ -12122,7 +12122,7 @@
         <v>321</v>
       </c>
       <c r="E320" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="F320" t="s">
         <v>684</v>
@@ -12131,13 +12131,13 @@
         <v>942</v>
       </c>
       <c r="H320" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="I320" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>1902</v>
       </c>
@@ -12148,7 +12148,7 @@
         <v>322</v>
       </c>
       <c r="E321" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="F321" t="s">
         <v>685</v>
@@ -12157,13 +12157,13 @@
         <v>943</v>
       </c>
       <c r="H321" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="I321" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>1902</v>
       </c>
@@ -12174,7 +12174,7 @@
         <v>323</v>
       </c>
       <c r="E322" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="F322" t="s">
         <v>686</v>
@@ -12183,13 +12183,13 @@
         <v>783</v>
       </c>
       <c r="H322" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="I322" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>1902</v>
       </c>
@@ -12200,7 +12200,7 @@
         <v>324</v>
       </c>
       <c r="E323" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="F323" t="s">
         <v>687</v>
@@ -12209,13 +12209,13 @@
         <v>944</v>
       </c>
       <c r="H323" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="I323" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>1902</v>
       </c>
@@ -12226,7 +12226,7 @@
         <v>325</v>
       </c>
       <c r="E324" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="F324" t="s">
         <v>688</v>
@@ -12235,13 +12235,13 @@
         <v>943</v>
       </c>
       <c r="H324" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="I324" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>1902</v>
       </c>
@@ -12252,7 +12252,7 @@
         <v>326</v>
       </c>
       <c r="E325" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="F325" t="s">
         <v>689</v>
@@ -12261,13 +12261,13 @@
         <v>945</v>
       </c>
       <c r="H325" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="I325" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>1902</v>
       </c>
@@ -12278,7 +12278,7 @@
         <v>327</v>
       </c>
       <c r="E326" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="F326" t="s">
         <v>690</v>
@@ -12287,13 +12287,13 @@
         <v>741</v>
       </c>
       <c r="H326" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="I326" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>1902</v>
       </c>
@@ -12307,7 +12307,7 @@
         <v>328</v>
       </c>
       <c r="E327" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="F327" t="s">
         <v>691</v>
@@ -12316,13 +12316,13 @@
         <v>946</v>
       </c>
       <c r="H327" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="I327" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>1902</v>
       </c>
@@ -12336,7 +12336,7 @@
         <v>329</v>
       </c>
       <c r="E328" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="F328" t="s">
         <v>692</v>
@@ -12345,13 +12345,13 @@
         <v>947</v>
       </c>
       <c r="H328" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="I328" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>1902</v>
       </c>
@@ -12365,7 +12365,7 @@
         <v>330</v>
       </c>
       <c r="E329" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="F329" t="s">
         <v>693</v>
@@ -12374,13 +12374,13 @@
         <v>813</v>
       </c>
       <c r="H329" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="I329" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>1902</v>
       </c>
@@ -12394,7 +12394,7 @@
         <v>331</v>
       </c>
       <c r="E330" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="F330" t="s">
         <v>694</v>
@@ -12403,13 +12403,13 @@
         <v>783</v>
       </c>
       <c r="H330" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="I330" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>1902</v>
       </c>
@@ -12423,7 +12423,7 @@
         <v>332</v>
       </c>
       <c r="E331" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="F331" t="s">
         <v>695</v>
@@ -12432,13 +12432,13 @@
         <v>758</v>
       </c>
       <c r="H331" t="s">
-        <v>1096</v>
+        <v>1086</v>
       </c>
       <c r="I331" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>1902</v>
       </c>
@@ -12452,7 +12452,7 @@
         <v>333</v>
       </c>
       <c r="E332" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="F332" t="s">
         <v>696</v>
@@ -12461,13 +12461,13 @@
         <v>737</v>
       </c>
       <c r="H332" t="s">
-        <v>1096</v>
+        <v>1086</v>
       </c>
       <c r="I332" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>1902</v>
       </c>
@@ -12481,7 +12481,7 @@
         <v>334</v>
       </c>
       <c r="E333" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="F333" t="s">
         <v>697</v>
@@ -12490,13 +12490,13 @@
         <v>948</v>
       </c>
       <c r="H333" t="s">
-        <v>1096</v>
+        <v>1086</v>
       </c>
       <c r="I333" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>1902</v>
       </c>
@@ -12510,7 +12510,7 @@
         <v>335</v>
       </c>
       <c r="E334" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="F334" t="s">
         <v>698</v>
@@ -12519,13 +12519,13 @@
         <v>741</v>
       </c>
       <c r="H334" t="s">
-        <v>1096</v>
+        <v>1086</v>
       </c>
       <c r="I334" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>1902</v>
       </c>
@@ -12536,7 +12536,7 @@
         <v>336</v>
       </c>
       <c r="E335" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="F335" t="s">
         <v>699</v>
@@ -12545,13 +12545,13 @@
         <v>949</v>
       </c>
       <c r="H335" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="I335" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>1902</v>
       </c>
@@ -12562,7 +12562,7 @@
         <v>337</v>
       </c>
       <c r="E336" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="F336" t="s">
         <v>700</v>
@@ -12571,13 +12571,13 @@
         <v>755</v>
       </c>
       <c r="H336" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="I336" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>1902</v>
       </c>
@@ -12588,7 +12588,7 @@
         <v>338</v>
       </c>
       <c r="E337" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="F337" t="s">
         <v>701</v>
@@ -12597,13 +12597,13 @@
         <v>737</v>
       </c>
       <c r="H337" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="I337" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>1902</v>
       </c>
@@ -12614,7 +12614,7 @@
         <v>339</v>
       </c>
       <c r="E338" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="F338" t="s">
         <v>702</v>
@@ -12623,13 +12623,13 @@
         <v>737</v>
       </c>
       <c r="H338" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="I338" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>1902</v>
       </c>
@@ -12640,7 +12640,7 @@
         <v>340</v>
       </c>
       <c r="E339" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="F339" t="s">
         <v>703</v>
@@ -12649,13 +12649,13 @@
         <v>737</v>
       </c>
       <c r="H339" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="I339" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>1902</v>
       </c>
@@ -12666,7 +12666,7 @@
         <v>341</v>
       </c>
       <c r="E340" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="F340" t="s">
         <v>704</v>
@@ -12675,13 +12675,13 @@
         <v>737</v>
       </c>
       <c r="H340" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="I340" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>1902</v>
       </c>
@@ -12692,7 +12692,7 @@
         <v>342</v>
       </c>
       <c r="E341" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="F341" t="s">
         <v>705</v>
@@ -12701,13 +12701,13 @@
         <v>737</v>
       </c>
       <c r="H341" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="I341" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>1902</v>
       </c>
@@ -12718,7 +12718,7 @@
         <v>343</v>
       </c>
       <c r="E342" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="F342" t="s">
         <v>706</v>
@@ -12727,13 +12727,13 @@
         <v>950</v>
       </c>
       <c r="H342" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="I342" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>1902</v>
       </c>
@@ -12744,7 +12744,7 @@
         <v>344</v>
       </c>
       <c r="E343" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="F343" t="s">
         <v>707</v>
@@ -12753,19 +12753,19 @@
         <v>879</v>
       </c>
       <c r="H343" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="I343" t="s">
         <v>964</v>
       </c>
       <c r="K343" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="L343" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>1902</v>
       </c>
@@ -12776,7 +12776,7 @@
         <v>345</v>
       </c>
       <c r="E344" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="F344" t="s">
         <v>708</v>
@@ -12785,19 +12785,19 @@
         <v>951</v>
       </c>
       <c r="H344" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="I344" t="s">
         <v>964</v>
       </c>
       <c r="K344" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="L344" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>1902</v>
       </c>
@@ -12808,7 +12808,7 @@
         <v>346</v>
       </c>
       <c r="E345" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="F345" t="s">
         <v>709</v>
@@ -12817,19 +12817,19 @@
         <v>952</v>
       </c>
       <c r="H345" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="I345" t="s">
         <v>964</v>
       </c>
       <c r="K345" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="L345" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>1902</v>
       </c>
@@ -12840,7 +12840,7 @@
         <v>347</v>
       </c>
       <c r="E346" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="F346" t="s">
         <v>710</v>
@@ -12849,13 +12849,13 @@
         <v>953</v>
       </c>
       <c r="H346" t="s">
-        <v>1095</v>
+        <v>1085</v>
       </c>
       <c r="I346" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>1902</v>
       </c>
@@ -12866,7 +12866,7 @@
         <v>348</v>
       </c>
       <c r="E347" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="F347" t="s">
         <v>711</v>
@@ -12875,13 +12875,13 @@
         <v>954</v>
       </c>
       <c r="H347" t="s">
-        <v>1095</v>
+        <v>1085</v>
       </c>
       <c r="I347" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>1902</v>
       </c>
@@ -12892,7 +12892,7 @@
         <v>349</v>
       </c>
       <c r="E348" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="F348" t="s">
         <v>712</v>
@@ -12901,13 +12901,13 @@
         <v>955</v>
       </c>
       <c r="H348" t="s">
-        <v>1095</v>
+        <v>1085</v>
       </c>
       <c r="I348" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>1902</v>
       </c>
@@ -12918,7 +12918,7 @@
         <v>350</v>
       </c>
       <c r="E349" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="F349" t="s">
         <v>713</v>
@@ -12927,13 +12927,13 @@
         <v>956</v>
       </c>
       <c r="H349" t="s">
-        <v>1095</v>
+        <v>1085</v>
       </c>
       <c r="I349" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>1902</v>
       </c>
@@ -12944,7 +12944,7 @@
         <v>351</v>
       </c>
       <c r="E350" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="F350" t="s">
         <v>714</v>
@@ -12953,13 +12953,13 @@
         <v>957</v>
       </c>
       <c r="H350" t="s">
-        <v>1095</v>
+        <v>1085</v>
       </c>
       <c r="I350" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>1902</v>
       </c>
@@ -12970,7 +12970,7 @@
         <v>352</v>
       </c>
       <c r="E351" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="F351" t="s">
         <v>715</v>
@@ -12979,13 +12979,13 @@
         <v>958</v>
       </c>
       <c r="H351" t="s">
-        <v>1095</v>
+        <v>1085</v>
       </c>
       <c r="I351" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>1902</v>
       </c>
@@ -12996,7 +12996,7 @@
         <v>353</v>
       </c>
       <c r="E352" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="F352" t="s">
         <v>716</v>
@@ -13005,13 +13005,13 @@
         <v>738</v>
       </c>
       <c r="H352" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="I352" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>1902</v>
       </c>
@@ -13022,7 +13022,7 @@
         <v>354</v>
       </c>
       <c r="E353" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="F353" t="s">
         <v>717</v>
@@ -13031,13 +13031,13 @@
         <v>737</v>
       </c>
       <c r="H353" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="I353" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>1902</v>
       </c>
@@ -13048,7 +13048,7 @@
         <v>355</v>
       </c>
       <c r="E354" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="F354" t="s">
         <v>718</v>
@@ -13057,13 +13057,13 @@
         <v>737</v>
       </c>
       <c r="H354" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="I354" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>1902</v>
       </c>
@@ -13074,7 +13074,7 @@
         <v>356</v>
       </c>
       <c r="E355" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="F355" t="s">
         <v>719</v>
@@ -13083,13 +13083,13 @@
         <v>741</v>
       </c>
       <c r="H355" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="I355" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>1902</v>
       </c>
@@ -13100,7 +13100,7 @@
         <v>357</v>
       </c>
       <c r="E356" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="F356" t="s">
         <v>720</v>
@@ -13109,13 +13109,13 @@
         <v>959</v>
       </c>
       <c r="H356" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="I356" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>1902</v>
       </c>
@@ -13126,7 +13126,7 @@
         <v>358</v>
       </c>
       <c r="E357" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="F357" t="s">
         <v>721</v>
@@ -13135,13 +13135,13 @@
         <v>954</v>
       </c>
       <c r="H357" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="I357" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>1902</v>
       </c>
@@ -13152,7 +13152,7 @@
         <v>359</v>
       </c>
       <c r="E358" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="F358" t="s">
         <v>722</v>
@@ -13161,19 +13161,19 @@
         <v>849</v>
       </c>
       <c r="H358" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="I358" t="s">
         <v>964</v>
       </c>
       <c r="K358" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="L358" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>1902</v>
       </c>
@@ -13184,7 +13184,7 @@
         <v>360</v>
       </c>
       <c r="E359" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="F359" t="s">
         <v>723</v>
@@ -13193,19 +13193,19 @@
         <v>960</v>
       </c>
       <c r="H359" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="I359" t="s">
         <v>964</v>
       </c>
       <c r="K359" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="L359" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>1902</v>
       </c>
@@ -13216,7 +13216,7 @@
         <v>361</v>
       </c>
       <c r="E360" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="F360" t="s">
         <v>724</v>
@@ -13225,19 +13225,19 @@
         <v>961</v>
       </c>
       <c r="H360" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="I360" t="s">
         <v>964</v>
       </c>
       <c r="K360" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="L360" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>1902</v>
       </c>
@@ -13248,7 +13248,7 @@
         <v>362</v>
       </c>
       <c r="E361" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="F361" t="s">
         <v>725</v>
@@ -13257,13 +13257,13 @@
         <v>950</v>
       </c>
       <c r="H361" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="I361" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>1902</v>
       </c>
@@ -13274,7 +13274,7 @@
         <v>363</v>
       </c>
       <c r="E362" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="F362" t="s">
         <v>726</v>
@@ -13283,13 +13283,13 @@
         <v>962</v>
       </c>
       <c r="H362" t="s">
-        <v>1061</v>
+        <v>1095</v>
       </c>
       <c r="I362" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>1902</v>
       </c>
@@ -13300,7 +13300,7 @@
         <v>364</v>
       </c>
       <c r="E363" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="F363" t="s">
         <v>727</v>
@@ -13309,13 +13309,13 @@
         <v>737</v>
       </c>
       <c r="H363" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="I363" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>1902</v>
       </c>
@@ -13326,7 +13326,7 @@
         <v>365</v>
       </c>
       <c r="E364" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="F364" t="s">
         <v>728</v>
@@ -13335,13 +13335,13 @@
         <v>737</v>
       </c>
       <c r="H364" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="I364" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>1902</v>
       </c>
@@ -13352,7 +13352,7 @@
         <v>366</v>
       </c>
       <c r="E365" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="F365" t="s">
         <v>729</v>
@@ -13361,7 +13361,7 @@
         <v>783</v>
       </c>
       <c r="H365" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="I365" t="s">
         <v>963</v>
